--- a/Main Program (парсер масел)/Анализ.xlsx
+++ b/Main Program (парсер масел)/Анализ.xlsx
@@ -191,7 +191,7 @@
       <sz val="9"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="32">
     <fill>
       <patternFill/>
     </fill>
@@ -368,12 +368,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6347"/>
-        <bgColor rgb="FFFF6347"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
@@ -382,12 +376,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FFFFFF"/>
         <bgColor rgb="00FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF6347"/>
-        <bgColor rgb="00FF6347"/>
       </patternFill>
     </fill>
   </fills>
@@ -837,7 +825,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -1357,9 +1345,6 @@
     <xf numFmtId="0" fontId="2" fillId="30" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1391,10 +1376,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4646,8 +4628,8 @@
   </sheetPr>
   <dimension ref="A1:U9021"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.1796875" defaultRowHeight="13"/>
@@ -4673,51 +4655,51 @@
     <col width="20.453125" customWidth="1" style="178" min="19" max="19"/>
     <col width="12.7265625" customWidth="1" style="178" min="20" max="20"/>
     <col width="12.26953125" customWidth="1" style="178" min="21" max="21"/>
-    <col width="9.1796875" customWidth="1" style="178" min="22" max="140"/>
-    <col width="9.1796875" customWidth="1" style="178" min="141" max="16384"/>
+    <col width="9.1796875" customWidth="1" style="178" min="22" max="141"/>
+    <col width="9.1796875" customWidth="1" style="178" min="142" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" customHeight="1" s="196" thickBot="1">
+    <row r="1" ht="24" customHeight="1" s="195" thickBot="1">
       <c r="A1" s="1" t="n"/>
-      <c r="C1" s="188" t="inlineStr">
+      <c r="C1" s="187" t="inlineStr">
         <is>
           <t>Дистрибьюторы ГПН-СМ</t>
         </is>
       </c>
-      <c r="D1" s="189" t="n"/>
-      <c r="E1" s="189" t="n"/>
-      <c r="F1" s="190" t="n"/>
+      <c r="D1" s="188" t="n"/>
+      <c r="E1" s="188" t="n"/>
+      <c r="F1" s="189" t="n"/>
       <c r="G1" s="47" t="n"/>
       <c r="H1" s="48" t="n"/>
-      <c r="I1" s="194" t="inlineStr">
+      <c r="I1" s="193" t="inlineStr">
         <is>
           <t>Дилеры Лукойл</t>
         </is>
       </c>
-      <c r="J1" s="189" t="n"/>
-      <c r="K1" s="189" t="n"/>
-      <c r="L1" s="189" t="n"/>
-      <c r="M1" s="190" t="n"/>
+      <c r="J1" s="188" t="n"/>
+      <c r="K1" s="188" t="n"/>
+      <c r="L1" s="188" t="n"/>
+      <c r="M1" s="189" t="n"/>
       <c r="N1" s="97" t="n"/>
       <c r="O1" s="97" t="n"/>
-      <c r="P1" s="182" t="inlineStr">
+      <c r="P1" s="181" t="inlineStr">
         <is>
           <t>Дистрибьюторы Rosneft (TNK)</t>
         </is>
       </c>
-      <c r="Q1" s="183" t="n"/>
-      <c r="R1" s="183" t="n"/>
-      <c r="S1" s="183" t="n"/>
-      <c r="T1" s="183" t="n"/>
-      <c r="U1" s="183" t="n"/>
-    </row>
-    <row r="2" ht="22.9" customHeight="1" s="196">
-      <c r="A2" s="191" t="inlineStr">
+      <c r="Q1" s="182" t="n"/>
+      <c r="R1" s="182" t="n"/>
+      <c r="S1" s="182" t="n"/>
+      <c r="T1" s="182" t="n"/>
+      <c r="U1" s="182" t="n"/>
+    </row>
+    <row r="2" ht="22.9" customHeight="1" s="195">
+      <c r="A2" s="190" t="inlineStr">
         <is>
           <t>Наименование GAZPROMNEFT</t>
         </is>
       </c>
-      <c r="B2" s="193" t="inlineStr">
+      <c r="B2" s="192" t="inlineStr">
         <is>
           <t>Фасовка</t>
         </is>
@@ -4742,12 +4724,12 @@
           <t>ООО "Л-авто"</t>
         </is>
       </c>
-      <c r="G2" s="184" t="inlineStr">
+      <c r="G2" s="183" t="inlineStr">
         <is>
           <t>Наименование Lukoil</t>
         </is>
       </c>
-      <c r="H2" s="186" t="inlineStr">
+      <c r="H2" s="185" t="inlineStr">
         <is>
           <t>Фасовка</t>
         </is>
@@ -4777,12 +4759,12 @@
           <t>ООО «ДОМ АВТО»</t>
         </is>
       </c>
-      <c r="N2" s="184" t="inlineStr">
+      <c r="N2" s="183" t="inlineStr">
         <is>
           <t>Наименование Rosneft (TNK)</t>
         </is>
       </c>
-      <c r="O2" s="186" t="inlineStr">
+      <c r="O2" s="185" t="inlineStr">
         <is>
           <t>Фасовка</t>
         </is>
@@ -4818,9 +4800,9 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="19.15" customHeight="1" s="196" thickBot="1">
-      <c r="A3" s="192" t="n"/>
-      <c r="B3" s="187" t="n"/>
+    <row r="3" ht="19.15" customHeight="1" s="195" thickBot="1">
+      <c r="A3" s="191" t="n"/>
+      <c r="B3" s="186" t="n"/>
       <c r="C3" s="161" t="inlineStr">
         <is>
           <t xml:space="preserve">sivana.by </t>
@@ -4841,8 +4823,8 @@
           <t>l-auto.by</t>
         </is>
       </c>
-      <c r="G3" s="185" t="n"/>
-      <c r="H3" s="187" t="n"/>
+      <c r="G3" s="184" t="n"/>
+      <c r="H3" s="186" t="n"/>
       <c r="I3" s="95" t="inlineStr">
         <is>
           <t>shop.lukoil.by</t>
@@ -4868,8 +4850,8 @@
           <t>vitoil.by</t>
         </is>
       </c>
-      <c r="N3" s="185" t="n"/>
-      <c r="O3" s="187" t="n"/>
+      <c r="N3" s="184" t="n"/>
+      <c r="O3" s="186" t="n"/>
       <c r="P3" s="95" t="inlineStr">
         <is>
           <t xml:space="preserve">kplusauto.by </t>
@@ -4901,7 +4883,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="19.5" customHeight="1" s="196">
+    <row r="4" ht="19.5" customHeight="1" s="195">
       <c r="A4" s="91" t="inlineStr">
         <is>
           <t>Масла G-Family</t>
@@ -4928,7 +4910,7 @@
       <c r="T4" s="17" t="n"/>
       <c r="U4" s="17" t="n"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1" s="196">
+    <row r="5" ht="14.25" customHeight="1" s="195">
       <c r="A5" s="92" t="inlineStr">
         <is>
           <t>Масла для легковых автомобилей</t>
@@ -4955,7 +4937,7 @@
       <c r="T5" s="18" t="n"/>
       <c r="U5" s="18" t="n"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1" s="196">
+    <row r="6" ht="14.25" customHeight="1" s="195">
       <c r="A6" s="52" t="inlineStr">
         <is>
           <t>G-Energy Synthetic Super Start 5W-30</t>
@@ -5122,7 +5104,7 @@
         </is>
       </c>
       <c r="D10" s="104" t="n"/>
-      <c r="E10" s="197" t="inlineStr">
+      <c r="E10" s="196" t="inlineStr">
         <is>
           <t>12.65</t>
         </is>
@@ -5200,7 +5182,7 @@
         </is>
       </c>
       <c r="D12" s="104" t="n"/>
-      <c r="E12" s="197" t="inlineStr">
+      <c r="E12" s="196" t="inlineStr">
         <is>
           <t>12.65</t>
         </is>
@@ -5239,7 +5221,7 @@
       </c>
       <c r="C13" s="167" t="n"/>
       <c r="D13" s="104" t="n"/>
-      <c r="E13" s="197" t="inlineStr">
+      <c r="E13" s="196" t="inlineStr">
         <is>
           <t>1 624.70</t>
         </is>
@@ -9098,7 +9080,7 @@
       <c r="T124" s="23" t="n"/>
       <c r="U124" s="22" t="n"/>
     </row>
-    <row r="125" ht="14.25" customHeight="1" s="196">
+    <row r="125" ht="14.25" customHeight="1" s="195">
       <c r="A125" s="93" t="inlineStr">
         <is>
           <t>Масла для коммерческого транспорта</t>
@@ -9459,7 +9441,7 @@
       <c r="T135" s="21" t="n"/>
       <c r="U135" s="22" t="n"/>
     </row>
-    <row r="136" ht="13.4" customHeight="1" s="196">
+    <row r="136" ht="13.4" customHeight="1" s="195">
       <c r="A136" s="56" t="inlineStr">
         <is>
           <t>G-Profi MSI 10W-30</t>
@@ -9490,7 +9472,7 @@
       <c r="T136" s="21" t="n"/>
       <c r="U136" s="22" t="n"/>
     </row>
-    <row r="137" ht="13.4" customHeight="1" s="196">
+    <row r="137" ht="13.4" customHeight="1" s="195">
       <c r="A137" s="56" t="inlineStr">
         <is>
           <t>G-Profi MSI 10W-30</t>
@@ -9675,7 +9657,7 @@
       <c r="T141" s="21" t="n"/>
       <c r="U141" s="22" t="n"/>
     </row>
-    <row r="142" ht="11.25" customHeight="1" s="196">
+    <row r="142" ht="11.25" customHeight="1" s="195">
       <c r="A142" s="52" t="inlineStr">
         <is>
           <t>G-Profi MSI 10W-40</t>
@@ -9718,7 +9700,7 @@
       <c r="T142" s="21" t="n"/>
       <c r="U142" s="22" t="n"/>
     </row>
-    <row r="143" ht="11.25" customHeight="1" s="196">
+    <row r="143" ht="11.25" customHeight="1" s="195">
       <c r="A143" s="52" t="inlineStr">
         <is>
           <t>G-Profi MSI Plus 15W-40</t>
@@ -10474,7 +10456,7 @@
       <c r="T164" s="21" t="n"/>
       <c r="U164" s="22" t="n"/>
     </row>
-    <row r="165" ht="13.4" customHeight="1" s="196">
+    <row r="165" ht="13.4" customHeight="1" s="195">
       <c r="A165" s="56" t="inlineStr">
         <is>
           <t>G-Profi MSF 30</t>
@@ -10507,7 +10489,7 @@
       <c r="T165" s="21" t="n"/>
       <c r="U165" s="22" t="n"/>
     </row>
-    <row r="166" ht="13.4" customHeight="1" s="196">
+    <row r="166" ht="13.4" customHeight="1" s="195">
       <c r="A166" s="56" t="inlineStr">
         <is>
           <t>G-Profi MSF 40</t>
@@ -10538,7 +10520,7 @@
       <c r="T166" s="21" t="n"/>
       <c r="U166" s="22" t="n"/>
     </row>
-    <row r="167" ht="13.4" customHeight="1" s="196">
+    <row r="167" ht="13.4" customHeight="1" s="195">
       <c r="A167" s="56" t="inlineStr">
         <is>
           <t>G-Profi MSF 50</t>
@@ -10602,7 +10584,7 @@
       <c r="T168" s="21" t="n"/>
       <c r="U168" s="22" t="n"/>
     </row>
-    <row r="169" ht="13.5" customHeight="1" s="196">
+    <row r="169" ht="13.5" customHeight="1" s="195">
       <c r="A169" s="52" t="inlineStr">
         <is>
           <t>G-Profi CNG LA 10W-40</t>
@@ -12132,7 +12114,7 @@
       <c r="T212" s="21" t="n"/>
       <c r="U212" s="22" t="n"/>
     </row>
-    <row r="213" ht="12" customHeight="1" s="196">
+    <row r="213" ht="12" customHeight="1" s="195">
       <c r="A213" s="52" t="inlineStr">
         <is>
           <t>G-Box GL-4/GL-5 75W-90</t>
@@ -12901,7 +12883,7 @@
       <c r="T235" s="23" t="n"/>
       <c r="U235" s="22" t="n"/>
     </row>
-    <row r="236" ht="14.25" customHeight="1" s="196">
+    <row r="236" ht="14.25" customHeight="1" s="195">
       <c r="A236" s="54" t="inlineStr">
         <is>
           <t>Специальные продукты</t>
@@ -12928,7 +12910,7 @@
       <c r="T236" s="24" t="n"/>
       <c r="U236" s="24" t="n"/>
     </row>
-    <row r="237" ht="15" customHeight="1" s="196">
+    <row r="237" ht="15" customHeight="1" s="195">
       <c r="A237" s="52" t="inlineStr">
         <is>
           <t>G-Wave 2T</t>
@@ -12961,7 +12943,7 @@
       <c r="T237" s="21" t="n"/>
       <c r="U237" s="22" t="n"/>
     </row>
-    <row r="238" ht="12.75" customHeight="1" s="196">
+    <row r="238" ht="12.75" customHeight="1" s="195">
       <c r="A238" s="52" t="inlineStr">
         <is>
           <t>G-Wave 2T</t>
@@ -12996,7 +12978,7 @@
       <c r="T238" s="21" t="n"/>
       <c r="U238" s="22" t="n"/>
     </row>
-    <row r="239" ht="14.25" customHeight="1" s="196">
+    <row r="239" ht="14.25" customHeight="1" s="195">
       <c r="A239" s="52" t="inlineStr">
         <is>
           <t>G-Motion 2T</t>
@@ -13039,7 +13021,7 @@
       <c r="T239" s="21" t="n"/>
       <c r="U239" s="22" t="n"/>
     </row>
-    <row r="240" ht="12.75" customHeight="1" s="196">
+    <row r="240" ht="12.75" customHeight="1" s="195">
       <c r="A240" s="52" t="inlineStr">
         <is>
           <t>G-Motion 2T</t>
@@ -13457,7 +13439,7 @@
       <c r="T251" s="21" t="n"/>
       <c r="U251" s="22" t="n"/>
     </row>
-    <row r="252" ht="13.5" customHeight="1" s="196">
+    <row r="252" ht="13.5" customHeight="1" s="195">
       <c r="A252" s="52" t="inlineStr">
         <is>
           <t xml:space="preserve">G-Special TO-4 10W </t>
@@ -14104,7 +14086,7 @@
       <c r="T270" s="21" t="n"/>
       <c r="U270" s="22" t="n"/>
     </row>
-    <row r="271" ht="12.75" customHeight="1" s="196">
+    <row r="271" ht="12.75" customHeight="1" s="195">
       <c r="A271" s="56" t="inlineStr">
         <is>
           <t>G-Special Hydraulic HVLP-22</t>
@@ -14337,7 +14319,7 @@
       <c r="T277" s="21" t="n"/>
       <c r="U277" s="22" t="n"/>
     </row>
-    <row r="278" ht="13.4" customHeight="1" s="196">
+    <row r="278" ht="13.4" customHeight="1" s="195">
       <c r="A278" s="56" t="inlineStr">
         <is>
           <t>G-Special Hydraulic Nord-32</t>
@@ -14370,7 +14352,7 @@
       <c r="T278" s="21" t="n"/>
       <c r="U278" s="22" t="n"/>
     </row>
-    <row r="279" ht="13.4" customHeight="1" s="196">
+    <row r="279" ht="13.4" customHeight="1" s="195">
       <c r="A279" s="56" t="inlineStr">
         <is>
           <t>G-Special Hydraulic Nord-32</t>
@@ -14403,7 +14385,7 @@
       <c r="T279" s="21" t="n"/>
       <c r="U279" s="22" t="n"/>
     </row>
-    <row r="280" ht="15.75" customHeight="1" s="196">
+    <row r="280" ht="15.75" customHeight="1" s="195">
       <c r="A280" s="60" t="inlineStr">
         <is>
           <t>Масла линейки Expert</t>
@@ -14430,7 +14412,7 @@
       <c r="T280" s="17" t="n"/>
       <c r="U280" s="17" t="n"/>
     </row>
-    <row r="281" ht="14.25" customHeight="1" s="196">
+    <row r="281" ht="14.25" customHeight="1" s="195">
       <c r="A281" s="62" t="inlineStr">
         <is>
           <t>Масла для легковых автомобилей</t>
@@ -15351,7 +15333,7 @@
       <c r="T307" s="21" t="n"/>
       <c r="U307" s="22" t="n"/>
     </row>
-    <row r="308" ht="14.25" customHeight="1" s="196">
+    <row r="308" ht="14.25" customHeight="1" s="195">
       <c r="A308" s="54" t="inlineStr">
         <is>
           <t>Специальные продукты</t>
@@ -15446,7 +15428,7 @@
       <c r="T310" s="21" t="n"/>
       <c r="U310" s="22" t="n"/>
     </row>
-    <row r="311" ht="18" customHeight="1" s="196">
+    <row r="311" ht="18" customHeight="1" s="195">
       <c r="A311" s="60" t="inlineStr">
         <is>
           <t>Масла Gazpromneft</t>
@@ -15473,7 +15455,7 @@
       <c r="T311" s="17" t="n"/>
       <c r="U311" s="17" t="n"/>
     </row>
-    <row r="312" ht="14.25" customHeight="1" s="196">
+    <row r="312" ht="14.25" customHeight="1" s="195">
       <c r="A312" s="62" t="inlineStr">
         <is>
           <t>Масла для легковых автомобилей</t>
@@ -15500,7 +15482,7 @@
       <c r="T312" s="18" t="n"/>
       <c r="U312" s="18" t="n"/>
     </row>
-    <row r="313" ht="12" customHeight="1" s="196">
+    <row r="313" ht="12" customHeight="1" s="195">
       <c r="A313" s="57" t="inlineStr">
         <is>
           <t>Gazpromneft Premium JK 5W-30</t>
@@ -15531,7 +15513,7 @@
       <c r="T313" s="21" t="n"/>
       <c r="U313" s="22" t="n"/>
     </row>
-    <row r="314" ht="12.75" customHeight="1" s="196">
+    <row r="314" ht="12.75" customHeight="1" s="195">
       <c r="A314" s="57" t="inlineStr">
         <is>
           <t>Gazpromneft Premium JK 5W-30</t>
@@ -15562,7 +15544,7 @@
       <c r="T314" s="21" t="n"/>
       <c r="U314" s="22" t="n"/>
     </row>
-    <row r="315" ht="12.75" customHeight="1" s="196">
+    <row r="315" ht="12.75" customHeight="1" s="195">
       <c r="A315" s="57" t="inlineStr">
         <is>
           <t>Gazpromneft Premium JK 5W-30</t>
@@ -15593,7 +15575,7 @@
       <c r="T315" s="21" t="n"/>
       <c r="U315" s="22" t="n"/>
     </row>
-    <row r="316" ht="12.65" customHeight="1" s="196">
+    <row r="316" ht="12.65" customHeight="1" s="195">
       <c r="A316" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Premium N 5W-40</t>
@@ -15636,7 +15618,7 @@
       <c r="T316" s="21" t="n"/>
       <c r="U316" s="22" t="n"/>
     </row>
-    <row r="317" ht="12.65" customHeight="1" s="196">
+    <row r="317" ht="12.65" customHeight="1" s="195">
       <c r="A317" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Premium N 5W-40</t>
@@ -15675,7 +15657,7 @@
       <c r="T317" s="21" t="n"/>
       <c r="U317" s="22" t="n"/>
     </row>
-    <row r="318" ht="12.65" customHeight="1" s="196">
+    <row r="318" ht="12.65" customHeight="1" s="195">
       <c r="A318" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Premium N 5W-40</t>
@@ -15718,7 +15700,7 @@
       <c r="T318" s="21" t="n"/>
       <c r="U318" s="22" t="n"/>
     </row>
-    <row r="319" ht="12.65" customHeight="1" s="196">
+    <row r="319" ht="12.65" customHeight="1" s="195">
       <c r="A319" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Premium N 5W-40</t>
@@ -15753,7 +15735,7 @@
       <c r="T319" s="21" t="n"/>
       <c r="U319" s="22" t="n"/>
     </row>
-    <row r="320" ht="12.65" customHeight="1" s="196">
+    <row r="320" ht="12.65" customHeight="1" s="195">
       <c r="A320" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Premium N 5W-40</t>
@@ -15792,7 +15774,7 @@
       <c r="T320" s="21" t="n"/>
       <c r="U320" s="22" t="n"/>
     </row>
-    <row r="321" ht="12.65" customHeight="1" s="196">
+    <row r="321" ht="12.65" customHeight="1" s="195">
       <c r="A321" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Premium N 20W-50</t>
@@ -15823,7 +15805,7 @@
       <c r="T321" s="21" t="n"/>
       <c r="U321" s="22" t="n"/>
     </row>
-    <row r="322" ht="12.65" customHeight="1" s="196">
+    <row r="322" ht="12.65" customHeight="1" s="195">
       <c r="A322" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Premium N 20W-50</t>
@@ -15854,7 +15836,7 @@
       <c r="T322" s="21" t="n"/>
       <c r="U322" s="22" t="n"/>
     </row>
-    <row r="323" ht="12.65" customHeight="1" s="196">
+    <row r="323" ht="12.65" customHeight="1" s="195">
       <c r="A323" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Premium N 20W-50</t>
@@ -15885,7 +15867,7 @@
       <c r="T323" s="21" t="n"/>
       <c r="U323" s="22" t="n"/>
     </row>
-    <row r="324" ht="12.65" customHeight="1" s="196">
+    <row r="324" ht="12.65" customHeight="1" s="195">
       <c r="A324" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Premium N 20W-50</t>
@@ -15916,7 +15898,7 @@
       <c r="T324" s="21" t="n"/>
       <c r="U324" s="22" t="n"/>
     </row>
-    <row r="325" ht="12.65" customHeight="1" s="196">
+    <row r="325" ht="12.65" customHeight="1" s="195">
       <c r="A325" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Premium N 20W-50</t>
@@ -15947,7 +15929,7 @@
       <c r="T325" s="21" t="n"/>
       <c r="U325" s="22" t="n"/>
     </row>
-    <row r="326" ht="12.65" customHeight="1" s="196">
+    <row r="326" ht="12.65" customHeight="1" s="195">
       <c r="A326" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Premium L 5W-30</t>
@@ -15978,7 +15960,7 @@
       <c r="T326" s="21" t="n"/>
       <c r="U326" s="22" t="n"/>
     </row>
-    <row r="327" ht="12.65" customHeight="1" s="196">
+    <row r="327" ht="12.65" customHeight="1" s="195">
       <c r="A327" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Premium L 5W-30</t>
@@ -16009,7 +15991,7 @@
       <c r="T327" s="21" t="n"/>
       <c r="U327" s="22" t="n"/>
     </row>
-    <row r="328" ht="12.65" customHeight="1" s="196">
+    <row r="328" ht="12.65" customHeight="1" s="195">
       <c r="A328" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Premium L 5W-30</t>
@@ -16040,7 +16022,7 @@
       <c r="T328" s="21" t="n"/>
       <c r="U328" s="22" t="n"/>
     </row>
-    <row r="329" ht="12.65" customHeight="1" s="196">
+    <row r="329" ht="12.65" customHeight="1" s="195">
       <c r="A329" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Premium L 5W-40</t>
@@ -16071,7 +16053,7 @@
       <c r="T329" s="21" t="n"/>
       <c r="U329" s="22" t="n"/>
     </row>
-    <row r="330" ht="12.65" customHeight="1" s="196">
+    <row r="330" ht="12.65" customHeight="1" s="195">
       <c r="A330" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Premium L 5W-40</t>
@@ -16102,7 +16084,7 @@
       <c r="T330" s="21" t="n"/>
       <c r="U330" s="22" t="n"/>
     </row>
-    <row r="331" ht="12.65" customHeight="1" s="196">
+    <row r="331" ht="12.65" customHeight="1" s="195">
       <c r="A331" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Premium L 5W-40</t>
@@ -16133,7 +16115,7 @@
       <c r="T331" s="21" t="n"/>
       <c r="U331" s="22" t="n"/>
     </row>
-    <row r="332" ht="12.65" customHeight="1" s="196">
+    <row r="332" ht="12.65" customHeight="1" s="195">
       <c r="A332" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Premium L 5W-40</t>
@@ -16487,7 +16469,7 @@
       <c r="T341" s="21" t="n"/>
       <c r="U341" s="22" t="n"/>
     </row>
-    <row r="342" ht="12" customHeight="1" s="196">
+    <row r="342" ht="12" customHeight="1" s="195">
       <c r="A342" s="64" t="inlineStr">
         <is>
           <t>Gazpromneft Premium L 10W-30</t>
@@ -16797,7 +16779,7 @@
       <c r="T351" s="21" t="n"/>
       <c r="U351" s="22" t="n"/>
     </row>
-    <row r="352" ht="12.65" customHeight="1" s="196">
+    <row r="352" ht="12.65" customHeight="1" s="195">
       <c r="A352" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Super 5W-30</t>
@@ -16912,7 +16894,7 @@
       <c r="T354" s="21" t="n"/>
       <c r="U354" s="22" t="n"/>
     </row>
-    <row r="355" ht="12.65" customHeight="1" s="196">
+    <row r="355" ht="12.65" customHeight="1" s="195">
       <c r="A355" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Super 5W-40</t>
@@ -16945,7 +16927,7 @@
       <c r="T355" s="21" t="n"/>
       <c r="U355" s="22" t="n"/>
     </row>
-    <row r="356" ht="12.65" customHeight="1" s="196">
+    <row r="356" ht="12.65" customHeight="1" s="195">
       <c r="A356" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Super 5W-40</t>
@@ -17247,7 +17229,7 @@
       <c r="T363" s="21" t="n"/>
       <c r="U363" s="22" t="n"/>
     </row>
-    <row r="364" ht="13.4" customHeight="1" s="196">
+    <row r="364" ht="13.4" customHeight="1" s="195">
       <c r="A364" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Super 10W-40</t>
@@ -17614,7 +17596,7 @@
       <c r="T372" s="21" t="n"/>
       <c r="U372" s="22" t="n"/>
     </row>
-    <row r="373" ht="12.65" customHeight="1" s="196">
+    <row r="373" ht="12.65" customHeight="1" s="195">
       <c r="A373" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Standard 10W-40</t>
@@ -17805,7 +17787,7 @@
       <c r="T377" s="21" t="n"/>
       <c r="U377" s="22" t="n"/>
     </row>
-    <row r="378" ht="12.65" customHeight="1" s="196">
+    <row r="378" ht="12.65" customHeight="1" s="195">
       <c r="A378" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Standard 15W-40</t>
@@ -17980,7 +17962,7 @@
       <c r="T382" s="21" t="n"/>
       <c r="U382" s="22" t="n"/>
     </row>
-    <row r="383" ht="12.75" customHeight="1" s="196">
+    <row r="383" ht="12.75" customHeight="1" s="195">
       <c r="A383" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Standard 20W-50</t>
@@ -18227,7 +18209,7 @@
       <c r="T389" s="21" t="n"/>
       <c r="U389" s="22" t="n"/>
     </row>
-    <row r="390" ht="12.75" customHeight="1" s="196">
+    <row r="390" ht="12.75" customHeight="1" s="195">
       <c r="A390" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Motor Oil 40</t>
@@ -18260,7 +18242,7 @@
       <c r="T390" s="21" t="n"/>
       <c r="U390" s="22" t="n"/>
     </row>
-    <row r="391" ht="12.75" customHeight="1" s="196">
+    <row r="391" ht="12.75" customHeight="1" s="195">
       <c r="A391" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Motor Oil 40</t>
@@ -18293,7 +18275,7 @@
       <c r="T391" s="21" t="n"/>
       <c r="U391" s="22" t="n"/>
     </row>
-    <row r="392" ht="12.75" customHeight="1" s="196">
+    <row r="392" ht="12.75" customHeight="1" s="195">
       <c r="A392" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Motor Oil 40</t>
@@ -18326,7 +18308,7 @@
       <c r="T392" s="21" t="n"/>
       <c r="U392" s="22" t="n"/>
     </row>
-    <row r="393" ht="12.75" customHeight="1" s="196">
+    <row r="393" ht="12.75" customHeight="1" s="195">
       <c r="A393" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Motor Oil 40</t>
@@ -18359,7 +18341,7 @@
       <c r="T393" s="21" t="n"/>
       <c r="U393" s="22" t="n"/>
     </row>
-    <row r="394" ht="12.75" customHeight="1" s="196">
+    <row r="394" ht="12.75" customHeight="1" s="195">
       <c r="A394" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Motor Oil 40</t>
@@ -18392,7 +18374,7 @@
       <c r="T394" s="21" t="n"/>
       <c r="U394" s="22" t="n"/>
     </row>
-    <row r="395" ht="12.75" customHeight="1" s="196">
+    <row r="395" ht="12.75" customHeight="1" s="195">
       <c r="A395" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Motor Oil 50</t>
@@ -18425,7 +18407,7 @@
       <c r="T395" s="21" t="n"/>
       <c r="U395" s="22" t="n"/>
     </row>
-    <row r="396" ht="12.75" customHeight="1" s="196">
+    <row r="396" ht="12.75" customHeight="1" s="195">
       <c r="A396" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Motor Oil 50</t>
@@ -18458,7 +18440,7 @@
       <c r="T396" s="21" t="n"/>
       <c r="U396" s="22" t="n"/>
     </row>
-    <row r="397" ht="12.75" customHeight="1" s="196">
+    <row r="397" ht="12.75" customHeight="1" s="195">
       <c r="A397" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Motor Oil 50</t>
@@ -18491,7 +18473,7 @@
       <c r="T397" s="21" t="n"/>
       <c r="U397" s="22" t="n"/>
     </row>
-    <row r="398" ht="12.75" customHeight="1" s="196">
+    <row r="398" ht="12.75" customHeight="1" s="195">
       <c r="A398" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Motor Oil 50</t>
@@ -18524,7 +18506,7 @@
       <c r="T398" s="21" t="n"/>
       <c r="U398" s="22" t="n"/>
     </row>
-    <row r="399" ht="12.75" customHeight="1" s="196">
+    <row r="399" ht="12.75" customHeight="1" s="195">
       <c r="A399" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Motor Oil 50</t>
@@ -18557,7 +18539,7 @@
       <c r="T399" s="21" t="n"/>
       <c r="U399" s="22" t="n"/>
     </row>
-    <row r="400" ht="12.75" customHeight="1" s="196">
+    <row r="400" ht="12.75" customHeight="1" s="195">
       <c r="A400" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Motor Oil 60</t>
@@ -18590,7 +18572,7 @@
       <c r="T400" s="21" t="n"/>
       <c r="U400" s="22" t="n"/>
     </row>
-    <row r="401" ht="12.75" customHeight="1" s="196">
+    <row r="401" ht="12.75" customHeight="1" s="195">
       <c r="A401" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Motor Oil 60</t>
@@ -18623,7 +18605,7 @@
       <c r="T401" s="21" t="n"/>
       <c r="U401" s="22" t="n"/>
     </row>
-    <row r="402" ht="12.75" customHeight="1" s="196">
+    <row r="402" ht="12.75" customHeight="1" s="195">
       <c r="A402" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Motor Oil 60</t>
@@ -18656,7 +18638,7 @@
       <c r="T402" s="21" t="n"/>
       <c r="U402" s="22" t="n"/>
     </row>
-    <row r="403" ht="12.75" customHeight="1" s="196">
+    <row r="403" ht="12.75" customHeight="1" s="195">
       <c r="A403" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Motor Oil 60</t>
@@ -18689,7 +18671,7 @@
       <c r="T403" s="21" t="n"/>
       <c r="U403" s="22" t="n"/>
     </row>
-    <row r="404" ht="12.75" customHeight="1" s="196">
+    <row r="404" ht="12.75" customHeight="1" s="195">
       <c r="A404" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Motor Oil 60</t>
@@ -18722,7 +18704,7 @@
       <c r="T404" s="21" t="n"/>
       <c r="U404" s="22" t="n"/>
     </row>
-    <row r="405" ht="14.25" customHeight="1" s="196">
+    <row r="405" ht="14.25" customHeight="1" s="195">
       <c r="A405" s="54" t="inlineStr">
         <is>
           <t>Масла для коммерческого транспорта</t>
@@ -18749,7 +18731,7 @@
       <c r="T405" s="24" t="n"/>
       <c r="U405" s="24" t="n"/>
     </row>
-    <row r="406" ht="12.75" customHeight="1" s="196">
+    <row r="406" ht="12.75" customHeight="1" s="195">
       <c r="A406" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Diesel Ultra 5W-30</t>
@@ -18780,7 +18762,7 @@
       <c r="T406" s="21" t="n"/>
       <c r="U406" s="22" t="n"/>
     </row>
-    <row r="407" ht="12" customHeight="1" s="196">
+    <row r="407" ht="12" customHeight="1" s="195">
       <c r="A407" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Diesel Ultra 10W-40</t>
@@ -18811,7 +18793,7 @@
       <c r="T407" s="21" t="n"/>
       <c r="U407" s="22" t="n"/>
     </row>
-    <row r="408" ht="12" customHeight="1" s="196">
+    <row r="408" ht="12" customHeight="1" s="195">
       <c r="A408" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Diesel Ultra 15W-40</t>
@@ -18842,7 +18824,7 @@
       <c r="T408" s="21" t="n"/>
       <c r="U408" s="22" t="n"/>
     </row>
-    <row r="409" ht="12" customHeight="1" s="196">
+    <row r="409" ht="12" customHeight="1" s="195">
       <c r="A409" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Diesel Ultra LA 10W-40</t>
@@ -18879,7 +18861,7 @@
       <c r="T409" s="21" t="n"/>
       <c r="U409" s="22" t="n"/>
     </row>
-    <row r="410" ht="12" customHeight="1" s="196">
+    <row r="410" ht="12" customHeight="1" s="195">
       <c r="A410" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Diesel Ultra LA 10W-40</t>
@@ -18920,7 +18902,7 @@
       <c r="T410" s="21" t="n"/>
       <c r="U410" s="22" t="n"/>
     </row>
-    <row r="411" ht="12" customHeight="1" s="196">
+    <row r="411" ht="12" customHeight="1" s="195">
       <c r="A411" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Diesel Ultra Plus 10W-40</t>
@@ -18959,7 +18941,7 @@
       <c r="T411" s="21" t="n"/>
       <c r="U411" s="22" t="n"/>
     </row>
-    <row r="412" ht="12.65" customHeight="1" s="196">
+    <row r="412" ht="12.65" customHeight="1" s="195">
       <c r="A412" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Diesel Premium 5W-40</t>
@@ -18992,7 +18974,7 @@
       <c r="T412" s="23" t="n"/>
       <c r="U412" s="22" t="n"/>
     </row>
-    <row r="413" ht="12.65" customHeight="1" s="196">
+    <row r="413" ht="12.65" customHeight="1" s="195">
       <c r="A413" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Diesel Premium 5W-40</t>
@@ -19029,7 +19011,7 @@
       <c r="T413" s="23" t="n"/>
       <c r="U413" s="22" t="n"/>
     </row>
-    <row r="414" ht="12.65" customHeight="1" s="196">
+    <row r="414" ht="12.65" customHeight="1" s="195">
       <c r="A414" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Diesel Premium 5W-40</t>
@@ -19062,7 +19044,7 @@
       <c r="T414" s="23" t="n"/>
       <c r="U414" s="22" t="n"/>
     </row>
-    <row r="415" ht="12.65" customHeight="1" s="196">
+    <row r="415" ht="12.65" customHeight="1" s="195">
       <c r="A415" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Diesel Premium 5W-40</t>
@@ -19103,7 +19085,7 @@
       <c r="T415" s="23" t="n"/>
       <c r="U415" s="22" t="n"/>
     </row>
-    <row r="416" ht="12.65" customHeight="1" s="196">
+    <row r="416" ht="12.65" customHeight="1" s="195">
       <c r="A416" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Diesel Premium 10W-30</t>
@@ -19136,7 +19118,7 @@
       <c r="T416" s="21" t="n"/>
       <c r="U416" s="22" t="n"/>
     </row>
-    <row r="417" ht="12.65" customHeight="1" s="196">
+    <row r="417" ht="12.65" customHeight="1" s="195">
       <c r="A417" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Diesel Premium 10W-30</t>
@@ -19173,7 +19155,7 @@
       <c r="T417" s="23" t="n"/>
       <c r="U417" s="22" t="n"/>
     </row>
-    <row r="418" ht="12.65" customHeight="1" s="196">
+    <row r="418" ht="12.65" customHeight="1" s="195">
       <c r="A418" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Diesel Premium 10W-30</t>
@@ -19212,7 +19194,7 @@
       <c r="T418" s="23" t="n"/>
       <c r="U418" s="22" t="n"/>
     </row>
-    <row r="419" ht="13.5" customHeight="1" s="196">
+    <row r="419" ht="13.5" customHeight="1" s="195">
       <c r="A419" s="66" t="inlineStr">
         <is>
           <t>Gazpromneft Diesel Premium 10W-40</t>
@@ -19360,7 +19342,7 @@
       <c r="T422" s="21" t="n"/>
       <c r="U422" s="22" t="n"/>
     </row>
-    <row r="423" ht="12.65" customHeight="1" s="196">
+    <row r="423" ht="12.65" customHeight="1" s="195">
       <c r="A423" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Diesel Premium 10W-40</t>
@@ -19393,7 +19375,7 @@
       <c r="T423" s="23" t="n"/>
       <c r="U423" s="22" t="n"/>
     </row>
-    <row r="424" ht="12.65" customHeight="1" s="196">
+    <row r="424" ht="12.65" customHeight="1" s="195">
       <c r="A424" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Diesel Premium 10W-40</t>
@@ -19531,7 +19513,7 @@
       <c r="T427" s="21" t="n"/>
       <c r="U427" s="22" t="n"/>
     </row>
-    <row r="428" ht="12.65" customHeight="1" s="196">
+    <row r="428" ht="12.65" customHeight="1" s="195">
       <c r="A428" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Diesel Premium 15W-40</t>
@@ -19601,7 +19583,7 @@
       <c r="T429" s="21" t="n"/>
       <c r="U429" s="22" t="n"/>
     </row>
-    <row r="430" ht="14.25" customHeight="1" s="196">
+    <row r="430" ht="14.25" customHeight="1" s="195">
       <c r="A430" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Diesel Premium 15W-40</t>
@@ -19706,7 +19688,7 @@
       <c r="T432" s="21" t="n"/>
       <c r="U432" s="22" t="n"/>
     </row>
-    <row r="433" ht="12.65" customHeight="1" s="196">
+    <row r="433" ht="12.65" customHeight="1" s="195">
       <c r="A433" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Diesel Premium 15W-40</t>
@@ -19815,7 +19797,7 @@
       <c r="T435" s="21" t="n"/>
       <c r="U435" s="22" t="n"/>
     </row>
-    <row r="436" ht="12.65" customHeight="1" s="196">
+    <row r="436" ht="12.65" customHeight="1" s="195">
       <c r="A436" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Diesel Prioritet 10W-30</t>
@@ -19852,7 +19834,7 @@
       <c r="T436" s="23" t="n"/>
       <c r="U436" s="22" t="n"/>
     </row>
-    <row r="437" ht="12.65" customHeight="1" s="196">
+    <row r="437" ht="12.65" customHeight="1" s="195">
       <c r="A437" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Diesel Prioritet 10W-30</t>
@@ -19885,7 +19867,7 @@
       <c r="T437" s="23" t="n"/>
       <c r="U437" s="22" t="n"/>
     </row>
-    <row r="438" ht="12.65" customHeight="1" s="196">
+    <row r="438" ht="12.65" customHeight="1" s="195">
       <c r="A438" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Diesel Prioritet 10W-30</t>
@@ -19918,7 +19900,7 @@
       <c r="T438" s="23" t="n"/>
       <c r="U438" s="22" t="n"/>
     </row>
-    <row r="439" ht="12.65" customHeight="1" s="196">
+    <row r="439" ht="12.65" customHeight="1" s="195">
       <c r="A439" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Diesel Prioritet 10W-40</t>
@@ -20070,7 +20052,7 @@
       <c r="T442" s="21" t="n"/>
       <c r="U442" s="22" t="n"/>
     </row>
-    <row r="443" ht="12.65" customHeight="1" s="196">
+    <row r="443" ht="12.65" customHeight="1" s="195">
       <c r="A443" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Diesel Prioritet 10W-40</t>
@@ -20146,7 +20128,7 @@
       <c r="T444" s="21" t="n"/>
       <c r="U444" s="22" t="n"/>
     </row>
-    <row r="445" ht="12.65" customHeight="1" s="196">
+    <row r="445" ht="12.65" customHeight="1" s="195">
       <c r="A445" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Diesel Prioritet 15W-40</t>
@@ -20220,7 +20202,7 @@
       <c r="T446" s="21" t="n"/>
       <c r="U446" s="22" t="n"/>
     </row>
-    <row r="447" ht="12.65" customHeight="1" s="196">
+    <row r="447" ht="12.65" customHeight="1" s="195">
       <c r="A447" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Diesel Prioritet 15W-40</t>
@@ -20296,7 +20278,7 @@
       <c r="T448" s="21" t="n"/>
       <c r="U448" s="22" t="n"/>
     </row>
-    <row r="449" ht="12.65" customHeight="1" s="196">
+    <row r="449" ht="12.65" customHeight="1" s="195">
       <c r="A449" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Diesel Prioritet 15W-40</t>
@@ -20329,7 +20311,7 @@
       <c r="T449" s="23" t="n"/>
       <c r="U449" s="22" t="n"/>
     </row>
-    <row r="450" ht="12.65" customHeight="1" s="196">
+    <row r="450" ht="12.65" customHeight="1" s="195">
       <c r="A450" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Diesel Prioritet 15W-40</t>
@@ -20436,7 +20418,7 @@
       <c r="T452" s="21" t="n"/>
       <c r="U452" s="22" t="n"/>
     </row>
-    <row r="453" ht="13.5" customHeight="1" s="196">
+    <row r="453" ht="13.5" customHeight="1" s="195">
       <c r="A453" s="52" t="inlineStr">
         <is>
           <t>Gazpromneft Diesel Prioritet 20W-50</t>
@@ -20502,7 +20484,7 @@
       <c r="T454" s="21" t="n"/>
       <c r="U454" s="22" t="n"/>
     </row>
-    <row r="455" ht="12.65" customHeight="1" s="196">
+    <row r="455" ht="12.65" customHeight="1" s="195">
       <c r="A455" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Diesel Extra 10W-40</t>
@@ -20537,7 +20519,7 @@
       <c r="T455" s="23" t="n"/>
       <c r="U455" s="22" t="n"/>
     </row>
-    <row r="456" ht="12.65" customHeight="1" s="196">
+    <row r="456" ht="12.65" customHeight="1" s="195">
       <c r="A456" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Diesel Extra 10W-40</t>
@@ -20695,7 +20677,7 @@
       <c r="T459" s="21" t="n"/>
       <c r="U459" s="22" t="n"/>
     </row>
-    <row r="460" ht="12.65" customHeight="1" s="196">
+    <row r="460" ht="12.65" customHeight="1" s="195">
       <c r="A460" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Diesel Extra 10W-40</t>
@@ -20839,7 +20821,7 @@
       <c r="T463" s="21" t="n"/>
       <c r="U463" s="22" t="n"/>
     </row>
-    <row r="464" ht="12.65" customHeight="1" s="196">
+    <row r="464" ht="12.65" customHeight="1" s="195">
       <c r="A464" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Diesel Extra 15W-40</t>
@@ -20915,7 +20897,7 @@
       <c r="T465" s="21" t="n"/>
       <c r="U465" s="22" t="n"/>
     </row>
-    <row r="466" ht="12.65" customHeight="1" s="196">
+    <row r="466" ht="12.65" customHeight="1" s="195">
       <c r="A466" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Diesel Extra 15W-40</t>
@@ -20995,7 +20977,7 @@
       <c r="T467" s="21" t="n"/>
       <c r="U467" s="22" t="n"/>
     </row>
-    <row r="468" ht="12.65" customHeight="1" s="196">
+    <row r="468" ht="12.65" customHeight="1" s="195">
       <c r="A468" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Diesel Extra 15W-40</t>
@@ -21028,7 +21010,7 @@
       <c r="T468" s="23" t="n"/>
       <c r="U468" s="22" t="n"/>
     </row>
-    <row r="469" ht="12.65" customHeight="1" s="196">
+    <row r="469" ht="12.65" customHeight="1" s="195">
       <c r="A469" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Diesel Extra 15W-40</t>
@@ -21374,7 +21356,7 @@
       <c r="T478" s="21" t="n"/>
       <c r="U478" s="22" t="n"/>
     </row>
-    <row r="479" ht="12.65" customHeight="1" s="196">
+    <row r="479" ht="12.65" customHeight="1" s="195">
       <c r="A479" s="68" t="inlineStr">
         <is>
           <t>Gazpromneft Turbo Universal 15W-40</t>
@@ -21483,7 +21465,7 @@
       <c r="T481" s="21" t="n"/>
       <c r="U481" s="22" t="n"/>
     </row>
-    <row r="482" ht="12.65" customHeight="1" s="196">
+    <row r="482" ht="12.65" customHeight="1" s="195">
       <c r="A482" s="68" t="inlineStr">
         <is>
           <t>Gazpromneft Turbo Universal 15W-40</t>
@@ -21555,7 +21537,7 @@
       <c r="T483" s="21" t="n"/>
       <c r="U483" s="22" t="n"/>
     </row>
-    <row r="484" ht="12.65" customHeight="1" s="196">
+    <row r="484" ht="12.65" customHeight="1" s="195">
       <c r="A484" s="68" t="inlineStr">
         <is>
           <t>Gazpromneft Turbo Universal 15W-40</t>
@@ -21588,7 +21570,7 @@
       <c r="T484" s="21" t="n"/>
       <c r="U484" s="22" t="n"/>
     </row>
-    <row r="485" ht="12.65" customHeight="1" s="196">
+    <row r="485" ht="12.65" customHeight="1" s="195">
       <c r="A485" s="69" t="inlineStr">
         <is>
           <t>Gazpromneft Turbo Universal 20W-50</t>
@@ -21621,7 +21603,7 @@
       <c r="T485" s="23" t="n"/>
       <c r="U485" s="22" t="n"/>
     </row>
-    <row r="486" ht="12.65" customHeight="1" s="196">
+    <row r="486" ht="12.65" customHeight="1" s="195">
       <c r="A486" s="69" t="inlineStr">
         <is>
           <t>Gazpromneft Turbo Universal 20W-50</t>
@@ -21654,7 +21636,7 @@
       <c r="T486" s="23" t="n"/>
       <c r="U486" s="22" t="n"/>
     </row>
-    <row r="487" ht="12.65" customHeight="1" s="196">
+    <row r="487" ht="12.65" customHeight="1" s="195">
       <c r="A487" s="69" t="inlineStr">
         <is>
           <t>Gazpromneft Turbo Universal 20W-50</t>
@@ -21687,7 +21669,7 @@
       <c r="T487" s="23" t="n"/>
       <c r="U487" s="22" t="n"/>
     </row>
-    <row r="488" ht="12.65" customHeight="1" s="196">
+    <row r="488" ht="12.65" customHeight="1" s="195">
       <c r="A488" s="69" t="inlineStr">
         <is>
           <t>Gazpromneft Turbo Universal 20W-50</t>
@@ -21720,7 +21702,7 @@
       <c r="T488" s="23" t="n"/>
       <c r="U488" s="22" t="n"/>
     </row>
-    <row r="489" ht="12.65" customHeight="1" s="196">
+    <row r="489" ht="12.65" customHeight="1" s="195">
       <c r="A489" s="69" t="inlineStr">
         <is>
           <t>Gazpromneft Turbo Universal 20W-50</t>
@@ -21753,7 +21735,7 @@
       <c r="T489" s="23" t="n"/>
       <c r="U489" s="22" t="n"/>
     </row>
-    <row r="490" ht="12.65" customHeight="1" s="196">
+    <row r="490" ht="12.65" customHeight="1" s="195">
       <c r="A490" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Diesel Sahara 20W-50</t>
@@ -21784,7 +21766,7 @@
       <c r="T490" s="21" t="n"/>
       <c r="U490" s="22" t="n"/>
     </row>
-    <row r="491" ht="12.65" customHeight="1" s="196">
+    <row r="491" ht="12.65" customHeight="1" s="195">
       <c r="A491" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft Diesel Extra 40 </t>
@@ -21817,7 +21799,7 @@
       <c r="T491" s="23" t="n"/>
       <c r="U491" s="22" t="n"/>
     </row>
-    <row r="492" ht="12.65" customHeight="1" s="196">
+    <row r="492" ht="12.65" customHeight="1" s="195">
       <c r="A492" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft Diesel Extra 40 </t>
@@ -21850,7 +21832,7 @@
       <c r="T492" s="23" t="n"/>
       <c r="U492" s="22" t="n"/>
     </row>
-    <row r="493" ht="12.65" customHeight="1" s="196">
+    <row r="493" ht="12.65" customHeight="1" s="195">
       <c r="A493" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft Diesel Extra 40 </t>
@@ -21883,7 +21865,7 @@
       <c r="T493" s="23" t="n"/>
       <c r="U493" s="22" t="n"/>
     </row>
-    <row r="494" ht="12.65" customHeight="1" s="196">
+    <row r="494" ht="12.65" customHeight="1" s="195">
       <c r="A494" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft Diesel Extra 40 </t>
@@ -21916,7 +21898,7 @@
       <c r="T494" s="23" t="n"/>
       <c r="U494" s="22" t="n"/>
     </row>
-    <row r="495" ht="12.65" customHeight="1" s="196">
+    <row r="495" ht="12.65" customHeight="1" s="195">
       <c r="A495" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft Diesel Extra 40 </t>
@@ -21949,7 +21931,7 @@
       <c r="T495" s="23" t="n"/>
       <c r="U495" s="22" t="n"/>
     </row>
-    <row r="496" ht="12.65" customHeight="1" s="196">
+    <row r="496" ht="12.65" customHeight="1" s="195">
       <c r="A496" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Diesel Extra 50</t>
@@ -21980,7 +21962,7 @@
       <c r="T496" s="23" t="n"/>
       <c r="U496" s="22" t="n"/>
     </row>
-    <row r="497" ht="12.65" customHeight="1" s="196">
+    <row r="497" ht="12.65" customHeight="1" s="195">
       <c r="A497" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Diesel Extra 50</t>
@@ -22013,7 +21995,7 @@
       <c r="T497" s="23" t="n"/>
       <c r="U497" s="22" t="n"/>
     </row>
-    <row r="498" ht="12.65" customHeight="1" s="196">
+    <row r="498" ht="12.65" customHeight="1" s="195">
       <c r="A498" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Diesel Extra 50</t>
@@ -22046,7 +22028,7 @@
       <c r="T498" s="23" t="n"/>
       <c r="U498" s="22" t="n"/>
     </row>
-    <row r="499" ht="12.65" customHeight="1" s="196">
+    <row r="499" ht="12.65" customHeight="1" s="195">
       <c r="A499" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Diesel Extra 50</t>
@@ -22079,7 +22061,7 @@
       <c r="T499" s="23" t="n"/>
       <c r="U499" s="22" t="n"/>
     </row>
-    <row r="500" ht="12.65" customHeight="1" s="196">
+    <row r="500" ht="12.65" customHeight="1" s="195">
       <c r="A500" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Diesel Extra 50</t>
@@ -22178,7 +22160,7 @@
       <c r="T502" s="21" t="n"/>
       <c r="U502" s="22" t="n"/>
     </row>
-    <row r="503" ht="12.65" customHeight="1" s="196">
+    <row r="503" ht="12.65" customHeight="1" s="195">
       <c r="A503" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft HD 40</t>
@@ -22310,7 +22292,7 @@
       <c r="T506" s="21" t="n"/>
       <c r="U506" s="22" t="n"/>
     </row>
-    <row r="507" ht="12.65" customHeight="1" s="196">
+    <row r="507" ht="12.65" customHeight="1" s="195">
       <c r="A507" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft HD 40</t>
@@ -22574,7 +22556,7 @@
       <c r="T514" s="21" t="n"/>
       <c r="U514" s="22" t="n"/>
     </row>
-    <row r="515" ht="12.65" customHeight="1" s="196">
+    <row r="515" ht="12.65" customHeight="1" s="195">
       <c r="A515" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft HD 50 </t>
@@ -22772,7 +22754,7 @@
       <c r="T520" s="21" t="n"/>
       <c r="U520" s="22" t="n"/>
     </row>
-    <row r="521" ht="13.5" customHeight="1" s="196">
+    <row r="521" ht="13.5" customHeight="1" s="195">
       <c r="A521" s="71" t="inlineStr">
         <is>
           <t>Масла моторные уровня ГОСТ</t>
@@ -22799,7 +22781,7 @@
       <c r="T521" s="25" t="n"/>
       <c r="U521" s="25" t="n"/>
     </row>
-    <row r="522" ht="12.65" customHeight="1" s="196">
+    <row r="522" ht="12.65" customHeight="1" s="195">
       <c r="A522" s="56" t="inlineStr">
         <is>
           <t>М-10ДМ</t>
@@ -22832,7 +22814,7 @@
       <c r="T522" s="23" t="n"/>
       <c r="U522" s="22" t="n"/>
     </row>
-    <row r="523" ht="12.65" customHeight="1" s="196">
+    <row r="523" ht="12.65" customHeight="1" s="195">
       <c r="A523" s="56" t="inlineStr">
         <is>
           <t>М-10ДМ</t>
@@ -22875,7 +22857,7 @@
       <c r="T523" s="23" t="n"/>
       <c r="U523" s="22" t="n"/>
     </row>
-    <row r="524" ht="12.65" customHeight="1" s="196">
+    <row r="524" ht="12.65" customHeight="1" s="195">
       <c r="A524" s="56" t="inlineStr">
         <is>
           <t>М-10ДМ</t>
@@ -22996,7 +22978,7 @@
       <c r="T526" s="21" t="n"/>
       <c r="U526" s="22" t="n"/>
     </row>
-    <row r="527" ht="12.65" customHeight="1" s="196">
+    <row r="527" ht="12.65" customHeight="1" s="195">
       <c r="A527" s="56" t="inlineStr">
         <is>
           <t>М-10ДМ</t>
@@ -23072,7 +23054,7 @@
       <c r="T528" s="21" t="n"/>
       <c r="U528" s="22" t="n"/>
     </row>
-    <row r="529" ht="13.4" customHeight="1" s="196">
+    <row r="529" ht="13.4" customHeight="1" s="195">
       <c r="A529" s="56" t="inlineStr">
         <is>
           <t>М-10ДМ</t>
@@ -23105,7 +23087,7 @@
       <c r="T529" s="23" t="n"/>
       <c r="U529" s="22" t="n"/>
     </row>
-    <row r="530" ht="12.65" customHeight="1" s="196">
+    <row r="530" ht="12.65" customHeight="1" s="195">
       <c r="A530" s="56" t="inlineStr">
         <is>
           <t>М-8ДМ</t>
@@ -23136,7 +23118,7 @@
       <c r="T530" s="23" t="n"/>
       <c r="U530" s="22" t="n"/>
     </row>
-    <row r="531" ht="12.65" customHeight="1" s="196">
+    <row r="531" ht="12.65" customHeight="1" s="195">
       <c r="A531" s="56" t="inlineStr">
         <is>
           <t>М-8ДМ</t>
@@ -23171,7 +23153,7 @@
       <c r="T531" s="23" t="n"/>
       <c r="U531" s="22" t="n"/>
     </row>
-    <row r="532" ht="12.65" customHeight="1" s="196">
+    <row r="532" ht="12.65" customHeight="1" s="195">
       <c r="A532" s="56" t="inlineStr">
         <is>
           <t>М-8ДМ</t>
@@ -23210,7 +23192,7 @@
       <c r="T532" s="23" t="n"/>
       <c r="U532" s="22" t="n"/>
     </row>
-    <row r="533" ht="12.65" customHeight="1" s="196">
+    <row r="533" ht="12.65" customHeight="1" s="195">
       <c r="A533" s="56" t="inlineStr">
         <is>
           <t>М-8ДМ</t>
@@ -23241,7 +23223,7 @@
       <c r="T533" s="23" t="n"/>
       <c r="U533" s="22" t="n"/>
     </row>
-    <row r="534" ht="12.65" customHeight="1" s="196">
+    <row r="534" ht="12.65" customHeight="1" s="195">
       <c r="A534" s="56" t="inlineStr">
         <is>
           <t>М-8ДМ</t>
@@ -23276,7 +23258,7 @@
       <c r="T534" s="23" t="n"/>
       <c r="U534" s="22" t="n"/>
     </row>
-    <row r="535" ht="13.4" customHeight="1" s="196">
+    <row r="535" ht="13.4" customHeight="1" s="195">
       <c r="A535" s="56" t="inlineStr">
         <is>
           <t>М-8ДМ</t>
@@ -23307,7 +23289,7 @@
       <c r="T535" s="23" t="n"/>
       <c r="U535" s="22" t="n"/>
     </row>
-    <row r="536" ht="12.65" customHeight="1" s="196">
+    <row r="536" ht="12.65" customHeight="1" s="195">
       <c r="A536" s="56" t="inlineStr">
         <is>
           <t>М-10Г2к</t>
@@ -23340,7 +23322,7 @@
       <c r="T536" s="23" t="n"/>
       <c r="U536" s="22" t="n"/>
     </row>
-    <row r="537" ht="12.65" customHeight="1" s="196">
+    <row r="537" ht="12.65" customHeight="1" s="195">
       <c r="A537" s="56" t="inlineStr">
         <is>
           <t>М-10Г2к</t>
@@ -23375,7 +23357,7 @@
       <c r="T537" s="23" t="n"/>
       <c r="U537" s="22" t="n"/>
     </row>
-    <row r="538" ht="12.65" customHeight="1" s="196">
+    <row r="538" ht="12.65" customHeight="1" s="195">
       <c r="A538" s="56" t="inlineStr">
         <is>
           <t>М-10Г2к</t>
@@ -23492,7 +23474,7 @@
       <c r="T540" s="21" t="n"/>
       <c r="U540" s="22" t="n"/>
     </row>
-    <row r="541" ht="12.65" customHeight="1" s="196">
+    <row r="541" ht="12.65" customHeight="1" s="195">
       <c r="A541" s="56" t="inlineStr">
         <is>
           <t>М-10Г2к</t>
@@ -23601,7 +23583,7 @@
       <c r="T543" s="21" t="n"/>
       <c r="U543" s="22" t="n"/>
     </row>
-    <row r="544" ht="12.65" customHeight="1" s="196">
+    <row r="544" ht="12.65" customHeight="1" s="195">
       <c r="A544" s="56" t="inlineStr">
         <is>
           <t>М-8Г2к</t>
@@ -23634,7 +23616,7 @@
       <c r="T544" s="23" t="n"/>
       <c r="U544" s="22" t="n"/>
     </row>
-    <row r="545" ht="12.65" customHeight="1" s="196">
+    <row r="545" ht="12.65" customHeight="1" s="195">
       <c r="A545" s="56" t="inlineStr">
         <is>
           <t>М-8Г2к</t>
@@ -23667,7 +23649,7 @@
       <c r="T545" s="23" t="n"/>
       <c r="U545" s="22" t="n"/>
     </row>
-    <row r="546" ht="12.65" customHeight="1" s="196">
+    <row r="546" ht="12.65" customHeight="1" s="195">
       <c r="A546" s="56" t="inlineStr">
         <is>
           <t>М-8Г2к</t>
@@ -23706,7 +23688,7 @@
       <c r="T546" s="23" t="n"/>
       <c r="U546" s="22" t="n"/>
     </row>
-    <row r="547" ht="12.65" customHeight="1" s="196">
+    <row r="547" ht="12.65" customHeight="1" s="195">
       <c r="A547" s="56" t="inlineStr">
         <is>
           <t>М-8Г2к</t>
@@ -23739,7 +23721,7 @@
       <c r="T547" s="23" t="n"/>
       <c r="U547" s="22" t="n"/>
     </row>
-    <row r="548" ht="12.65" customHeight="1" s="196">
+    <row r="548" ht="12.65" customHeight="1" s="195">
       <c r="A548" s="56" t="inlineStr">
         <is>
           <t>М-8Г2к</t>
@@ -23774,7 +23756,7 @@
       <c r="T548" s="23" t="n"/>
       <c r="U548" s="22" t="n"/>
     </row>
-    <row r="549" ht="13.4" customHeight="1" s="196">
+    <row r="549" ht="13.4" customHeight="1" s="195">
       <c r="A549" s="56" t="inlineStr">
         <is>
           <t>М-8Г2к</t>
@@ -23807,7 +23789,7 @@
       <c r="T549" s="23" t="n"/>
       <c r="U549" s="22" t="n"/>
     </row>
-    <row r="550" ht="12.65" customHeight="1" s="196">
+    <row r="550" ht="12.65" customHeight="1" s="195">
       <c r="A550" s="56" t="inlineStr">
         <is>
           <t>М-10Г2</t>
@@ -23838,7 +23820,7 @@
       <c r="T550" s="23" t="n"/>
       <c r="U550" s="22" t="n"/>
     </row>
-    <row r="551" ht="12.65" customHeight="1" s="196">
+    <row r="551" ht="12.65" customHeight="1" s="195">
       <c r="A551" s="56" t="inlineStr">
         <is>
           <t>М-10Г2</t>
@@ -23879,7 +23861,7 @@
       <c r="T551" s="23" t="n"/>
       <c r="U551" s="22" t="n"/>
     </row>
-    <row r="552" ht="12.65" customHeight="1" s="196">
+    <row r="552" ht="12.65" customHeight="1" s="195">
       <c r="A552" s="56" t="inlineStr">
         <is>
           <t>М-10Г2</t>
@@ -23912,7 +23894,7 @@
       <c r="T552" s="23" t="n"/>
       <c r="U552" s="22" t="n"/>
     </row>
-    <row r="553" ht="12.65" customHeight="1" s="196">
+    <row r="553" ht="12.65" customHeight="1" s="195">
       <c r="A553" s="56" t="inlineStr">
         <is>
           <t>М-10Г2</t>
@@ -23955,7 +23937,7 @@
       <c r="T553" s="23" t="n"/>
       <c r="U553" s="22" t="n"/>
     </row>
-    <row r="554" ht="12.65" customHeight="1" s="196">
+    <row r="554" ht="12.65" customHeight="1" s="195">
       <c r="A554" s="56" t="inlineStr">
         <is>
           <t>М-8Г2</t>
@@ -23988,7 +23970,7 @@
       <c r="T554" s="23" t="n"/>
       <c r="U554" s="22" t="n"/>
     </row>
-    <row r="555" ht="12.65" customHeight="1" s="196">
+    <row r="555" ht="12.65" customHeight="1" s="195">
       <c r="A555" s="56" t="inlineStr">
         <is>
           <t>М-8Г2</t>
@@ -24021,7 +24003,7 @@
       <c r="T555" s="23" t="n"/>
       <c r="U555" s="22" t="n"/>
     </row>
-    <row r="556" ht="12.65" customHeight="1" s="196">
+    <row r="556" ht="12.65" customHeight="1" s="195">
       <c r="A556" s="56" t="inlineStr">
         <is>
           <t>М-8Г2</t>
@@ -24058,7 +24040,7 @@
       <c r="T556" s="23" t="n"/>
       <c r="U556" s="22" t="n"/>
     </row>
-    <row r="557" ht="12.65" customHeight="1" s="196">
+    <row r="557" ht="12.65" customHeight="1" s="195">
       <c r="A557" s="56" t="inlineStr">
         <is>
           <t>М-8Г2</t>
@@ -24091,7 +24073,7 @@
       <c r="T557" s="23" t="n"/>
       <c r="U557" s="22" t="n"/>
     </row>
-    <row r="558" ht="12.65" customHeight="1" s="196">
+    <row r="558" ht="12.65" customHeight="1" s="195">
       <c r="A558" s="56" t="inlineStr">
         <is>
           <t>М-8Г2</t>
@@ -24124,7 +24106,7 @@
       <c r="T558" s="23" t="n"/>
       <c r="U558" s="22" t="n"/>
     </row>
-    <row r="559" ht="12.65" customHeight="1" s="196">
+    <row r="559" ht="12.65" customHeight="1" s="195">
       <c r="A559" s="56" t="inlineStr">
         <is>
           <t>М-8В</t>
@@ -24157,7 +24139,7 @@
       <c r="T559" s="23" t="n"/>
       <c r="U559" s="22" t="n"/>
     </row>
-    <row r="560" ht="12.65" customHeight="1" s="196">
+    <row r="560" ht="12.65" customHeight="1" s="195">
       <c r="A560" s="56" t="inlineStr">
         <is>
           <t>М-8В</t>
@@ -24192,7 +24174,7 @@
       <c r="T560" s="23" t="n"/>
       <c r="U560" s="22" t="n"/>
     </row>
-    <row r="561" ht="12.65" customHeight="1" s="196">
+    <row r="561" ht="12.65" customHeight="1" s="195">
       <c r="A561" s="56" t="inlineStr">
         <is>
           <t>М-8В</t>
@@ -24235,7 +24217,7 @@
       <c r="T561" s="23" t="n"/>
       <c r="U561" s="22" t="n"/>
     </row>
-    <row r="562" ht="12.65" customHeight="1" s="196">
+    <row r="562" ht="12.65" customHeight="1" s="195">
       <c r="A562" s="56" t="inlineStr">
         <is>
           <t>М-8В</t>
@@ -24278,7 +24260,7 @@
       <c r="T562" s="23" t="n"/>
       <c r="U562" s="22" t="n"/>
     </row>
-    <row r="563" ht="12.65" customHeight="1" s="196">
+    <row r="563" ht="12.65" customHeight="1" s="195">
       <c r="A563" s="56" t="inlineStr">
         <is>
           <t>М-8В</t>
@@ -24358,7 +24340,7 @@
       <c r="T564" s="21" t="n"/>
       <c r="U564" s="22" t="n"/>
     </row>
-    <row r="565" ht="13.4" customHeight="1" s="196">
+    <row r="565" ht="13.4" customHeight="1" s="195">
       <c r="A565" s="56" t="inlineStr">
         <is>
           <t>М-8В</t>
@@ -24391,7 +24373,7 @@
       <c r="T565" s="23" t="n"/>
       <c r="U565" s="22" t="n"/>
     </row>
-    <row r="566" ht="12.65" customHeight="1" s="196">
+    <row r="566" ht="12.65" customHeight="1" s="195">
       <c r="A566" s="74" t="inlineStr">
         <is>
           <t>М-10В2</t>
@@ -24424,7 +24406,7 @@
       <c r="T566" s="23" t="n"/>
       <c r="U566" s="22" t="n"/>
     </row>
-    <row r="567" ht="12.65" customHeight="1" s="196">
+    <row r="567" ht="12.65" customHeight="1" s="195">
       <c r="A567" s="74" t="inlineStr">
         <is>
           <t>М-14В2</t>
@@ -24465,7 +24447,7 @@
       <c r="T567" s="21" t="n"/>
       <c r="U567" s="22" t="n"/>
     </row>
-    <row r="568" ht="12.65" customHeight="1" s="196">
+    <row r="568" ht="12.65" customHeight="1" s="195">
       <c r="A568" s="74" t="inlineStr">
         <is>
           <t>М-14Г2(к)</t>
@@ -24498,7 +24480,7 @@
       <c r="T568" s="23" t="n"/>
       <c r="U568" s="22" t="n"/>
     </row>
-    <row r="569" ht="12.65" customHeight="1" s="196">
+    <row r="569" ht="12.65" customHeight="1" s="195">
       <c r="A569" s="74" t="inlineStr">
         <is>
           <t>М-14Д2</t>
@@ -24531,7 +24513,7 @@
       <c r="T569" s="23" t="n"/>
       <c r="U569" s="22" t="n"/>
     </row>
-    <row r="570" ht="12.65" customHeight="1" s="196">
+    <row r="570" ht="12.65" customHeight="1" s="195">
       <c r="A570" s="74" t="inlineStr">
         <is>
           <t>М-14Д2</t>
@@ -24562,7 +24544,7 @@
       <c r="T570" s="23" t="n"/>
       <c r="U570" s="22" t="n"/>
     </row>
-    <row r="571" ht="12.65" customHeight="1" s="196">
+    <row r="571" ht="12.65" customHeight="1" s="195">
       <c r="A571" s="74" t="inlineStr">
         <is>
           <t>М-10Г2цс</t>
@@ -24595,7 +24577,7 @@
       <c r="T571" s="23" t="n"/>
       <c r="U571" s="22" t="n"/>
     </row>
-    <row r="572" ht="12.65" customHeight="1" s="196">
+    <row r="572" ht="12.65" customHeight="1" s="195">
       <c r="A572" s="56" t="inlineStr">
         <is>
           <t>М14Г2цс</t>
@@ -24628,7 +24610,7 @@
       <c r="T572" s="23" t="n"/>
       <c r="U572" s="22" t="n"/>
     </row>
-    <row r="573" ht="12.65" customHeight="1" s="196">
+    <row r="573" ht="12.65" customHeight="1" s="195">
       <c r="A573" s="75" t="inlineStr">
         <is>
           <t>М-16Г2цс</t>
@@ -24659,7 +24641,7 @@
       <c r="T573" s="23" t="n"/>
       <c r="U573" s="22" t="n"/>
     </row>
-    <row r="574" ht="13.4" customHeight="1" s="196">
+    <row r="574" ht="13.4" customHeight="1" s="195">
       <c r="A574" s="75" t="inlineStr">
         <is>
           <t>М-6з/10В</t>
@@ -24692,7 +24674,7 @@
       <c r="T574" s="21" t="n"/>
       <c r="U574" s="22" t="n"/>
     </row>
-    <row r="575" ht="12.75" customHeight="1" s="196">
+    <row r="575" ht="12.75" customHeight="1" s="195">
       <c r="A575" s="54" t="inlineStr">
         <is>
           <t>Трансмиссионные масла</t>
@@ -25408,7 +25390,7 @@
       <c r="T594" s="21" t="n"/>
       <c r="U594" s="22" t="n"/>
     </row>
-    <row r="595" ht="12.65" customHeight="1" s="196">
+    <row r="595" ht="12.65" customHeight="1" s="195">
       <c r="A595" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft GL-4 80W-85</t>
@@ -25443,7 +25425,7 @@
       <c r="T595" s="21" t="n"/>
       <c r="U595" s="22" t="n"/>
     </row>
-    <row r="596" ht="12.65" customHeight="1" s="196">
+    <row r="596" ht="12.65" customHeight="1" s="195">
       <c r="A596" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft GL-4 80W-85</t>
@@ -25474,7 +25456,7 @@
       <c r="T596" s="21" t="n"/>
       <c r="U596" s="22" t="n"/>
     </row>
-    <row r="597" ht="13.4" customHeight="1" s="196">
+    <row r="597" ht="13.4" customHeight="1" s="195">
       <c r="A597" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft GL-4 80W-85</t>
@@ -25505,7 +25487,7 @@
       <c r="T597" s="21" t="n"/>
       <c r="U597" s="22" t="n"/>
     </row>
-    <row r="598" ht="12.65" customHeight="1" s="196">
+    <row r="598" ht="12.65" customHeight="1" s="195">
       <c r="A598" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft GL-4 80W-85</t>
@@ -25536,7 +25518,7 @@
       <c r="T598" s="21" t="n"/>
       <c r="U598" s="22" t="n"/>
     </row>
-    <row r="599" ht="12.65" customHeight="1" s="196">
+    <row r="599" ht="12.65" customHeight="1" s="195">
       <c r="A599" s="77" t="inlineStr">
         <is>
           <t>Gazpromneft GL-4 80W-90</t>
@@ -25575,7 +25557,7 @@
       <c r="T599" s="21" t="n"/>
       <c r="U599" s="22" t="n"/>
     </row>
-    <row r="600" ht="12.65" customHeight="1" s="196">
+    <row r="600" ht="12.65" customHeight="1" s="195">
       <c r="A600" s="77" t="inlineStr">
         <is>
           <t>Gazpromneft GL-4 80W-90</t>
@@ -25614,7 +25596,7 @@
       <c r="T600" s="21" t="n"/>
       <c r="U600" s="22" t="n"/>
     </row>
-    <row r="601" ht="12.65" customHeight="1" s="196">
+    <row r="601" ht="12.65" customHeight="1" s="195">
       <c r="A601" s="77" t="inlineStr">
         <is>
           <t>Gazpromneft GL-4 80W-90</t>
@@ -25649,7 +25631,7 @@
       <c r="T601" s="21" t="n"/>
       <c r="U601" s="22" t="n"/>
     </row>
-    <row r="602" ht="12.65" customHeight="1" s="196">
+    <row r="602" ht="12.65" customHeight="1" s="195">
       <c r="A602" s="77" t="inlineStr">
         <is>
           <t>Gazpromneft GL-4 80W-90</t>
@@ -25684,7 +25666,7 @@
       <c r="T602" s="21" t="n"/>
       <c r="U602" s="22" t="n"/>
     </row>
-    <row r="603" ht="12.65" customHeight="1" s="196">
+    <row r="603" ht="12.65" customHeight="1" s="195">
       <c r="A603" s="77" t="inlineStr">
         <is>
           <t>Gazpromneft GL-4 80W-90</t>
@@ -25723,7 +25705,7 @@
       <c r="T603" s="21" t="n"/>
       <c r="U603" s="22" t="n"/>
     </row>
-    <row r="604" ht="12.65" customHeight="1" s="196">
+    <row r="604" ht="12.65" customHeight="1" s="195">
       <c r="A604" s="77" t="inlineStr">
         <is>
           <t>Gazpromneft GL-4 80W-90</t>
@@ -25762,7 +25744,7 @@
       <c r="T604" s="21" t="n"/>
       <c r="U604" s="22" t="n"/>
     </row>
-    <row r="605" ht="12.65" customHeight="1" s="196">
+    <row r="605" ht="12.65" customHeight="1" s="195">
       <c r="A605" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft GL-5 80W-90</t>
@@ -25797,7 +25779,7 @@
       <c r="T605" s="21" t="n"/>
       <c r="U605" s="22" t="n"/>
     </row>
-    <row r="606" ht="12.65" customHeight="1" s="196">
+    <row r="606" ht="12.65" customHeight="1" s="195">
       <c r="A606" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft GL-5 80W-90</t>
@@ -25836,7 +25818,7 @@
       <c r="T606" s="21" t="n"/>
       <c r="U606" s="22" t="n"/>
     </row>
-    <row r="607" ht="12.65" customHeight="1" s="196">
+    <row r="607" ht="12.65" customHeight="1" s="195">
       <c r="A607" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft GL-5 80W-90</t>
@@ -25879,7 +25861,7 @@
       <c r="T607" s="21" t="n"/>
       <c r="U607" s="22" t="n"/>
     </row>
-    <row r="608" ht="12.65" customHeight="1" s="196">
+    <row r="608" ht="12.65" customHeight="1" s="195">
       <c r="A608" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft GL-5 80W-90</t>
@@ -25918,7 +25900,7 @@
       <c r="T608" s="21" t="n"/>
       <c r="U608" s="22" t="n"/>
     </row>
-    <row r="609" ht="12.65" customHeight="1" s="196">
+    <row r="609" ht="12.65" customHeight="1" s="195">
       <c r="A609" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft GL-5 80W-90</t>
@@ -25957,7 +25939,7 @@
       <c r="T609" s="21" t="n"/>
       <c r="U609" s="22" t="n"/>
     </row>
-    <row r="610" ht="12.65" customHeight="1" s="196">
+    <row r="610" ht="12.65" customHeight="1" s="195">
       <c r="A610" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft GL-5 85W-140</t>
@@ -25988,7 +25970,7 @@
       <c r="T610" s="21" t="n"/>
       <c r="U610" s="22" t="n"/>
     </row>
-    <row r="611" ht="12.65" customHeight="1" s="196">
+    <row r="611" ht="12.65" customHeight="1" s="195">
       <c r="A611" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft GL-5 85W-140</t>
@@ -26019,7 +26001,7 @@
       <c r="T611" s="21" t="n"/>
       <c r="U611" s="22" t="n"/>
     </row>
-    <row r="612" ht="12.65" customHeight="1" s="196">
+    <row r="612" ht="12.65" customHeight="1" s="195">
       <c r="A612" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft GL-5 85W-140</t>
@@ -26050,7 +26032,7 @@
       <c r="T612" s="21" t="n"/>
       <c r="U612" s="22" t="n"/>
     </row>
-    <row r="613" ht="12.65" customHeight="1" s="196">
+    <row r="613" ht="12.65" customHeight="1" s="195">
       <c r="A613" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft GL-5 85W-140</t>
@@ -26081,7 +26063,7 @@
       <c r="T613" s="21" t="n"/>
       <c r="U613" s="22" t="n"/>
     </row>
-    <row r="614" ht="12.65" customHeight="1" s="196">
+    <row r="614" ht="12.65" customHeight="1" s="195">
       <c r="A614" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Super T-3</t>
@@ -26112,7 +26094,7 @@
       <c r="T614" s="21" t="n"/>
       <c r="U614" s="22" t="n"/>
     </row>
-    <row r="615" ht="12.65" customHeight="1" s="196">
+    <row r="615" ht="12.65" customHeight="1" s="195">
       <c r="A615" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Super T-3</t>
@@ -26143,7 +26125,7 @@
       <c r="T615" s="21" t="n"/>
       <c r="U615" s="22" t="n"/>
     </row>
-    <row r="616" ht="12.65" customHeight="1" s="196">
+    <row r="616" ht="12.65" customHeight="1" s="195">
       <c r="A616" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Super T-3</t>
@@ -26174,7 +26156,7 @@
       <c r="T616" s="21" t="n"/>
       <c r="U616" s="22" t="n"/>
     </row>
-    <row r="617" ht="12.65" customHeight="1" s="196">
+    <row r="617" ht="12.65" customHeight="1" s="195">
       <c r="A617" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Super T-3</t>
@@ -26209,7 +26191,7 @@
       <c r="T617" s="21" t="n"/>
       <c r="U617" s="22" t="n"/>
     </row>
-    <row r="618" ht="12.65" customHeight="1" s="196">
+    <row r="618" ht="12.65" customHeight="1" s="195">
       <c r="A618" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Super T-3</t>
@@ -26240,7 +26222,7 @@
       <c r="T618" s="21" t="n"/>
       <c r="U618" s="22" t="n"/>
     </row>
-    <row r="619" ht="13.4" customHeight="1" s="196">
+    <row r="619" ht="13.4" customHeight="1" s="195">
       <c r="A619" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Super T-3</t>
@@ -26271,7 +26253,7 @@
       <c r="T619" s="21" t="n"/>
       <c r="U619" s="22" t="n"/>
     </row>
-    <row r="620" ht="12.65" customHeight="1" s="196">
+    <row r="620" ht="12.65" customHeight="1" s="195">
       <c r="A620" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Super T-3</t>
@@ -26306,7 +26288,7 @@
       <c r="T620" s="21" t="n"/>
       <c r="U620" s="22" t="n"/>
     </row>
-    <row r="621" ht="13.4" customHeight="1" s="196">
+    <row r="621" ht="13.4" customHeight="1" s="195">
       <c r="A621" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft GL-1 90 </t>
@@ -26337,7 +26319,7 @@
       <c r="T621" s="21" t="n"/>
       <c r="U621" s="22" t="n"/>
     </row>
-    <row r="622" ht="13.4" customHeight="1" s="196">
+    <row r="622" ht="13.4" customHeight="1" s="195">
       <c r="A622" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft GL-1 90 </t>
@@ -26368,7 +26350,7 @@
       <c r="T622" s="21" t="n"/>
       <c r="U622" s="22" t="n"/>
     </row>
-    <row r="623" ht="13.4" customHeight="1" s="196">
+    <row r="623" ht="13.4" customHeight="1" s="195">
       <c r="A623" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft GL-1 90 </t>
@@ -26399,7 +26381,7 @@
       <c r="T623" s="21" t="n"/>
       <c r="U623" s="22" t="n"/>
     </row>
-    <row r="624" ht="13.4" customHeight="1" s="196">
+    <row r="624" ht="13.4" customHeight="1" s="195">
       <c r="A624" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft GL-1 140 </t>
@@ -26430,7 +26412,7 @@
       <c r="T624" s="21" t="n"/>
       <c r="U624" s="22" t="n"/>
     </row>
-    <row r="625" ht="13.4" customHeight="1" s="196">
+    <row r="625" ht="13.4" customHeight="1" s="195">
       <c r="A625" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft GL-1 140 </t>
@@ -26463,7 +26445,7 @@
       <c r="T625" s="21" t="n"/>
       <c r="U625" s="22" t="n"/>
     </row>
-    <row r="626" ht="13.4" customHeight="1" s="196">
+    <row r="626" ht="13.4" customHeight="1" s="195">
       <c r="A626" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft GL-1 140 </t>
@@ -26496,7 +26478,7 @@
       <c r="T626" s="21" t="n"/>
       <c r="U626" s="22" t="n"/>
     </row>
-    <row r="627" ht="13.4" customHeight="1" s="196">
+    <row r="627" ht="13.4" customHeight="1" s="195">
       <c r="A627" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft GL-1 140 </t>
@@ -26529,7 +26511,7 @@
       <c r="T627" s="21" t="n"/>
       <c r="U627" s="22" t="n"/>
     </row>
-    <row r="628" ht="13.4" customHeight="1" s="196">
+    <row r="628" ht="13.4" customHeight="1" s="195">
       <c r="A628" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft GL-1 140 </t>
@@ -26560,7 +26542,7 @@
       <c r="T628" s="21" t="n"/>
       <c r="U628" s="22" t="n"/>
     </row>
-    <row r="629" ht="12" customHeight="1" s="196">
+    <row r="629" ht="12" customHeight="1" s="195">
       <c r="A629" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft GL-4 90 </t>
@@ -26591,7 +26573,7 @@
       <c r="T629" s="21" t="n"/>
       <c r="U629" s="22" t="n"/>
     </row>
-    <row r="630" ht="13.4" customHeight="1" s="196">
+    <row r="630" ht="13.4" customHeight="1" s="195">
       <c r="A630" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft GL-4 90 </t>
@@ -26622,7 +26604,7 @@
       <c r="T630" s="21" t="n"/>
       <c r="U630" s="22" t="n"/>
     </row>
-    <row r="631" ht="13.4" customHeight="1" s="196">
+    <row r="631" ht="13.4" customHeight="1" s="195">
       <c r="A631" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft GL-4 90 </t>
@@ -26653,7 +26635,7 @@
       <c r="T631" s="21" t="n"/>
       <c r="U631" s="22" t="n"/>
     </row>
-    <row r="632" ht="13.4" customHeight="1" s="196">
+    <row r="632" ht="13.4" customHeight="1" s="195">
       <c r="A632" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft GL-4 90 </t>
@@ -26684,7 +26666,7 @@
       <c r="T632" s="21" t="n"/>
       <c r="U632" s="22" t="n"/>
     </row>
-    <row r="633" ht="13.4" customHeight="1" s="196">
+    <row r="633" ht="13.4" customHeight="1" s="195">
       <c r="A633" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft GL-4 140 </t>
@@ -26715,7 +26697,7 @@
       <c r="T633" s="21" t="n"/>
       <c r="U633" s="22" t="n"/>
     </row>
-    <row r="634" ht="13.4" customHeight="1" s="196">
+    <row r="634" ht="13.4" customHeight="1" s="195">
       <c r="A634" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft GL-4 140 </t>
@@ -26746,7 +26728,7 @@
       <c r="T634" s="21" t="n"/>
       <c r="U634" s="22" t="n"/>
     </row>
-    <row r="635" ht="13.4" customHeight="1" s="196">
+    <row r="635" ht="13.4" customHeight="1" s="195">
       <c r="A635" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft GL-4 140 </t>
@@ -26777,7 +26759,7 @@
       <c r="T635" s="21" t="n"/>
       <c r="U635" s="22" t="n"/>
     </row>
-    <row r="636" ht="13.4" customHeight="1" s="196">
+    <row r="636" ht="13.4" customHeight="1" s="195">
       <c r="A636" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft GL-4 140 </t>
@@ -26808,7 +26790,7 @@
       <c r="T636" s="21" t="n"/>
       <c r="U636" s="22" t="n"/>
     </row>
-    <row r="637" ht="13.4" customHeight="1" s="196">
+    <row r="637" ht="13.4" customHeight="1" s="195">
       <c r="A637" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft GL-5 90 </t>
@@ -26839,7 +26821,7 @@
       <c r="T637" s="21" t="n"/>
       <c r="U637" s="22" t="n"/>
     </row>
-    <row r="638" ht="13.4" customHeight="1" s="196">
+    <row r="638" ht="13.4" customHeight="1" s="195">
       <c r="A638" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft GL-5 90 </t>
@@ -26870,7 +26852,7 @@
       <c r="T638" s="21" t="n"/>
       <c r="U638" s="22" t="n"/>
     </row>
-    <row r="639" ht="13.4" customHeight="1" s="196">
+    <row r="639" ht="13.4" customHeight="1" s="195">
       <c r="A639" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft GL-5 90 </t>
@@ -26901,7 +26883,7 @@
       <c r="T639" s="21" t="n"/>
       <c r="U639" s="22" t="n"/>
     </row>
-    <row r="640" ht="13.4" customHeight="1" s="196">
+    <row r="640" ht="13.4" customHeight="1" s="195">
       <c r="A640" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft GL-5 140 </t>
@@ -26932,7 +26914,7 @@
       <c r="T640" s="21" t="n"/>
       <c r="U640" s="22" t="n"/>
     </row>
-    <row r="641" ht="13.4" customHeight="1" s="196">
+    <row r="641" ht="13.4" customHeight="1" s="195">
       <c r="A641" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft GL-5 140 </t>
@@ -26963,7 +26945,7 @@
       <c r="T641" s="21" t="n"/>
       <c r="U641" s="22" t="n"/>
     </row>
-    <row r="642" ht="13.4" customHeight="1" s="196">
+    <row r="642" ht="13.4" customHeight="1" s="195">
       <c r="A642" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft GL-5 140 </t>
@@ -26994,7 +26976,7 @@
       <c r="T642" s="21" t="n"/>
       <c r="U642" s="22" t="n"/>
     </row>
-    <row r="643" ht="13.4" customHeight="1" s="196">
+    <row r="643" ht="13.4" customHeight="1" s="195">
       <c r="A643" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft GL-5 140 </t>
@@ -27025,7 +27007,7 @@
       <c r="T643" s="21" t="n"/>
       <c r="U643" s="22" t="n"/>
     </row>
-    <row r="644" ht="12.65" customHeight="1" s="196">
+    <row r="644" ht="12.65" customHeight="1" s="195">
       <c r="A644" s="56" t="inlineStr">
         <is>
           <t>ТСП-15К</t>
@@ -27060,7 +27042,7 @@
       <c r="T644" s="23" t="n"/>
       <c r="U644" s="22" t="n"/>
     </row>
-    <row r="645" ht="12.65" customHeight="1" s="196">
+    <row r="645" ht="12.65" customHeight="1" s="195">
       <c r="A645" s="56" t="inlineStr">
         <is>
           <t>ТСП-15К</t>
@@ -27101,7 +27083,7 @@
       <c r="T645" s="23" t="n"/>
       <c r="U645" s="22" t="n"/>
     </row>
-    <row r="646" ht="12.65" customHeight="1" s="196">
+    <row r="646" ht="12.65" customHeight="1" s="195">
       <c r="A646" s="56" t="inlineStr">
         <is>
           <t>ТСП-15К</t>
@@ -27173,7 +27155,7 @@
       <c r="T647" s="21" t="n"/>
       <c r="U647" s="22" t="n"/>
     </row>
-    <row r="648" ht="14.25" customHeight="1" s="196">
+    <row r="648" ht="14.25" customHeight="1" s="195">
       <c r="A648" s="54" t="inlineStr">
         <is>
           <t>Специальные продукты</t>
@@ -27200,7 +27182,7 @@
       <c r="T648" s="24" t="n"/>
       <c r="U648" s="24" t="n"/>
     </row>
-    <row r="649" ht="12.65" customHeight="1" s="196">
+    <row r="649" ht="12.65" customHeight="1" s="195">
       <c r="A649" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft Moto 2T </t>
@@ -27243,7 +27225,7 @@
       <c r="T649" s="21" t="n"/>
       <c r="U649" s="22" t="n"/>
     </row>
-    <row r="650" ht="12.65" customHeight="1" s="196">
+    <row r="650" ht="12.65" customHeight="1" s="195">
       <c r="A650" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft Moto 2T </t>
@@ -27282,7 +27264,7 @@
       <c r="T650" s="21" t="n"/>
       <c r="U650" s="22" t="n"/>
     </row>
-    <row r="651" ht="12.65" customHeight="1" s="196">
+    <row r="651" ht="12.65" customHeight="1" s="195">
       <c r="A651" s="78" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft Moto 2T </t>
@@ -27313,7 +27295,7 @@
       <c r="T651" s="21" t="n"/>
       <c r="U651" s="22" t="n"/>
     </row>
-    <row r="652" ht="12.65" customHeight="1" s="196">
+    <row r="652" ht="12.65" customHeight="1" s="195">
       <c r="A652" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft Moto 2T </t>
@@ -27350,7 +27332,7 @@
       <c r="T652" s="21" t="n"/>
       <c r="U652" s="22" t="n"/>
     </row>
-    <row r="653" ht="12.65" customHeight="1" s="196">
+    <row r="653" ht="12.65" customHeight="1" s="195">
       <c r="A653" s="78" t="inlineStr">
         <is>
           <t>Gazpromneft Moto 4T 10W-40</t>
@@ -27385,7 +27367,7 @@
       <c r="T653" s="21" t="n"/>
       <c r="U653" s="22" t="n"/>
     </row>
-    <row r="654" ht="12.65" customHeight="1" s="196">
+    <row r="654" ht="12.65" customHeight="1" s="195">
       <c r="A654" s="78" t="inlineStr">
         <is>
           <t>Gazpromneft Moto 4T 10W-40</t>
@@ -27416,7 +27398,7 @@
       <c r="T654" s="21" t="n"/>
       <c r="U654" s="22" t="n"/>
     </row>
-    <row r="655" ht="12.65" customHeight="1" s="196">
+    <row r="655" ht="12.65" customHeight="1" s="195">
       <c r="A655" s="78" t="inlineStr">
         <is>
           <t>Gazpromneft Moto 4T 20W-50</t>
@@ -27447,7 +27429,7 @@
       <c r="T655" s="21" t="n"/>
       <c r="U655" s="22" t="n"/>
     </row>
-    <row r="656" ht="12.65" customHeight="1" s="196">
+    <row r="656" ht="12.65" customHeight="1" s="195">
       <c r="A656" s="78" t="inlineStr">
         <is>
           <t>Gazpromneft Moto 4T 20W-50</t>
@@ -27480,7 +27462,7 @@
       <c r="T656" s="21" t="n"/>
       <c r="U656" s="22" t="n"/>
     </row>
-    <row r="657" ht="12.65" customHeight="1" s="196">
+    <row r="657" ht="12.65" customHeight="1" s="195">
       <c r="A657" s="78" t="inlineStr">
         <is>
           <t>Gazpromneft Moto 4T 20W-50</t>
@@ -27513,7 +27495,7 @@
       <c r="T657" s="21" t="n"/>
       <c r="U657" s="22" t="n"/>
     </row>
-    <row r="658" ht="12.65" customHeight="1" s="196">
+    <row r="658" ht="12.65" customHeight="1" s="195">
       <c r="A658" s="78" t="inlineStr">
         <is>
           <t>Gazpromneft Moto 4T 20W-50</t>
@@ -27546,7 +27528,7 @@
       <c r="T658" s="21" t="n"/>
       <c r="U658" s="22" t="n"/>
     </row>
-    <row r="659" ht="12.65" customHeight="1" s="196">
+    <row r="659" ht="12.65" customHeight="1" s="195">
       <c r="A659" s="78" t="inlineStr">
         <is>
           <t>Gazpromneft Moto 4T 20W-50</t>
@@ -27579,7 +27561,7 @@
       <c r="T659" s="21" t="n"/>
       <c r="U659" s="22" t="n"/>
     </row>
-    <row r="660" ht="12.65" customHeight="1" s="196">
+    <row r="660" ht="12.65" customHeight="1" s="195">
       <c r="A660" s="78" t="inlineStr">
         <is>
           <t>Gazpromneft Moto 4T 20W-50</t>
@@ -27612,7 +27594,7 @@
       <c r="T660" s="21" t="n"/>
       <c r="U660" s="22" t="n"/>
     </row>
-    <row r="661" ht="12.65" customHeight="1" s="196">
+    <row r="661" ht="12.65" customHeight="1" s="195">
       <c r="A661" s="78" t="inlineStr">
         <is>
           <t>Gazpromneft Moto 4T 20W-50</t>
@@ -27643,7 +27625,7 @@
       <c r="T661" s="21" t="n"/>
       <c r="U661" s="22" t="n"/>
     </row>
-    <row r="662" ht="12.65" customHeight="1" s="196">
+    <row r="662" ht="12.65" customHeight="1" s="195">
       <c r="A662" s="78" t="inlineStr">
         <is>
           <t>Gazpromneft Moto 4T 30</t>
@@ -27678,7 +27660,7 @@
       <c r="T662" s="21" t="n"/>
       <c r="U662" s="22" t="n"/>
     </row>
-    <row r="663" ht="12.75" customHeight="1" s="196">
+    <row r="663" ht="12.75" customHeight="1" s="195">
       <c r="A663" s="52" t="inlineStr">
         <is>
           <t>Gazpromneft Moto 4T 30</t>
@@ -27713,7 +27695,7 @@
       <c r="T663" s="21" t="n"/>
       <c r="U663" s="22" t="n"/>
     </row>
-    <row r="664" ht="12.75" customHeight="1" s="196">
+    <row r="664" ht="12.75" customHeight="1" s="195">
       <c r="A664" s="52" t="inlineStr">
         <is>
           <t>Gazpromneft Moto 4T 30</t>
@@ -27744,7 +27726,7 @@
       <c r="T664" s="21" t="n"/>
       <c r="U664" s="22" t="n"/>
     </row>
-    <row r="665" ht="12.75" customHeight="1" s="196">
+    <row r="665" ht="12.75" customHeight="1" s="195">
       <c r="A665" s="52" t="inlineStr">
         <is>
           <t>Gazpromneft Moto 4T 30</t>
@@ -27775,7 +27757,7 @@
       <c r="T665" s="21" t="n"/>
       <c r="U665" s="22" t="n"/>
     </row>
-    <row r="666" ht="12.75" customHeight="1" s="196">
+    <row r="666" ht="12.75" customHeight="1" s="195">
       <c r="A666" s="52" t="inlineStr">
         <is>
           <t>Gazpromneft Scooter 4T 10W-30</t>
@@ -27806,7 +27788,7 @@
       <c r="T666" s="21" t="n"/>
       <c r="U666" s="22" t="n"/>
     </row>
-    <row r="667" ht="12.75" customHeight="1" s="196">
+    <row r="667" ht="12.75" customHeight="1" s="195">
       <c r="A667" s="52" t="inlineStr">
         <is>
           <t>Gazpromneft Scooter 4T 10W-40</t>
@@ -27837,7 +27819,7 @@
       <c r="T667" s="21" t="n"/>
       <c r="U667" s="22" t="n"/>
     </row>
-    <row r="668" ht="12.65" customHeight="1" s="196">
+    <row r="668" ht="12.65" customHeight="1" s="195">
       <c r="A668" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft МП Синтетик</t>
@@ -27913,7 +27895,7 @@
       <c r="T669" s="21" t="n"/>
       <c r="U669" s="22" t="n"/>
     </row>
-    <row r="670" ht="13.4" customHeight="1" s="196">
+    <row r="670" ht="13.4" customHeight="1" s="195">
       <c r="A670" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft Promo </t>
@@ -27946,7 +27928,7 @@
       <c r="T670" s="21" t="n"/>
       <c r="U670" s="22" t="n"/>
     </row>
-    <row r="671" ht="12.65" customHeight="1" s="196">
+    <row r="671" ht="12.65" customHeight="1" s="195">
       <c r="A671" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft Promo </t>
@@ -27979,7 +27961,7 @@
       <c r="T671" s="21" t="n"/>
       <c r="U671" s="22" t="n"/>
     </row>
-    <row r="672" ht="13.4" customHeight="1" s="196">
+    <row r="672" ht="13.4" customHeight="1" s="195">
       <c r="A672" s="78" t="inlineStr">
         <is>
           <t>Gazpromneft Chain Oil</t>
@@ -28012,7 +27994,7 @@
       <c r="T672" s="21" t="n"/>
       <c r="U672" s="22" t="n"/>
     </row>
-    <row r="673" ht="13.4" customHeight="1" s="196">
+    <row r="673" ht="13.4" customHeight="1" s="195">
       <c r="A673" s="78" t="inlineStr">
         <is>
           <t>Gazpromneft Chain Oil</t>
@@ -28043,7 +28025,7 @@
       <c r="T673" s="21" t="n"/>
       <c r="U673" s="22" t="n"/>
     </row>
-    <row r="674" ht="14.25" customHeight="1" s="196">
+    <row r="674" ht="14.25" customHeight="1" s="195">
       <c r="A674" s="54" t="inlineStr">
         <is>
           <t>Гидравлические масла</t>
@@ -28070,7 +28052,7 @@
       <c r="T674" s="24" t="n"/>
       <c r="U674" s="24" t="n"/>
     </row>
-    <row r="675" ht="13.4" customHeight="1" s="196">
+    <row r="675" ht="13.4" customHeight="1" s="195">
       <c r="A675" s="75" t="inlineStr">
         <is>
           <t>Gazpromneft Hydraulic HVLP-10</t>
@@ -28103,7 +28085,7 @@
       <c r="T675" s="21" t="n"/>
       <c r="U675" s="22" t="n"/>
     </row>
-    <row r="676" ht="13.4" customHeight="1" s="196">
+    <row r="676" ht="13.4" customHeight="1" s="195">
       <c r="A676" s="75" t="inlineStr">
         <is>
           <t>Gazpromneft Hydraulic HVLP-10</t>
@@ -28136,7 +28118,7 @@
       <c r="T676" s="21" t="n"/>
       <c r="U676" s="22" t="n"/>
     </row>
-    <row r="677" ht="12.75" customHeight="1" s="196">
+    <row r="677" ht="12.75" customHeight="1" s="195">
       <c r="A677" s="75" t="inlineStr">
         <is>
           <t>Gazpromneft Hydraulic HVLP-10</t>
@@ -28169,7 +28151,7 @@
       <c r="T677" s="21" t="n"/>
       <c r="U677" s="22" t="n"/>
     </row>
-    <row r="678" ht="12.75" customHeight="1" s="196">
+    <row r="678" ht="12.75" customHeight="1" s="195">
       <c r="A678" s="75" t="inlineStr">
         <is>
           <t>Gazpromneft Hydraulic HVLP-15</t>
@@ -28206,7 +28188,7 @@
       <c r="T678" s="21" t="n"/>
       <c r="U678" s="22" t="n"/>
     </row>
-    <row r="679" ht="12.75" customHeight="1" s="196">
+    <row r="679" ht="12.75" customHeight="1" s="195">
       <c r="A679" s="75" t="inlineStr">
         <is>
           <t>Gazpromneft Hydraulic HVLP-15</t>
@@ -28243,7 +28225,7 @@
       <c r="T679" s="21" t="n"/>
       <c r="U679" s="22" t="n"/>
     </row>
-    <row r="680" ht="12.75" customHeight="1" s="196">
+    <row r="680" ht="12.75" customHeight="1" s="195">
       <c r="A680" s="75" t="inlineStr">
         <is>
           <t>Gazpromneft Hydraulic HVLP-15</t>
@@ -28280,7 +28262,7 @@
       <c r="T680" s="21" t="n"/>
       <c r="U680" s="22" t="n"/>
     </row>
-    <row r="681" ht="12.75" customHeight="1" s="196">
+    <row r="681" ht="12.75" customHeight="1" s="195">
       <c r="A681" s="75" t="inlineStr">
         <is>
           <t>Gazpromneft Hydraulic HVLP-22</t>
@@ -28327,7 +28309,7 @@
       <c r="T681" s="21" t="n"/>
       <c r="U681" s="22" t="n"/>
     </row>
-    <row r="682" ht="12.75" customHeight="1" s="196">
+    <row r="682" ht="12.75" customHeight="1" s="195">
       <c r="A682" s="75" t="inlineStr">
         <is>
           <t>Gazpromneft Hydraulic HVLP-22</t>
@@ -28368,7 +28350,7 @@
       <c r="T682" s="21" t="n"/>
       <c r="U682" s="22" t="n"/>
     </row>
-    <row r="683" ht="12.75" customHeight="1" s="196">
+    <row r="683" ht="12.75" customHeight="1" s="195">
       <c r="A683" s="75" t="inlineStr">
         <is>
           <t>Gazpromneft Hydraulic HVLP-22</t>
@@ -28413,7 +28395,7 @@
       <c r="T683" s="21" t="n"/>
       <c r="U683" s="22" t="n"/>
     </row>
-    <row r="684" ht="12.75" customHeight="1" s="196">
+    <row r="684" ht="12.75" customHeight="1" s="195">
       <c r="A684" s="75" t="inlineStr">
         <is>
           <t>Gazpromneft Hydraulic HVLP-32</t>
@@ -28503,7 +28485,7 @@
       <c r="T685" s="21" t="n"/>
       <c r="U685" s="22" t="n"/>
     </row>
-    <row r="686" ht="12.75" customHeight="1" s="196">
+    <row r="686" ht="12.75" customHeight="1" s="195">
       <c r="A686" s="75" t="inlineStr">
         <is>
           <t>Gazpromneft Hydraulic HVLP-32</t>
@@ -28636,7 +28618,7 @@
       <c r="T688" s="21" t="n"/>
       <c r="U688" s="22" t="n"/>
     </row>
-    <row r="689" ht="12.75" customHeight="1" s="196">
+    <row r="689" ht="12.75" customHeight="1" s="195">
       <c r="A689" s="75" t="inlineStr">
         <is>
           <t>Gazpromneft Hydraulic HVLP-46</t>
@@ -28728,7 +28710,7 @@
       <c r="T690" s="21" t="n"/>
       <c r="U690" s="22" t="n"/>
     </row>
-    <row r="691" ht="12.75" customHeight="1" s="196">
+    <row r="691" ht="12.75" customHeight="1" s="195">
       <c r="A691" s="52" t="inlineStr">
         <is>
           <t>Gazpromneft Hydraulic HVLP-46</t>
@@ -28902,7 +28884,7 @@
       <c r="T694" s="21" t="n"/>
       <c r="U694" s="22" t="n"/>
     </row>
-    <row r="695" ht="13.4" customHeight="1" s="196">
+    <row r="695" ht="13.4" customHeight="1" s="195">
       <c r="A695" s="52" t="inlineStr">
         <is>
           <t>Gazpromneft Hydraulic HVLP-68</t>
@@ -28990,7 +28972,7 @@
       <c r="T696" s="21" t="n"/>
       <c r="U696" s="22" t="n"/>
     </row>
-    <row r="697" ht="13.4" customHeight="1" s="196">
+    <row r="697" ht="13.4" customHeight="1" s="195">
       <c r="A697" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Гидравлик HLP 32</t>
@@ -29193,7 +29175,7 @@
       <c r="T701" s="21" t="n"/>
       <c r="U701" s="22" t="n"/>
     </row>
-    <row r="702" ht="13.4" customHeight="1" s="196">
+    <row r="702" ht="13.4" customHeight="1" s="195">
       <c r="A702" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Гидравлик HLP 46</t>
@@ -29291,7 +29273,7 @@
       <c r="T703" s="21" t="n"/>
       <c r="U703" s="22" t="n"/>
     </row>
-    <row r="704" ht="13.4" customHeight="1" s="196">
+    <row r="704" ht="13.4" customHeight="1" s="195">
       <c r="A704" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Гидравлик HLP 46</t>
@@ -29428,7 +29410,7 @@
       <c r="T706" s="21" t="n"/>
       <c r="U706" s="22" t="n"/>
     </row>
-    <row r="707" ht="13.4" customHeight="1" s="196">
+    <row r="707" ht="13.4" customHeight="1" s="195">
       <c r="A707" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Гидравлик HLP 68</t>
@@ -29520,7 +29502,7 @@
       <c r="T708" s="21" t="n"/>
       <c r="U708" s="22" t="n"/>
     </row>
-    <row r="709" ht="13.4" customHeight="1" s="196">
+    <row r="709" ht="13.4" customHeight="1" s="195">
       <c r="A709" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Гидравлик HLP 68</t>
@@ -29647,7 +29629,7 @@
       <c r="T711" s="21" t="n"/>
       <c r="U711" s="22" t="n"/>
     </row>
-    <row r="712" ht="13.4" customHeight="1" s="196">
+    <row r="712" ht="13.4" customHeight="1" s="195">
       <c r="A712" s="75" t="inlineStr">
         <is>
           <t>Gazpromneft Гидравлик HLP 100</t>
@@ -30232,7 +30214,7 @@
       <c r="T728" s="21" t="n"/>
       <c r="U728" s="22" t="n"/>
     </row>
-    <row r="729" ht="13.4" customHeight="1" s="196">
+    <row r="729" ht="13.4" customHeight="1" s="195">
       <c r="A729" s="75" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft Гидравлик 32 </t>
@@ -30271,7 +30253,7 @@
       <c r="T729" s="21" t="n"/>
       <c r="U729" s="22" t="n"/>
     </row>
-    <row r="730" ht="13.4" customHeight="1" s="196">
+    <row r="730" ht="13.4" customHeight="1" s="195">
       <c r="A730" s="75" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft Гидравлик 32 </t>
@@ -30314,7 +30296,7 @@
       <c r="T730" s="21" t="n"/>
       <c r="U730" s="22" t="n"/>
     </row>
-    <row r="731" ht="13.4" customHeight="1" s="196">
+    <row r="731" ht="13.4" customHeight="1" s="195">
       <c r="A731" s="79" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft Гидравлик 32 </t>
@@ -30353,7 +30335,7 @@
       <c r="T731" s="21" t="n"/>
       <c r="U731" s="22" t="n"/>
     </row>
-    <row r="732" ht="13.4" customHeight="1" s="196">
+    <row r="732" ht="13.4" customHeight="1" s="195">
       <c r="A732" s="75" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft Гидравлик 46 </t>
@@ -30396,7 +30378,7 @@
       <c r="T732" s="21" t="n"/>
       <c r="U732" s="22" t="n"/>
     </row>
-    <row r="733" ht="13.4" customHeight="1" s="196">
+    <row r="733" ht="13.4" customHeight="1" s="195">
       <c r="A733" s="75" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft Гидравлик 46 </t>
@@ -30439,7 +30421,7 @@
       <c r="T733" s="21" t="n"/>
       <c r="U733" s="22" t="n"/>
     </row>
-    <row r="734" ht="13.4" customHeight="1" s="196">
+    <row r="734" ht="13.4" customHeight="1" s="195">
       <c r="A734" s="75" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft Гидравлик 46 </t>
@@ -30478,7 +30460,7 @@
       <c r="T734" s="21" t="n"/>
       <c r="U734" s="22" t="n"/>
     </row>
-    <row r="735" ht="13.4" customHeight="1" s="196">
+    <row r="735" ht="13.4" customHeight="1" s="195">
       <c r="A735" s="75" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft Гидравлик 68 </t>
@@ -30517,7 +30499,7 @@
       <c r="T735" s="21" t="n"/>
       <c r="U735" s="22" t="n"/>
     </row>
-    <row r="736" ht="13.4" customHeight="1" s="196">
+    <row r="736" ht="13.4" customHeight="1" s="195">
       <c r="A736" s="75" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft Гидравлик 68 </t>
@@ -30556,7 +30538,7 @@
       <c r="T736" s="21" t="n"/>
       <c r="U736" s="22" t="n"/>
     </row>
-    <row r="737" ht="13.4" customHeight="1" s="196">
+    <row r="737" ht="13.4" customHeight="1" s="195">
       <c r="A737" s="75" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft Гидравлик 68 </t>
@@ -30595,7 +30577,7 @@
       <c r="T737" s="21" t="n"/>
       <c r="U737" s="22" t="n"/>
     </row>
-    <row r="738" ht="13.4" customHeight="1" s="196">
+    <row r="738" ht="13.4" customHeight="1" s="195">
       <c r="A738" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Industrial 40</t>
@@ -30632,7 +30614,7 @@
       <c r="T738" s="21" t="n"/>
       <c r="U738" s="22" t="n"/>
     </row>
-    <row r="739" ht="13.4" customHeight="1" s="196">
+    <row r="739" ht="13.4" customHeight="1" s="195">
       <c r="A739" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Industrial 40</t>
@@ -30673,7 +30655,7 @@
       <c r="T739" s="21" t="n"/>
       <c r="U739" s="22" t="n"/>
     </row>
-    <row r="740" ht="13.4" customHeight="1" s="196">
+    <row r="740" ht="13.4" customHeight="1" s="195">
       <c r="A740" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Industrial 40</t>
@@ -30710,7 +30692,7 @@
       <c r="T740" s="21" t="n"/>
       <c r="U740" s="22" t="n"/>
     </row>
-    <row r="741" ht="13.4" customHeight="1" s="196">
+    <row r="741" ht="13.4" customHeight="1" s="195">
       <c r="A741" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Industrial 30</t>
@@ -30751,7 +30733,7 @@
       <c r="T741" s="21" t="n"/>
       <c r="U741" s="22" t="n"/>
     </row>
-    <row r="742" ht="13.4" customHeight="1" s="196">
+    <row r="742" ht="13.4" customHeight="1" s="195">
       <c r="A742" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Industrial 30</t>
@@ -30860,7 +30842,7 @@
       <c r="T744" s="21" t="n"/>
       <c r="U744" s="22" t="n"/>
     </row>
-    <row r="745" ht="13.4" customHeight="1" s="196">
+    <row r="745" ht="13.4" customHeight="1" s="195">
       <c r="A745" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">ИГП-18         </t>
@@ -30897,7 +30879,7 @@
       <c r="T745" s="21" t="n"/>
       <c r="U745" s="22" t="n"/>
     </row>
-    <row r="746" ht="13.4" customHeight="1" s="196">
+    <row r="746" ht="13.4" customHeight="1" s="195">
       <c r="A746" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">ИГП-18         </t>
@@ -30930,7 +30912,7 @@
       <c r="T746" s="21" t="n"/>
       <c r="U746" s="22" t="n"/>
     </row>
-    <row r="747" ht="13.4" customHeight="1" s="196">
+    <row r="747" ht="13.4" customHeight="1" s="195">
       <c r="A747" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">ИГП-30         </t>
@@ -30963,7 +30945,7 @@
       <c r="T747" s="21" t="n"/>
       <c r="U747" s="22" t="n"/>
     </row>
-    <row r="748" ht="13.4" customHeight="1" s="196">
+    <row r="748" ht="13.4" customHeight="1" s="195">
       <c r="A748" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">ИГП-30         </t>
@@ -30996,7 +30978,7 @@
       <c r="T748" s="21" t="n"/>
       <c r="U748" s="22" t="n"/>
     </row>
-    <row r="749" ht="13.4" customHeight="1" s="196">
+    <row r="749" ht="13.4" customHeight="1" s="195">
       <c r="A749" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">ИГП-38        </t>
@@ -31033,7 +31015,7 @@
       <c r="T749" s="21" t="n"/>
       <c r="U749" s="22" t="n"/>
     </row>
-    <row r="750" ht="13.4" customHeight="1" s="196">
+    <row r="750" ht="13.4" customHeight="1" s="195">
       <c r="A750" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">ИГП-38        </t>
@@ -31066,7 +31048,7 @@
       <c r="T750" s="21" t="n"/>
       <c r="U750" s="22" t="n"/>
     </row>
-    <row r="751" ht="13.4" customHeight="1" s="196">
+    <row r="751" ht="13.4" customHeight="1" s="195">
       <c r="A751" s="56" t="inlineStr">
         <is>
           <t>ИГП-49</t>
@@ -31103,7 +31085,7 @@
       <c r="T751" s="21" t="n"/>
       <c r="U751" s="22" t="n"/>
     </row>
-    <row r="752" ht="13.4" customHeight="1" s="196">
+    <row r="752" ht="13.4" customHeight="1" s="195">
       <c r="A752" s="56" t="inlineStr">
         <is>
           <t>ИГП-49</t>
@@ -31136,7 +31118,7 @@
       <c r="T752" s="21" t="n"/>
       <c r="U752" s="22" t="n"/>
     </row>
-    <row r="753" ht="13.4" customHeight="1" s="196">
+    <row r="753" ht="13.4" customHeight="1" s="195">
       <c r="A753" s="56" t="inlineStr">
         <is>
           <t>ИГП-72</t>
@@ -31173,7 +31155,7 @@
       <c r="T753" s="21" t="n"/>
       <c r="U753" s="22" t="n"/>
     </row>
-    <row r="754" ht="13.4" customHeight="1" s="196">
+    <row r="754" ht="13.4" customHeight="1" s="195">
       <c r="A754" s="56" t="inlineStr">
         <is>
           <t>ИГП-72</t>
@@ -31206,7 +31188,7 @@
       <c r="T754" s="21" t="n"/>
       <c r="U754" s="22" t="n"/>
     </row>
-    <row r="755" ht="13.4" customHeight="1" s="196">
+    <row r="755" ht="13.4" customHeight="1" s="195">
       <c r="A755" s="56" t="inlineStr">
         <is>
           <t>ИГП-114</t>
@@ -31243,7 +31225,7 @@
       <c r="T755" s="21" t="n"/>
       <c r="U755" s="22" t="n"/>
     </row>
-    <row r="756" ht="13.4" customHeight="1" s="196">
+    <row r="756" ht="13.4" customHeight="1" s="195">
       <c r="A756" s="56" t="inlineStr">
         <is>
           <t>ИГП-152</t>
@@ -31276,7 +31258,7 @@
       <c r="T756" s="21" t="n"/>
       <c r="U756" s="22" t="n"/>
     </row>
-    <row r="757" ht="12.65" customHeight="1" s="196">
+    <row r="757" ht="12.65" customHeight="1" s="195">
       <c r="A757" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">МГ-68В </t>
@@ -31309,7 +31291,7 @@
       <c r="T757" s="23" t="n"/>
       <c r="U757" s="22" t="n"/>
     </row>
-    <row r="758" ht="12.65" customHeight="1" s="196">
+    <row r="758" ht="12.65" customHeight="1" s="195">
       <c r="A758" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">МГ-68В </t>
@@ -31342,7 +31324,7 @@
       <c r="T758" s="23" t="n"/>
       <c r="U758" s="22" t="n"/>
     </row>
-    <row r="759" ht="12.65" customHeight="1" s="196">
+    <row r="759" ht="12.65" customHeight="1" s="195">
       <c r="A759" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">МГ-68В </t>
@@ -31375,7 +31357,7 @@
       <c r="T759" s="23" t="n"/>
       <c r="U759" s="22" t="n"/>
     </row>
-    <row r="760" ht="12.65" customHeight="1" s="196">
+    <row r="760" ht="12.65" customHeight="1" s="195">
       <c r="A760" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">МГ-68В </t>
@@ -31408,7 +31390,7 @@
       <c r="T760" s="23" t="n"/>
       <c r="U760" s="22" t="n"/>
     </row>
-    <row r="761" ht="12.65" customHeight="1" s="196">
+    <row r="761" ht="12.65" customHeight="1" s="195">
       <c r="A761" s="56" t="inlineStr">
         <is>
           <t>МГЕ-46В</t>
@@ -31564,7 +31546,7 @@
       <c r="T764" s="21" t="n"/>
       <c r="U764" s="22" t="n"/>
     </row>
-    <row r="765" ht="12.65" customHeight="1" s="196">
+    <row r="765" ht="12.65" customHeight="1" s="195">
       <c r="A765" s="56" t="inlineStr">
         <is>
           <t>Газпромнефть ВМГЗ</t>
@@ -31601,7 +31583,7 @@
       <c r="T765" s="21" t="n"/>
       <c r="U765" s="22" t="n"/>
     </row>
-    <row r="766" ht="12.65" customHeight="1" s="196">
+    <row r="766" ht="12.65" customHeight="1" s="195">
       <c r="A766" s="56" t="inlineStr">
         <is>
           <t>Газпромнефть ВМГЗ</t>
@@ -31784,7 +31766,7 @@
       <c r="T770" s="21" t="n"/>
       <c r="U770" s="22" t="n"/>
     </row>
-    <row r="771" ht="15" customHeight="1" s="196">
+    <row r="771" ht="15" customHeight="1" s="195">
       <c r="A771" s="54" t="inlineStr">
         <is>
           <t>Редукторные масла</t>
@@ -32059,7 +32041,7 @@
       <c r="T779" s="21" t="n"/>
       <c r="U779" s="22" t="n"/>
     </row>
-    <row r="780" ht="13.4" customHeight="1" s="196">
+    <row r="780" ht="13.4" customHeight="1" s="195">
       <c r="A780" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Reductor 68 CLP</t>
@@ -32090,7 +32072,7 @@
       <c r="T780" s="21" t="n"/>
       <c r="U780" s="22" t="n"/>
     </row>
-    <row r="781" ht="13.4" customHeight="1" s="196">
+    <row r="781" ht="13.4" customHeight="1" s="195">
       <c r="A781" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Reductor 68 CLP</t>
@@ -32121,7 +32103,7 @@
       <c r="T781" s="21" t="n"/>
       <c r="U781" s="22" t="n"/>
     </row>
-    <row r="782" ht="13.4" customHeight="1" s="196">
+    <row r="782" ht="13.4" customHeight="1" s="195">
       <c r="A782" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Reductor 68 CLP</t>
@@ -32152,7 +32134,7 @@
       <c r="T782" s="21" t="n"/>
       <c r="U782" s="22" t="n"/>
     </row>
-    <row r="783" ht="13.4" customHeight="1" s="196">
+    <row r="783" ht="13.4" customHeight="1" s="195">
       <c r="A783" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Reductor 100 CLP</t>
@@ -32183,7 +32165,7 @@
       <c r="T783" s="21" t="n"/>
       <c r="U783" s="22" t="n"/>
     </row>
-    <row r="784" ht="13.4" customHeight="1" s="196">
+    <row r="784" ht="13.4" customHeight="1" s="195">
       <c r="A784" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Reductor 100 CLP</t>
@@ -32214,7 +32196,7 @@
       <c r="T784" s="21" t="n"/>
       <c r="U784" s="22" t="n"/>
     </row>
-    <row r="785" ht="13.4" customHeight="1" s="196">
+    <row r="785" ht="13.4" customHeight="1" s="195">
       <c r="A785" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Reductor 100 CLP</t>
@@ -32245,7 +32227,7 @@
       <c r="T785" s="21" t="n"/>
       <c r="U785" s="22" t="n"/>
     </row>
-    <row r="786" ht="13.4" customHeight="1" s="196">
+    <row r="786" ht="13.4" customHeight="1" s="195">
       <c r="A786" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Reductor 100 CLP</t>
@@ -32276,7 +32258,7 @@
       <c r="T786" s="21" t="n"/>
       <c r="U786" s="22" t="n"/>
     </row>
-    <row r="787" ht="13.4" customHeight="1" s="196">
+    <row r="787" ht="13.4" customHeight="1" s="195">
       <c r="A787" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Reductor 150 CLP</t>
@@ -32307,7 +32289,7 @@
       <c r="T787" s="21" t="n"/>
       <c r="U787" s="22" t="n"/>
     </row>
-    <row r="788" ht="13.4" customHeight="1" s="196">
+    <row r="788" ht="13.4" customHeight="1" s="195">
       <c r="A788" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Reductor 150 CLP</t>
@@ -32338,7 +32320,7 @@
       <c r="T788" s="21" t="n"/>
       <c r="U788" s="22" t="n"/>
     </row>
-    <row r="789" ht="13.4" customHeight="1" s="196">
+    <row r="789" ht="13.4" customHeight="1" s="195">
       <c r="A789" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Reductor 150 CLP</t>
@@ -32369,7 +32351,7 @@
       <c r="T789" s="21" t="n"/>
       <c r="U789" s="22" t="n"/>
     </row>
-    <row r="790" ht="13.4" customHeight="1" s="196">
+    <row r="790" ht="13.4" customHeight="1" s="195">
       <c r="A790" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Reductor 150 CLP</t>
@@ -32400,7 +32382,7 @@
       <c r="T790" s="21" t="n"/>
       <c r="U790" s="22" t="n"/>
     </row>
-    <row r="791" ht="13.4" customHeight="1" s="196">
+    <row r="791" ht="13.4" customHeight="1" s="195">
       <c r="A791" s="78" t="inlineStr">
         <is>
           <t>Gazpromneft Reductor 220 CLP</t>
@@ -32431,7 +32413,7 @@
       <c r="T791" s="21" t="n"/>
       <c r="U791" s="22" t="n"/>
     </row>
-    <row r="792" ht="13.4" customHeight="1" s="196">
+    <row r="792" ht="13.4" customHeight="1" s="195">
       <c r="A792" s="78" t="inlineStr">
         <is>
           <t>Gazpromneft Reductor 220 CLP</t>
@@ -32466,7 +32448,7 @@
       <c r="T792" s="21" t="n"/>
       <c r="U792" s="22" t="n"/>
     </row>
-    <row r="793" ht="13.4" customHeight="1" s="196">
+    <row r="793" ht="13.4" customHeight="1" s="195">
       <c r="A793" s="78" t="inlineStr">
         <is>
           <t>Gazpromneft Reductor 220 CLP</t>
@@ -32497,7 +32479,7 @@
       <c r="T793" s="21" t="n"/>
       <c r="U793" s="22" t="n"/>
     </row>
-    <row r="794" ht="13.4" customHeight="1" s="196">
+    <row r="794" ht="13.4" customHeight="1" s="195">
       <c r="A794" s="78" t="inlineStr">
         <is>
           <t>Gazpromneft Reductor 220 CLP</t>
@@ -32532,7 +32514,7 @@
       <c r="T794" s="21" t="n"/>
       <c r="U794" s="22" t="n"/>
     </row>
-    <row r="795" ht="13.4" customHeight="1" s="196">
+    <row r="795" ht="13.4" customHeight="1" s="195">
       <c r="A795" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Reductor 220 CLP</t>
@@ -32563,7 +32545,7 @@
       <c r="T795" s="21" t="n"/>
       <c r="U795" s="22" t="n"/>
     </row>
-    <row r="796" ht="13.4" customHeight="1" s="196">
+    <row r="796" ht="13.4" customHeight="1" s="195">
       <c r="A796" s="78" t="inlineStr">
         <is>
           <t>Gazpromneft Reductor 320 CLP</t>
@@ -32598,7 +32580,7 @@
       <c r="T796" s="21" t="n"/>
       <c r="U796" s="22" t="n"/>
     </row>
-    <row r="797" ht="13.4" customHeight="1" s="196">
+    <row r="797" ht="13.4" customHeight="1" s="195">
       <c r="A797" s="78" t="inlineStr">
         <is>
           <t>Gazpromneft Reductor 320 CLP</t>
@@ -32629,7 +32611,7 @@
       <c r="T797" s="21" t="n"/>
       <c r="U797" s="22" t="n"/>
     </row>
-    <row r="798" ht="13.4" customHeight="1" s="196">
+    <row r="798" ht="13.4" customHeight="1" s="195">
       <c r="A798" s="78" t="inlineStr">
         <is>
           <t>Gazpromneft Reductor 320 CLP</t>
@@ -32664,7 +32646,7 @@
       <c r="T798" s="21" t="n"/>
       <c r="U798" s="22" t="n"/>
     </row>
-    <row r="799" ht="13.4" customHeight="1" s="196">
+    <row r="799" ht="13.4" customHeight="1" s="195">
       <c r="A799" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Reductor 320 CLP</t>
@@ -32695,7 +32677,7 @@
       <c r="T799" s="21" t="n"/>
       <c r="U799" s="22" t="n"/>
     </row>
-    <row r="800" ht="13.4" customHeight="1" s="196">
+    <row r="800" ht="13.4" customHeight="1" s="195">
       <c r="A800" s="78" t="inlineStr">
         <is>
           <t>Gazpromneft Reductor 460 CLP</t>
@@ -32726,7 +32708,7 @@
       <c r="T800" s="21" t="n"/>
       <c r="U800" s="22" t="n"/>
     </row>
-    <row r="801" ht="13.4" customHeight="1" s="196">
+    <row r="801" ht="13.4" customHeight="1" s="195">
       <c r="A801" s="78" t="inlineStr">
         <is>
           <t>Gazpromneft Reductor 460 CLP</t>
@@ -32757,7 +32739,7 @@
       <c r="T801" s="21" t="n"/>
       <c r="U801" s="22" t="n"/>
     </row>
-    <row r="802" ht="13.4" customHeight="1" s="196">
+    <row r="802" ht="13.4" customHeight="1" s="195">
       <c r="A802" s="78" t="inlineStr">
         <is>
           <t>Gazpromneft Reductor 460 CLP</t>
@@ -32788,7 +32770,7 @@
       <c r="T802" s="21" t="n"/>
       <c r="U802" s="22" t="n"/>
     </row>
-    <row r="803" ht="13.4" customHeight="1" s="196">
+    <row r="803" ht="13.4" customHeight="1" s="195">
       <c r="A803" s="78" t="inlineStr">
         <is>
           <t>Gazpromneft Reductor 460 CLP</t>
@@ -32819,7 +32801,7 @@
       <c r="T803" s="21" t="n"/>
       <c r="U803" s="22" t="n"/>
     </row>
-    <row r="804" ht="13.4" customHeight="1" s="196">
+    <row r="804" ht="13.4" customHeight="1" s="195">
       <c r="A804" s="78" t="inlineStr">
         <is>
           <t>Gazpromneft Reductor 460 CLP</t>
@@ -32850,7 +32832,7 @@
       <c r="T804" s="21" t="n"/>
       <c r="U804" s="22" t="n"/>
     </row>
-    <row r="805" ht="13.4" customHeight="1" s="196">
+    <row r="805" ht="13.4" customHeight="1" s="195">
       <c r="A805" s="78" t="inlineStr">
         <is>
           <t>Gazpromneft Reductor 680 CLP</t>
@@ -32881,7 +32863,7 @@
       <c r="T805" s="21" t="n"/>
       <c r="U805" s="22" t="n"/>
     </row>
-    <row r="806" ht="13.4" customHeight="1" s="196">
+    <row r="806" ht="13.4" customHeight="1" s="195">
       <c r="A806" s="78" t="inlineStr">
         <is>
           <t>Gazpromneft Reductor 680 CLP</t>
@@ -32912,7 +32894,7 @@
       <c r="T806" s="21" t="n"/>
       <c r="U806" s="22" t="n"/>
     </row>
-    <row r="807" ht="13.4" customHeight="1" s="196">
+    <row r="807" ht="13.4" customHeight="1" s="195">
       <c r="A807" s="78" t="inlineStr">
         <is>
           <t>Gazpromneft Reductor 680 CLP</t>
@@ -32943,7 +32925,7 @@
       <c r="T807" s="21" t="n"/>
       <c r="U807" s="22" t="n"/>
     </row>
-    <row r="808" ht="13.4" customHeight="1" s="196">
+    <row r="808" ht="13.4" customHeight="1" s="195">
       <c r="A808" s="78" t="inlineStr">
         <is>
           <t>Gazpromneft Reductor 680 CLP</t>
@@ -32974,7 +32956,7 @@
       <c r="T808" s="21" t="n"/>
       <c r="U808" s="22" t="n"/>
     </row>
-    <row r="809" ht="13.4" customHeight="1" s="196">
+    <row r="809" ht="13.4" customHeight="1" s="195">
       <c r="A809" s="78" t="inlineStr">
         <is>
           <t xml:space="preserve">Газпромнефть Редуктор ИТД 68 </t>
@@ -33007,7 +32989,7 @@
       <c r="T809" s="21" t="n"/>
       <c r="U809" s="22" t="n"/>
     </row>
-    <row r="810" ht="13.4" customHeight="1" s="196">
+    <row r="810" ht="13.4" customHeight="1" s="195">
       <c r="A810" s="78" t="inlineStr">
         <is>
           <t xml:space="preserve">Газпромнефть Редуктор ИТД 68 </t>
@@ -33040,7 +33022,7 @@
       <c r="T810" s="21" t="n"/>
       <c r="U810" s="22" t="n"/>
     </row>
-    <row r="811" ht="13.4" customHeight="1" s="196">
+    <row r="811" ht="13.4" customHeight="1" s="195">
       <c r="A811" s="78" t="inlineStr">
         <is>
           <t>Газпромнефть Редуктор ИТД 100</t>
@@ -33073,7 +33055,7 @@
       <c r="T811" s="21" t="n"/>
       <c r="U811" s="22" t="n"/>
     </row>
-    <row r="812" ht="13.4" customHeight="1" s="196">
+    <row r="812" ht="13.4" customHeight="1" s="195">
       <c r="A812" s="78" t="inlineStr">
         <is>
           <t>Газпромнефть Редуктор ИТД 100</t>
@@ -33106,7 +33088,7 @@
       <c r="T812" s="21" t="n"/>
       <c r="U812" s="22" t="n"/>
     </row>
-    <row r="813" ht="13.4" customHeight="1" s="196">
+    <row r="813" ht="13.4" customHeight="1" s="195">
       <c r="A813" s="56" t="inlineStr">
         <is>
           <t>Газпромнефть Редуктор ИТД 150</t>
@@ -33139,7 +33121,7 @@
       <c r="T813" s="21" t="n"/>
       <c r="U813" s="22" t="n"/>
     </row>
-    <row r="814" ht="13.4" customHeight="1" s="196">
+    <row r="814" ht="13.4" customHeight="1" s="195">
       <c r="A814" s="78" t="inlineStr">
         <is>
           <t xml:space="preserve">Газпромнефть Редуктор ИТД 220 </t>
@@ -33172,7 +33154,7 @@
       <c r="T814" s="21" t="n"/>
       <c r="U814" s="22" t="n"/>
     </row>
-    <row r="815" ht="13.4" customHeight="1" s="196">
+    <row r="815" ht="13.4" customHeight="1" s="195">
       <c r="A815" s="78" t="inlineStr">
         <is>
           <t xml:space="preserve">Газпромнефть Редуктор ИТД 220 </t>
@@ -33205,7 +33187,7 @@
       <c r="T815" s="21" t="n"/>
       <c r="U815" s="22" t="n"/>
     </row>
-    <row r="816" ht="13.4" customHeight="1" s="196">
+    <row r="816" ht="13.4" customHeight="1" s="195">
       <c r="A816" s="56" t="inlineStr">
         <is>
           <t>Газпромнефть Редуктор ИТД 320</t>
@@ -33238,7 +33220,7 @@
       <c r="T816" s="21" t="n"/>
       <c r="U816" s="22" t="n"/>
     </row>
-    <row r="817" ht="13.4" customHeight="1" s="196">
+    <row r="817" ht="13.4" customHeight="1" s="195">
       <c r="A817" s="56" t="inlineStr">
         <is>
           <t>Газпромнефть Редуктор ИТД 460</t>
@@ -33271,7 +33253,7 @@
       <c r="T817" s="21" t="n"/>
       <c r="U817" s="22" t="n"/>
     </row>
-    <row r="818" ht="13.4" customHeight="1" s="196">
+    <row r="818" ht="13.4" customHeight="1" s="195">
       <c r="A818" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">Газпромнефть Редуктор ИТД 680 </t>
@@ -33304,7 +33286,7 @@
       <c r="T818" s="21" t="n"/>
       <c r="U818" s="22" t="n"/>
     </row>
-    <row r="819" ht="13.4" customHeight="1" s="196">
+    <row r="819" ht="13.4" customHeight="1" s="195">
       <c r="A819" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft Reductor WS-100 </t>
@@ -33337,7 +33319,7 @@
       <c r="T819" s="21" t="n"/>
       <c r="U819" s="22" t="n"/>
     </row>
-    <row r="820" ht="13.4" customHeight="1" s="196">
+    <row r="820" ht="13.4" customHeight="1" s="195">
       <c r="A820" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Reductor WS-150</t>
@@ -33370,7 +33352,7 @@
       <c r="T820" s="21" t="n"/>
       <c r="U820" s="22" t="n"/>
     </row>
-    <row r="821" ht="13.4" customHeight="1" s="196">
+    <row r="821" ht="13.4" customHeight="1" s="195">
       <c r="A821" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft Reductor WS-220 </t>
@@ -33403,7 +33385,7 @@
       <c r="T821" s="21" t="n"/>
       <c r="U821" s="22" t="n"/>
     </row>
-    <row r="822" ht="13.4" customHeight="1" s="196">
+    <row r="822" ht="13.4" customHeight="1" s="195">
       <c r="A822" s="54" t="inlineStr">
         <is>
           <t>Компрессорные масла</t>
@@ -33430,7 +33412,7 @@
       <c r="T822" s="24" t="n"/>
       <c r="U822" s="24" t="n"/>
     </row>
-    <row r="823" ht="13.4" customHeight="1" s="196">
+    <row r="823" ht="13.4" customHeight="1" s="195">
       <c r="A823" s="52" t="inlineStr">
         <is>
           <t>Gazpromneft Compressor PAO NG-100</t>
@@ -33461,7 +33443,7 @@
       <c r="T823" s="21" t="n"/>
       <c r="U823" s="22" t="n"/>
     </row>
-    <row r="824" ht="13.4" customHeight="1" s="196">
+    <row r="824" ht="13.4" customHeight="1" s="195">
       <c r="A824" s="52" t="inlineStr">
         <is>
           <t>Gazpromneft Compressor PAO NG-150</t>
@@ -33492,7 +33474,7 @@
       <c r="T824" s="21" t="n"/>
       <c r="U824" s="22" t="n"/>
     </row>
-    <row r="825" ht="13.4" customHeight="1" s="196">
+    <row r="825" ht="13.4" customHeight="1" s="195">
       <c r="A825" s="52" t="inlineStr">
         <is>
           <t>Gazpromneft Compressor PAG WG-100</t>
@@ -33523,7 +33505,7 @@
       <c r="T825" s="21" t="n"/>
       <c r="U825" s="22" t="n"/>
     </row>
-    <row r="826" ht="13.4" customHeight="1" s="196">
+    <row r="826" ht="13.4" customHeight="1" s="195">
       <c r="A826" s="52" t="inlineStr">
         <is>
           <t>Gazpromneft Compressor PAG WG-150</t>
@@ -34131,7 +34113,7 @@
       <c r="T843" s="21" t="n"/>
       <c r="U843" s="22" t="n"/>
     </row>
-    <row r="844" ht="13.15" customHeight="1" s="196">
+    <row r="844" ht="13.15" customHeight="1" s="195">
       <c r="A844" s="78" t="inlineStr">
         <is>
           <t>Gazpromneft Compressor Oil T-46</t>
@@ -34164,7 +34146,7 @@
       <c r="T844" s="21" t="n"/>
       <c r="U844" s="22" t="n"/>
     </row>
-    <row r="845" ht="13.15" customHeight="1" s="196">
+    <row r="845" ht="13.15" customHeight="1" s="195">
       <c r="A845" s="78" t="inlineStr">
         <is>
           <t>Gazpromneft Compressor Oil T-46</t>
@@ -34197,7 +34179,7 @@
       <c r="T845" s="21" t="n"/>
       <c r="U845" s="22" t="n"/>
     </row>
-    <row r="846" ht="13.4" customHeight="1" s="196">
+    <row r="846" ht="13.4" customHeight="1" s="195">
       <c r="A846" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">КС-19П          </t>
@@ -34228,7 +34210,7 @@
       <c r="T846" s="21" t="n"/>
       <c r="U846" s="22" t="n"/>
     </row>
-    <row r="847" ht="13.4" customHeight="1" s="196">
+    <row r="847" ht="13.4" customHeight="1" s="195">
       <c r="A847" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">КС-19П          </t>
@@ -34335,7 +34317,7 @@
       <c r="T849" s="21" t="n"/>
       <c r="U849" s="22" t="n"/>
     </row>
-    <row r="850" ht="13.4" customHeight="1" s="196">
+    <row r="850" ht="13.4" customHeight="1" s="195">
       <c r="A850" s="56" t="inlineStr">
         <is>
           <t>Газпромнефть Кп-8С</t>
@@ -34368,7 +34350,7 @@
       <c r="T850" s="21" t="n"/>
       <c r="U850" s="22" t="n"/>
     </row>
-    <row r="851" ht="13.4" customHeight="1" s="196">
+    <row r="851" ht="13.4" customHeight="1" s="195">
       <c r="A851" s="54" t="inlineStr">
         <is>
           <t>Трансформаторные масла</t>
@@ -34395,7 +34377,7 @@
       <c r="T851" s="24" t="n"/>
       <c r="U851" s="24" t="n"/>
     </row>
-    <row r="852" ht="13.4" customHeight="1" s="196">
+    <row r="852" ht="13.4" customHeight="1" s="195">
       <c r="A852" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft ГК марка 1</t>
@@ -34432,7 +34414,7 @@
       <c r="T852" s="21" t="n"/>
       <c r="U852" s="22" t="n"/>
     </row>
-    <row r="853" ht="13.4" customHeight="1" s="196">
+    <row r="853" ht="13.4" customHeight="1" s="195">
       <c r="A853" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft ГК марка 1</t>
@@ -34463,7 +34445,7 @@
       <c r="T853" s="21" t="n"/>
       <c r="U853" s="22" t="n"/>
     </row>
-    <row r="854" ht="13.4" customHeight="1" s="196">
+    <row r="854" ht="13.4" customHeight="1" s="195">
       <c r="A854" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft ГК марка 2</t>
@@ -34504,7 +34486,7 @@
       <c r="T854" s="21" t="n"/>
       <c r="U854" s="22" t="n"/>
     </row>
-    <row r="855" ht="13.4" customHeight="1" s="196">
+    <row r="855" ht="13.4" customHeight="1" s="195">
       <c r="A855" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft ГК марка 2</t>
@@ -34535,7 +34517,7 @@
       <c r="T855" s="21" t="n"/>
       <c r="U855" s="22" t="n"/>
     </row>
-    <row r="856" ht="13.4" customHeight="1" s="196">
+    <row r="856" ht="13.4" customHeight="1" s="195">
       <c r="A856" s="54" t="inlineStr">
         <is>
           <t>Турбинные масла</t>
@@ -34562,7 +34544,7 @@
       <c r="T856" s="24" t="n"/>
       <c r="U856" s="24" t="n"/>
     </row>
-    <row r="857" ht="13.4" customHeight="1" s="196">
+    <row r="857" ht="13.4" customHeight="1" s="195">
       <c r="A857" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft Turbine Oil 32 </t>
@@ -34595,7 +34577,7 @@
       <c r="T857" s="21" t="n"/>
       <c r="U857" s="22" t="n"/>
     </row>
-    <row r="858" ht="13.4" customHeight="1" s="196">
+    <row r="858" ht="13.4" customHeight="1" s="195">
       <c r="A858" s="56" t="inlineStr">
         <is>
           <t>Gapromneft Turbine Oil F Synth 32</t>
@@ -34626,7 +34608,7 @@
       <c r="T858" s="21" t="n"/>
       <c r="U858" s="22" t="n"/>
     </row>
-    <row r="859" ht="13.4" customHeight="1" s="196">
+    <row r="859" ht="13.4" customHeight="1" s="195">
       <c r="A859" s="56" t="inlineStr">
         <is>
           <t>Gapromneft Turbine Oil F Synth EP-32</t>
@@ -34657,7 +34639,7 @@
       <c r="T859" s="21" t="n"/>
       <c r="U859" s="22" t="n"/>
     </row>
-    <row r="860" ht="13.4" customHeight="1" s="196">
+    <row r="860" ht="13.4" customHeight="1" s="195">
       <c r="A860" s="56" t="inlineStr">
         <is>
           <t>Gapromneft Turbine Oil F Synth 46</t>
@@ -34688,7 +34670,7 @@
       <c r="T860" s="21" t="n"/>
       <c r="U860" s="22" t="n"/>
     </row>
-    <row r="861" ht="13.4" customHeight="1" s="196">
+    <row r="861" ht="13.4" customHeight="1" s="195">
       <c r="A861" s="56" t="inlineStr">
         <is>
           <t>Gapromneft Turbine Oil F Synth EP-46</t>
@@ -34793,7 +34775,7 @@
       <c r="T863" s="21" t="n"/>
       <c r="U863" s="22" t="n"/>
     </row>
-    <row r="864" ht="13.4" customHeight="1" s="196">
+    <row r="864" ht="13.4" customHeight="1" s="195">
       <c r="A864" s="56" t="inlineStr">
         <is>
           <t>ТП-30</t>
@@ -34834,7 +34816,7 @@
       <c r="T864" s="21" t="n"/>
       <c r="U864" s="22" t="n"/>
     </row>
-    <row r="865" ht="13.4" customHeight="1" s="196">
+    <row r="865" ht="13.4" customHeight="1" s="195">
       <c r="A865" s="54" t="inlineStr">
         <is>
           <t>Циркуляционные масла</t>
@@ -34861,7 +34843,7 @@
       <c r="T865" s="24" t="n"/>
       <c r="U865" s="24" t="n"/>
     </row>
-    <row r="866" ht="13.4" customHeight="1" s="196">
+    <row r="866" ht="13.4" customHeight="1" s="195">
       <c r="A866" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Circulation Oil 100 205л</t>
@@ -35211,7 +35193,7 @@
       <c r="T875" s="21" t="n"/>
       <c r="U875" s="22" t="n"/>
     </row>
-    <row r="876" ht="13.4" customHeight="1" s="196">
+    <row r="876" ht="13.4" customHeight="1" s="195">
       <c r="A876" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">ПС-28         </t>
@@ -35244,7 +35226,7 @@
       <c r="T876" s="21" t="n"/>
       <c r="U876" s="22" t="n"/>
     </row>
-    <row r="877" ht="13.4" customHeight="1" s="196">
+    <row r="877" ht="13.4" customHeight="1" s="195">
       <c r="A877" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">ПС-28         </t>
@@ -35277,7 +35259,7 @@
       <c r="T877" s="21" t="n"/>
       <c r="U877" s="22" t="n"/>
     </row>
-    <row r="878" ht="13.4" customHeight="1" s="196">
+    <row r="878" ht="13.4" customHeight="1" s="195">
       <c r="A878" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">П-40        </t>
@@ -35310,7 +35292,7 @@
       <c r="T878" s="21" t="n"/>
       <c r="U878" s="22" t="n"/>
     </row>
-    <row r="879" ht="13.4" customHeight="1" s="196">
+    <row r="879" ht="13.4" customHeight="1" s="195">
       <c r="A879" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve"> Газпромнефть И220ПВ</t>
@@ -35343,7 +35325,7 @@
       <c r="T879" s="21" t="n"/>
       <c r="U879" s="22" t="n"/>
     </row>
-    <row r="880" ht="12.65" customHeight="1" s="196">
+    <row r="880" ht="12.65" customHeight="1" s="195">
       <c r="A880" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve"> Газпромнефть И220ПВ</t>
@@ -35376,7 +35358,7 @@
       <c r="T880" s="21" t="n"/>
       <c r="U880" s="22" t="n"/>
     </row>
-    <row r="881" ht="13.4" customHeight="1" s="196">
+    <row r="881" ht="13.4" customHeight="1" s="195">
       <c r="A881" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve"> Газпромнефть И460ПВ</t>
@@ -35409,7 +35391,7 @@
       <c r="T881" s="21" t="n"/>
       <c r="U881" s="22" t="n"/>
     </row>
-    <row r="882" ht="12.65" customHeight="1" s="196">
+    <row r="882" ht="12.65" customHeight="1" s="195">
       <c r="A882" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve"> Газпромнефть И460ПВ</t>
@@ -35442,7 +35424,7 @@
       <c r="T882" s="21" t="n"/>
       <c r="U882" s="22" t="n"/>
     </row>
-    <row r="883" ht="12.65" customHeight="1" s="196">
+    <row r="883" ht="12.65" customHeight="1" s="195">
       <c r="A883" s="54" t="inlineStr">
         <is>
           <t>Закалочные масла</t>
@@ -35469,7 +35451,7 @@
       <c r="T883" s="24" t="n"/>
       <c r="U883" s="24" t="n"/>
     </row>
-    <row r="884" ht="12.65" customHeight="1" s="196">
+    <row r="884" ht="12.65" customHeight="1" s="195">
       <c r="A884" s="56" t="inlineStr">
         <is>
           <t>Термойл 16</t>
@@ -35506,7 +35488,7 @@
       <c r="T884" s="21" t="n"/>
       <c r="U884" s="22" t="n"/>
     </row>
-    <row r="885" ht="12.65" customHeight="1" s="196">
+    <row r="885" ht="12.65" customHeight="1" s="195">
       <c r="A885" s="56" t="inlineStr">
         <is>
           <t>Термойл 26</t>
@@ -35543,7 +35525,7 @@
       <c r="T885" s="21" t="n"/>
       <c r="U885" s="22" t="n"/>
     </row>
-    <row r="886" ht="12.65" customHeight="1" s="196">
+    <row r="886" ht="12.65" customHeight="1" s="195">
       <c r="A886" s="54" t="inlineStr">
         <is>
           <t>Формовочные масла</t>
@@ -35570,7 +35552,7 @@
       <c r="T886" s="24" t="n"/>
       <c r="U886" s="24" t="n"/>
     </row>
-    <row r="887" ht="13.4" customHeight="1" s="196">
+    <row r="887" ht="13.4" customHeight="1" s="195">
       <c r="A887" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Form Oil 135</t>
@@ -35603,7 +35585,7 @@
       <c r="T887" s="21" t="n"/>
       <c r="U887" s="22" t="n"/>
     </row>
-    <row r="888" ht="13.4" customHeight="1" s="196">
+    <row r="888" ht="13.4" customHeight="1" s="195">
       <c r="A888" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Form Oil 135</t>
@@ -35636,7 +35618,7 @@
       <c r="T888" s="21" t="n"/>
       <c r="U888" s="22" t="n"/>
     </row>
-    <row r="889" ht="13.4" customHeight="1" s="196">
+    <row r="889" ht="13.4" customHeight="1" s="195">
       <c r="A889" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Formwork Oil C 10</t>
@@ -35671,7 +35653,7 @@
       <c r="T889" s="21" t="n"/>
       <c r="U889" s="22" t="n"/>
     </row>
-    <row r="890" ht="13.4" customHeight="1" s="196">
+    <row r="890" ht="13.4" customHeight="1" s="195">
       <c r="A890" s="54" t="inlineStr">
         <is>
           <t>Масла для газомотокомпрессоров</t>
@@ -35698,7 +35680,7 @@
       <c r="T890" s="24" t="n"/>
       <c r="U890" s="24" t="n"/>
     </row>
-    <row r="891" ht="13.4" customHeight="1" s="196">
+    <row r="891" ht="13.4" customHeight="1" s="195">
       <c r="A891" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">Газпромнефть МГД-20М </t>
@@ -35731,7 +35713,7 @@
       <c r="T891" s="21" t="n"/>
       <c r="U891" s="22" t="n"/>
     </row>
-    <row r="892" ht="13.4" customHeight="1" s="196">
+    <row r="892" ht="13.4" customHeight="1" s="195">
       <c r="A892" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft GEO 40</t>
@@ -35762,7 +35744,7 @@
       <c r="T892" s="21" t="n"/>
       <c r="U892" s="22" t="n"/>
     </row>
-    <row r="893" ht="13.4" customHeight="1" s="196">
+    <row r="893" ht="13.4" customHeight="1" s="195">
       <c r="A893" s="54" t="inlineStr">
         <is>
           <t>Масла-теплоносители</t>
@@ -35789,7 +35771,7 @@
       <c r="T893" s="24" t="n"/>
       <c r="U893" s="24" t="n"/>
     </row>
-    <row r="894" ht="13.4" customHeight="1" s="196">
+    <row r="894" ht="13.4" customHeight="1" s="195">
       <c r="A894" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft HTO 32</t>
@@ -35824,7 +35806,7 @@
       <c r="T894" s="21" t="n"/>
       <c r="U894" s="22" t="n"/>
     </row>
-    <row r="895" ht="13.4" customHeight="1" s="196">
+    <row r="895" ht="13.4" customHeight="1" s="195">
       <c r="A895" s="54" t="inlineStr">
         <is>
           <t>Индустриальные масла без присадок</t>
@@ -35892,7 +35874,7 @@
       <c r="T896" s="21" t="n"/>
       <c r="U896" s="22" t="n"/>
     </row>
-    <row r="897" ht="13.4" customHeight="1" s="196">
+    <row r="897" ht="13.4" customHeight="1" s="195">
       <c r="A897" s="73" t="inlineStr">
         <is>
           <t xml:space="preserve">И-12А </t>
@@ -35925,7 +35907,7 @@
       <c r="T897" s="21" t="n"/>
       <c r="U897" s="22" t="n"/>
     </row>
-    <row r="898" ht="12.65" customHeight="1" s="196">
+    <row r="898" ht="12.65" customHeight="1" s="195">
       <c r="A898" s="78" t="inlineStr">
         <is>
           <t xml:space="preserve">И-20А             </t>
@@ -35958,7 +35940,7 @@
       <c r="T898" s="21" t="n"/>
       <c r="U898" s="22" t="n"/>
     </row>
-    <row r="899" ht="12.65" customHeight="1" s="196">
+    <row r="899" ht="12.65" customHeight="1" s="195">
       <c r="A899" s="78" t="inlineStr">
         <is>
           <t xml:space="preserve">И-20А             </t>
@@ -36102,7 +36084,7 @@
       <c r="T902" s="21" t="n"/>
       <c r="U902" s="22" t="n"/>
     </row>
-    <row r="903" ht="12.65" customHeight="1" s="196">
+    <row r="903" ht="12.65" customHeight="1" s="195">
       <c r="A903" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">И-40А             </t>
@@ -36135,7 +36117,7 @@
       <c r="T903" s="21" t="n"/>
       <c r="U903" s="22" t="n"/>
     </row>
-    <row r="904" ht="12.65" customHeight="1" s="196">
+    <row r="904" ht="12.65" customHeight="1" s="195">
       <c r="A904" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">И-40А             </t>
@@ -36349,7 +36331,7 @@
       <c r="T909" s="21" t="n"/>
       <c r="U909" s="22" t="n"/>
     </row>
-    <row r="910" ht="12.65" customHeight="1" s="196">
+    <row r="910" ht="12.65" customHeight="1" s="195">
       <c r="A910" s="54" t="inlineStr">
         <is>
           <t>Прочие масла</t>
@@ -36376,7 +36358,7 @@
       <c r="T910" s="24" t="n"/>
       <c r="U910" s="24" t="n"/>
     </row>
-    <row r="911" ht="13.4" customHeight="1" s="196">
+    <row r="911" ht="13.4" customHeight="1" s="195">
       <c r="A911" s="56" t="inlineStr">
         <is>
           <t>Масло-мягчитель Газпромнефть ПМ</t>
@@ -36409,7 +36391,7 @@
       <c r="T911" s="21" t="n"/>
       <c r="U911" s="22" t="n"/>
     </row>
-    <row r="912" ht="13.4" customHeight="1" s="196">
+    <row r="912" ht="13.4" customHeight="1" s="195">
       <c r="A912" s="56" t="inlineStr">
         <is>
           <t>Масло-мягчитель Газпромнефть ПМ</t>
@@ -36442,7 +36424,7 @@
       <c r="T912" s="21" t="n"/>
       <c r="U912" s="22" t="n"/>
     </row>
-    <row r="913" ht="13.4" customHeight="1" s="196">
+    <row r="913" ht="13.4" customHeight="1" s="195">
       <c r="A913" s="56" t="inlineStr">
         <is>
           <t>Масло осевое марки Л 205л</t>
@@ -36479,7 +36461,7 @@
       <c r="T913" s="21" t="n"/>
       <c r="U913" s="22" t="n"/>
     </row>
-    <row r="914" ht="13.4" customHeight="1" s="196">
+    <row r="914" ht="13.4" customHeight="1" s="195">
       <c r="A914" s="56" t="inlineStr">
         <is>
           <t>Масло осевое марки З 205л</t>
@@ -36516,7 +36498,7 @@
       <c r="T914" s="21" t="n"/>
       <c r="U914" s="22" t="n"/>
     </row>
-    <row r="915" ht="13.4" customHeight="1" s="196">
+    <row r="915" ht="13.4" customHeight="1" s="195">
       <c r="A915" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Romil 460</t>
@@ -36549,7 +36531,7 @@
       <c r="T915" s="21" t="n"/>
       <c r="U915" s="22" t="n"/>
     </row>
-    <row r="916" ht="12.65" customHeight="1" s="196">
+    <row r="916" ht="12.65" customHeight="1" s="195">
       <c r="A916" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Romil 460</t>
@@ -36582,7 +36564,7 @@
       <c r="T916" s="21" t="n"/>
       <c r="U916" s="22" t="n"/>
     </row>
-    <row r="917" ht="12.65" customHeight="1" s="196">
+    <row r="917" ht="12.65" customHeight="1" s="195">
       <c r="A917" s="56" t="inlineStr">
         <is>
           <t>Масло-мягчитель ПН-6ш</t>
@@ -36613,7 +36595,7 @@
       <c r="T917" s="21" t="n"/>
       <c r="U917" s="22" t="n"/>
     </row>
-    <row r="918" ht="12.65" customHeight="1" s="196">
+    <row r="918" ht="12.65" customHeight="1" s="195">
       <c r="A918" s="56" t="inlineStr">
         <is>
           <t>Масло-мягчитель ПН-6ш</t>
@@ -36644,7 +36626,7 @@
       <c r="T918" s="21" t="n"/>
       <c r="U918" s="22" t="n"/>
     </row>
-    <row r="919" ht="24.75" customHeight="1" s="196">
+    <row r="919" ht="24.75" customHeight="1" s="195">
       <c r="A919" s="56" t="inlineStr">
         <is>
           <t>Масло-пластификатор Gazpromneft TDAE B</t>
@@ -36675,7 +36657,7 @@
       <c r="T919" s="21" t="n"/>
       <c r="U919" s="22" t="n"/>
     </row>
-    <row r="920" ht="22.5" customHeight="1" s="196">
+    <row r="920" ht="22.5" customHeight="1" s="195">
       <c r="A920" s="56" t="inlineStr">
         <is>
           <t>Масло-пластификатор Gazpromneft TDAE B</t>
@@ -36706,7 +36688,7 @@
       <c r="T920" s="21" t="n"/>
       <c r="U920" s="22" t="n"/>
     </row>
-    <row r="921" ht="13.4" customHeight="1" s="196">
+    <row r="921" ht="13.4" customHeight="1" s="195">
       <c r="A921" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Rubber Оil</t>
@@ -36739,7 +36721,7 @@
       <c r="T921" s="21" t="n"/>
       <c r="U921" s="22" t="n"/>
     </row>
-    <row r="922" ht="12.65" customHeight="1" s="196">
+    <row r="922" ht="12.65" customHeight="1" s="195">
       <c r="A922" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Rubber Оil</t>
@@ -36772,7 +36754,7 @@
       <c r="T922" s="21" t="n"/>
       <c r="U922" s="22" t="n"/>
     </row>
-    <row r="923" ht="12.65" customHeight="1" s="196">
+    <row r="923" ht="12.65" customHeight="1" s="195">
       <c r="A923" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Rubber Оil R</t>
@@ -36803,7 +36785,7 @@
       <c r="T923" s="21" t="n"/>
       <c r="U923" s="22" t="n"/>
     </row>
-    <row r="924" ht="12" customHeight="1" s="196">
+    <row r="924" ht="12" customHeight="1" s="195">
       <c r="A924" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Rubber Оil R</t>
@@ -36958,7 +36940,7 @@
       <c r="T928" s="21" t="n"/>
       <c r="U928" s="22" t="n"/>
     </row>
-    <row r="929" ht="16.5" customHeight="1" s="196">
+    <row r="929" ht="16.5" customHeight="1" s="195">
       <c r="A929" s="81" t="inlineStr">
         <is>
           <t>Пластичные смазки</t>
@@ -36985,7 +36967,7 @@
       <c r="T929" s="41" t="n"/>
       <c r="U929" s="41" t="n"/>
     </row>
-    <row r="930" ht="12.75" customHeight="1" s="196">
+    <row r="930" ht="12.75" customHeight="1" s="195">
       <c r="A930" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">G-Energy Grease LX EP 2 </t>
@@ -37022,7 +37004,7 @@
       <c r="T930" s="21" t="n"/>
       <c r="U930" s="22" t="n"/>
     </row>
-    <row r="931" ht="12.75" customHeight="1" s="196">
+    <row r="931" ht="12.75" customHeight="1" s="195">
       <c r="A931" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">G-Energy Grease L EP 2 </t>
@@ -37057,7 +37039,7 @@
       <c r="T931" s="21" t="n"/>
       <c r="U931" s="22" t="n"/>
     </row>
-    <row r="932" ht="12.75" customHeight="1" s="196">
+    <row r="932" ht="12.75" customHeight="1" s="195">
       <c r="A932" s="83" t="inlineStr">
         <is>
           <t>G-Energy Grease L Moly EP 2</t>
@@ -37092,7 +37074,7 @@
       <c r="T932" s="21" t="n"/>
       <c r="U932" s="22" t="n"/>
     </row>
-    <row r="933" ht="12.65" customHeight="1" s="196">
+    <row r="933" ht="12.65" customHeight="1" s="195">
       <c r="A933" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Grease L EP 0</t>
@@ -37127,7 +37109,7 @@
       <c r="T933" s="21" t="n"/>
       <c r="U933" s="22" t="n"/>
     </row>
-    <row r="934" ht="12.65" customHeight="1" s="196">
+    <row r="934" ht="12.65" customHeight="1" s="195">
       <c r="A934" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Grease L EP 0</t>
@@ -37158,7 +37140,7 @@
       <c r="T934" s="21" t="n"/>
       <c r="U934" s="22" t="n"/>
     </row>
-    <row r="935" ht="12.65" customHeight="1" s="196">
+    <row r="935" ht="12.65" customHeight="1" s="195">
       <c r="A935" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Grease L EP 1</t>
@@ -37193,7 +37175,7 @@
       <c r="T935" s="21" t="n"/>
       <c r="U935" s="22" t="n"/>
     </row>
-    <row r="936" ht="12.65" customHeight="1" s="196">
+    <row r="936" ht="12.65" customHeight="1" s="195">
       <c r="A936" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Grease L EP 1</t>
@@ -37224,7 +37206,7 @@
       <c r="T936" s="21" t="n"/>
       <c r="U936" s="22" t="n"/>
     </row>
-    <row r="937" ht="12.65" customHeight="1" s="196">
+    <row r="937" ht="12.65" customHeight="1" s="195">
       <c r="A937" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Grease L EP 2</t>
@@ -37255,7 +37237,7 @@
       <c r="T937" s="21" t="n"/>
       <c r="U937" s="22" t="n"/>
     </row>
-    <row r="938" ht="12.65" customHeight="1" s="196">
+    <row r="938" ht="12.65" customHeight="1" s="195">
       <c r="A938" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Grease L EP 2</t>
@@ -37286,7 +37268,7 @@
       <c r="T938" s="21" t="n"/>
       <c r="U938" s="22" t="n"/>
     </row>
-    <row r="939" ht="12.65" customHeight="1" s="196">
+    <row r="939" ht="12.65" customHeight="1" s="195">
       <c r="A939" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Grease L EP 2</t>
@@ -37317,7 +37299,7 @@
       <c r="T939" s="21" t="n"/>
       <c r="U939" s="22" t="n"/>
     </row>
-    <row r="940" ht="12.65" customHeight="1" s="196">
+    <row r="940" ht="12.65" customHeight="1" s="195">
       <c r="A940" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Grease L EP 2</t>
@@ -37356,7 +37338,7 @@
       <c r="T940" s="21" t="n"/>
       <c r="U940" s="22" t="n"/>
     </row>
-    <row r="941" ht="12.65" customHeight="1" s="196">
+    <row r="941" ht="12.65" customHeight="1" s="195">
       <c r="A941" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Grease L EP 2</t>
@@ -37387,7 +37369,7 @@
       <c r="T941" s="21" t="n"/>
       <c r="U941" s="22" t="n"/>
     </row>
-    <row r="942" ht="12.65" customHeight="1" s="196">
+    <row r="942" ht="12.65" customHeight="1" s="195">
       <c r="A942" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Grease L EP 2</t>
@@ -37422,7 +37404,7 @@
       <c r="T942" s="21" t="n"/>
       <c r="U942" s="22" t="n"/>
     </row>
-    <row r="943" ht="12.65" customHeight="1" s="196">
+    <row r="943" ht="12.65" customHeight="1" s="195">
       <c r="A943" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Grease L EP 2</t>
@@ -37453,7 +37435,7 @@
       <c r="T943" s="21" t="n"/>
       <c r="U943" s="22" t="n"/>
     </row>
-    <row r="944" ht="12.65" customHeight="1" s="196">
+    <row r="944" ht="12.65" customHeight="1" s="195">
       <c r="A944" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Grease L EP 3</t>
@@ -37484,7 +37466,7 @@
       <c r="T944" s="21" t="n"/>
       <c r="U944" s="22" t="n"/>
     </row>
-    <row r="945" ht="12.65" customHeight="1" s="196">
+    <row r="945" ht="12.65" customHeight="1" s="195">
       <c r="A945" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Grease L EP 3</t>
@@ -37515,7 +37497,7 @@
       <c r="T945" s="21" t="n"/>
       <c r="U945" s="22" t="n"/>
     </row>
-    <row r="946" ht="12.65" customHeight="1" s="196">
+    <row r="946" ht="12.65" customHeight="1" s="195">
       <c r="A946" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Grease L EP 3</t>
@@ -37546,7 +37528,7 @@
       <c r="T946" s="21" t="n"/>
       <c r="U946" s="22" t="n"/>
     </row>
-    <row r="947" ht="12.65" customHeight="1" s="196">
+    <row r="947" ht="12.65" customHeight="1" s="195">
       <c r="A947" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Grease L EP 3</t>
@@ -37577,7 +37559,7 @@
       <c r="T947" s="21" t="n"/>
       <c r="U947" s="22" t="n"/>
     </row>
-    <row r="948" ht="12.65" customHeight="1" s="196">
+    <row r="948" ht="12.65" customHeight="1" s="195">
       <c r="A948" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Grease L EP 3</t>
@@ -37608,7 +37590,7 @@
       <c r="T948" s="21" t="n"/>
       <c r="U948" s="22" t="n"/>
     </row>
-    <row r="949" ht="12.65" customHeight="1" s="196">
+    <row r="949" ht="12.65" customHeight="1" s="195">
       <c r="A949" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Grease L EP 3</t>
@@ -37639,7 +37621,7 @@
       <c r="T949" s="21" t="n"/>
       <c r="U949" s="22" t="n"/>
     </row>
-    <row r="950" ht="12.65" customHeight="1" s="196">
+    <row r="950" ht="12.65" customHeight="1" s="195">
       <c r="A950" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Grease L EP 3</t>
@@ -37670,7 +37652,7 @@
       <c r="T950" s="21" t="n"/>
       <c r="U950" s="22" t="n"/>
     </row>
-    <row r="951" ht="12.65" customHeight="1" s="196">
+    <row r="951" ht="12.65" customHeight="1" s="195">
       <c r="A951" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Grease L EP 00</t>
@@ -37701,7 +37683,7 @@
       <c r="T951" s="21" t="n"/>
       <c r="U951" s="22" t="n"/>
     </row>
-    <row r="952" ht="12.65" customHeight="1" s="196">
+    <row r="952" ht="12.65" customHeight="1" s="195">
       <c r="A952" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Grease L EP 00</t>
@@ -37736,7 +37718,7 @@
       <c r="T952" s="21" t="n"/>
       <c r="U952" s="22" t="n"/>
     </row>
-    <row r="953" ht="12.65" customHeight="1" s="196">
+    <row r="953" ht="12.65" customHeight="1" s="195">
       <c r="A953" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Grease L EP 00</t>
@@ -37767,7 +37749,7 @@
       <c r="T953" s="21" t="n"/>
       <c r="U953" s="22" t="n"/>
     </row>
-    <row r="954" ht="12.65" customHeight="1" s="196">
+    <row r="954" ht="12.65" customHeight="1" s="195">
       <c r="A954" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Grease LX EP 1</t>
@@ -37804,7 +37786,7 @@
       <c r="T954" s="21" t="n"/>
       <c r="U954" s="22" t="n"/>
     </row>
-    <row r="955" ht="12.65" customHeight="1" s="196">
+    <row r="955" ht="12.65" customHeight="1" s="195">
       <c r="A955" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Grease LX EP 1</t>
@@ -37837,7 +37819,7 @@
       <c r="T955" s="21" t="n"/>
       <c r="U955" s="22" t="n"/>
     </row>
-    <row r="956" ht="12.65" customHeight="1" s="196">
+    <row r="956" ht="12.65" customHeight="1" s="195">
       <c r="A956" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Grease LX EP 2</t>
@@ -37880,7 +37862,7 @@
       <c r="T956" s="21" t="n"/>
       <c r="U956" s="22" t="n"/>
     </row>
-    <row r="957" ht="12.65" customHeight="1" s="196">
+    <row r="957" ht="12.65" customHeight="1" s="195">
       <c r="A957" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Grease LX EP 2</t>
@@ -37915,7 +37897,7 @@
       <c r="T957" s="21" t="n"/>
       <c r="U957" s="22" t="n"/>
     </row>
-    <row r="958" ht="12.65" customHeight="1" s="196">
+    <row r="958" ht="12.65" customHeight="1" s="195">
       <c r="A958" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Grease LX EP 2</t>
@@ -37946,7 +37928,7 @@
       <c r="T958" s="21" t="n"/>
       <c r="U958" s="22" t="n"/>
     </row>
-    <row r="959" ht="12.65" customHeight="1" s="196">
+    <row r="959" ht="12.65" customHeight="1" s="195">
       <c r="A959" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Grease LX EP 2</t>
@@ -37985,7 +37967,7 @@
       <c r="T959" s="21" t="n"/>
       <c r="U959" s="22" t="n"/>
     </row>
-    <row r="960" ht="12.65" customHeight="1" s="196">
+    <row r="960" ht="12.65" customHeight="1" s="195">
       <c r="A960" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Grease LX EP 2</t>
@@ -38018,7 +38000,7 @@
       <c r="T960" s="21" t="n"/>
       <c r="U960" s="22" t="n"/>
     </row>
-    <row r="961" ht="12.65" customHeight="1" s="196">
+    <row r="961" ht="12.65" customHeight="1" s="195">
       <c r="A961" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft GreaseLMolyEP 2</t>
@@ -38055,7 +38037,7 @@
       <c r="T961" s="21" t="n"/>
       <c r="U961" s="22" t="n"/>
     </row>
-    <row r="962" ht="12.65" customHeight="1" s="196">
+    <row r="962" ht="12.65" customHeight="1" s="195">
       <c r="A962" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft GreaseLMolyEP 2</t>
@@ -38088,7 +38070,7 @@
       <c r="T962" s="21" t="n"/>
       <c r="U962" s="22" t="n"/>
     </row>
-    <row r="963" ht="12.65" customHeight="1" s="196">
+    <row r="963" ht="12.65" customHeight="1" s="195">
       <c r="A963" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft GreaseLMolyEP 2</t>
@@ -38121,7 +38103,7 @@
       <c r="T963" s="21" t="n"/>
       <c r="U963" s="22" t="n"/>
     </row>
-    <row r="964" ht="12.65" customHeight="1" s="196">
+    <row r="964" ht="12.65" customHeight="1" s="195">
       <c r="A964" s="56" t="inlineStr">
         <is>
           <t>GazpromneftGreaseLTSMoly EP 2</t>
@@ -38154,7 +38136,7 @@
       <c r="T964" s="21" t="n"/>
       <c r="U964" s="22" t="n"/>
     </row>
-    <row r="965" ht="12.65" customHeight="1" s="196">
+    <row r="965" ht="12.65" customHeight="1" s="195">
       <c r="A965" s="56" t="inlineStr">
         <is>
           <t>GazpromneftGreaseLTSMoly EP 2</t>
@@ -38187,7 +38169,7 @@
       <c r="T965" s="21" t="n"/>
       <c r="U965" s="22" t="n"/>
     </row>
-    <row r="966" ht="12.65" customHeight="1" s="196">
+    <row r="966" ht="12.65" customHeight="1" s="195">
       <c r="A966" s="56" t="inlineStr">
         <is>
           <t>GazpromneftGreaseLTSMoly EP 2</t>
@@ -38220,7 +38202,7 @@
       <c r="T966" s="21" t="n"/>
       <c r="U966" s="22" t="n"/>
     </row>
-    <row r="967" ht="12.65" customHeight="1" s="196">
+    <row r="967" ht="12.65" customHeight="1" s="195">
       <c r="A967" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Grease Nord Moly</t>
@@ -38253,7 +38235,7 @@
       <c r="T967" s="21" t="n"/>
       <c r="U967" s="22" t="n"/>
     </row>
-    <row r="968" ht="12.65" customHeight="1" s="196">
+    <row r="968" ht="12.65" customHeight="1" s="195">
       <c r="A968" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Grease Nord Moly</t>
@@ -38286,7 +38268,7 @@
       <c r="T968" s="21" t="n"/>
       <c r="U968" s="22" t="n"/>
     </row>
-    <row r="969" ht="12.65" customHeight="1" s="196">
+    <row r="969" ht="12.65" customHeight="1" s="195">
       <c r="A969" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Grease LTS 1</t>
@@ -38319,7 +38301,7 @@
       <c r="T969" s="21" t="n"/>
       <c r="U969" s="22" t="n"/>
     </row>
-    <row r="970" ht="12.65" customHeight="1" s="196">
+    <row r="970" ht="12.65" customHeight="1" s="195">
       <c r="A970" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Grease LTS 1</t>
@@ -38352,7 +38334,7 @@
       <c r="T970" s="21" t="n"/>
       <c r="U970" s="22" t="n"/>
     </row>
-    <row r="971" ht="12.65" customHeight="1" s="196">
+    <row r="971" ht="12.65" customHeight="1" s="195">
       <c r="A971" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Grease LTS 2</t>
@@ -38385,7 +38367,7 @@
       <c r="T971" s="21" t="n"/>
       <c r="U971" s="22" t="n"/>
     </row>
-    <row r="972" ht="12.65" customHeight="1" s="196">
+    <row r="972" ht="12.65" customHeight="1" s="195">
       <c r="A972" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Grease LTS 2</t>
@@ -38422,7 +38404,7 @@
       <c r="T972" s="21" t="n"/>
       <c r="U972" s="22" t="n"/>
     </row>
-    <row r="973" ht="12.65" customHeight="1" s="196">
+    <row r="973" ht="12.65" customHeight="1" s="195">
       <c r="A973" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Grease LTS 2</t>
@@ -38455,7 +38437,7 @@
       <c r="T973" s="21" t="n"/>
       <c r="U973" s="22" t="n"/>
     </row>
-    <row r="974" ht="12.65" customHeight="1" s="196">
+    <row r="974" ht="12.65" customHeight="1" s="195">
       <c r="A974" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Steelgrease CS 1</t>
@@ -38488,7 +38470,7 @@
       <c r="T974" s="21" t="n"/>
       <c r="U974" s="22" t="n"/>
     </row>
-    <row r="975" ht="12.65" customHeight="1" s="196">
+    <row r="975" ht="12.65" customHeight="1" s="195">
       <c r="A975" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Steelgrease CS 1</t>
@@ -38521,7 +38503,7 @@
       <c r="T975" s="21" t="n"/>
       <c r="U975" s="22" t="n"/>
     </row>
-    <row r="976" ht="12.65" customHeight="1" s="196">
+    <row r="976" ht="12.65" customHeight="1" s="195">
       <c r="A976" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Steelgrease CS 2</t>
@@ -38556,7 +38538,7 @@
       <c r="T976" s="21" t="n"/>
       <c r="U976" s="22" t="n"/>
     </row>
-    <row r="977" ht="12.65" customHeight="1" s="196">
+    <row r="977" ht="12.65" customHeight="1" s="195">
       <c r="A977" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Steelgrease CS 2</t>
@@ -38593,7 +38575,7 @@
       <c r="T977" s="21" t="n"/>
       <c r="U977" s="22" t="n"/>
     </row>
-    <row r="978" ht="12.65" customHeight="1" s="196">
+    <row r="978" ht="12.65" customHeight="1" s="195">
       <c r="A978" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Steelgrease CS 2</t>
@@ -38626,7 +38608,7 @@
       <c r="T978" s="21" t="n"/>
       <c r="U978" s="22" t="n"/>
     </row>
-    <row r="979" ht="12.65" customHeight="1" s="196">
+    <row r="979" ht="12.65" customHeight="1" s="195">
       <c r="A979" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft Grease L 2 </t>
@@ -38657,7 +38639,7 @@
       <c r="T979" s="21" t="n"/>
       <c r="U979" s="22" t="n"/>
     </row>
-    <row r="980" ht="12.65" customHeight="1" s="196">
+    <row r="980" ht="12.65" customHeight="1" s="195">
       <c r="A980" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft Grease L 2 </t>
@@ -38688,7 +38670,7 @@
       <c r="T980" s="21" t="n"/>
       <c r="U980" s="22" t="n"/>
     </row>
-    <row r="981" ht="12.65" customHeight="1" s="196">
+    <row r="981" ht="12.65" customHeight="1" s="195">
       <c r="A981" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft Grease L 2 </t>
@@ -38719,7 +38701,7 @@
       <c r="T981" s="21" t="n"/>
       <c r="U981" s="22" t="n"/>
     </row>
-    <row r="982" ht="12.65" customHeight="1" s="196">
+    <row r="982" ht="12.65" customHeight="1" s="195">
       <c r="A982" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Grease HighSpeed EP 3</t>
@@ -38750,7 +38732,7 @@
       <c r="T982" s="21" t="n"/>
       <c r="U982" s="22" t="n"/>
     </row>
-    <row r="983" ht="12.65" customHeight="1" s="196">
+    <row r="983" ht="12.65" customHeight="1" s="195">
       <c r="A983" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Grease HighSpeed EP 3</t>
@@ -38781,7 +38763,7 @@
       <c r="T983" s="21" t="n"/>
       <c r="U983" s="22" t="n"/>
     </row>
-    <row r="984" ht="12.65" customHeight="1" s="196">
+    <row r="984" ht="12.65" customHeight="1" s="195">
       <c r="A984" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Grease HighSpeed EP 3</t>
@@ -38812,7 +38794,7 @@
       <c r="T984" s="21" t="n"/>
       <c r="U984" s="22" t="n"/>
     </row>
-    <row r="985" ht="12.75" customHeight="1" s="196">
+    <row r="985" ht="12.75" customHeight="1" s="195">
       <c r="A985" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft Metalgrease AC </t>
@@ -38845,7 +38827,7 @@
       <c r="T985" s="21" t="n"/>
       <c r="U985" s="22" t="n"/>
     </row>
-    <row r="986" ht="12.75" customHeight="1" s="196">
+    <row r="986" ht="12.75" customHeight="1" s="195">
       <c r="A986" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazpromneft Metalgrease AC </t>
@@ -38882,7 +38864,7 @@
       <c r="T986" s="21" t="n"/>
       <c r="U986" s="22" t="n"/>
     </row>
-    <row r="987" ht="12.75" customHeight="1" s="196">
+    <row r="987" ht="12.75" customHeight="1" s="195">
       <c r="A987" s="83" t="inlineStr">
         <is>
           <t>Gazpromneft Grease Synt LX EP2</t>
@@ -38915,7 +38897,7 @@
       <c r="T987" s="21" t="n"/>
       <c r="U987" s="22" t="n"/>
     </row>
-    <row r="988" ht="12.75" customHeight="1" s="196">
+    <row r="988" ht="12.75" customHeight="1" s="195">
       <c r="A988" s="83" t="inlineStr">
         <is>
           <t>Gazpromneft Grease Synt LX EP2</t>
@@ -38946,7 +38928,7 @@
       <c r="T988" s="21" t="n"/>
       <c r="U988" s="22" t="n"/>
     </row>
-    <row r="989" ht="12.65" customHeight="1" s="196">
+    <row r="989" ht="12.65" customHeight="1" s="195">
       <c r="A989" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Universal Grease</t>
@@ -38977,7 +38959,7 @@
       <c r="T989" s="21" t="n"/>
       <c r="U989" s="22" t="n"/>
     </row>
-    <row r="990" ht="12.65" customHeight="1" s="196">
+    <row r="990" ht="12.65" customHeight="1" s="195">
       <c r="A990" s="77" t="inlineStr">
         <is>
           <t>Gazpromneft Reductor Grease</t>
@@ -39008,7 +38990,7 @@
       <c r="T990" s="21" t="n"/>
       <c r="U990" s="22" t="n"/>
     </row>
-    <row r="991" ht="12.65" customHeight="1" s="196">
+    <row r="991" ht="12.65" customHeight="1" s="195">
       <c r="A991" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Литол</t>
@@ -39039,7 +39021,7 @@
       <c r="T991" s="21" t="n"/>
       <c r="U991" s="22" t="n"/>
     </row>
-    <row r="992" ht="12.65" customHeight="1" s="196">
+    <row r="992" ht="12.65" customHeight="1" s="195">
       <c r="A992" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Литол</t>
@@ -39070,7 +39052,7 @@
       <c r="T992" s="21" t="n"/>
       <c r="U992" s="22" t="n"/>
     </row>
-    <row r="993" ht="12.65" customHeight="1" s="196">
+    <row r="993" ht="12.65" customHeight="1" s="195">
       <c r="A993" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Литол</t>
@@ -39101,7 +39083,7 @@
       <c r="T993" s="21" t="n"/>
       <c r="U993" s="22" t="n"/>
     </row>
-    <row r="994" ht="12.65" customHeight="1" s="196">
+    <row r="994" ht="12.65" customHeight="1" s="195">
       <c r="A994" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Литол</t>
@@ -39136,7 +39118,7 @@
       <c r="T994" s="21" t="n"/>
       <c r="U994" s="22" t="n"/>
     </row>
-    <row r="995" ht="12.65" customHeight="1" s="196">
+    <row r="995" ht="12.65" customHeight="1" s="195">
       <c r="A995" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Литол</t>
@@ -39171,7 +39153,7 @@
       <c r="T995" s="21" t="n"/>
       <c r="U995" s="22" t="n"/>
     </row>
-    <row r="996" ht="12.65" customHeight="1" s="196">
+    <row r="996" ht="12.65" customHeight="1" s="195">
       <c r="A996" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Литол</t>
@@ -39206,7 +39188,7 @@
       <c r="T996" s="21" t="n"/>
       <c r="U996" s="22" t="n"/>
     </row>
-    <row r="997" ht="12.65" customHeight="1" s="196">
+    <row r="997" ht="12.65" customHeight="1" s="195">
       <c r="A997" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Литол</t>
@@ -39241,7 +39223,7 @@
       <c r="T997" s="21" t="n"/>
       <c r="U997" s="22" t="n"/>
     </row>
-    <row r="998" ht="12.65" customHeight="1" s="196">
+    <row r="998" ht="12.65" customHeight="1" s="195">
       <c r="A998" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Литол</t>
@@ -39278,7 +39260,7 @@
       <c r="T998" s="21" t="n"/>
       <c r="U998" s="22" t="n"/>
     </row>
-    <row r="999" ht="12.65" customHeight="1" s="196">
+    <row r="999" ht="12.65" customHeight="1" s="195">
       <c r="A999" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Литол</t>
@@ -39309,7 +39291,7 @@
       <c r="T999" s="21" t="n"/>
       <c r="U999" s="22" t="n"/>
     </row>
-    <row r="1000" ht="12.65" customHeight="1" s="196">
+    <row r="1000" ht="12.65" customHeight="1" s="195">
       <c r="A1000" s="56" t="inlineStr">
         <is>
           <t>Gazpromneft Литол</t>
@@ -39340,7 +39322,7 @@
       <c r="T1000" s="21" t="n"/>
       <c r="U1000" s="22" t="n"/>
     </row>
-    <row r="1001" ht="12.65" customHeight="1" s="196">
+    <row r="1001" ht="12.65" customHeight="1" s="195">
       <c r="A1001" s="56" t="inlineStr">
         <is>
           <t>Литол-24 ГОСТ</t>
@@ -39373,7 +39355,7 @@
       <c r="T1001" s="21" t="n"/>
       <c r="U1001" s="22" t="n"/>
     </row>
-    <row r="1002" ht="12.65" customHeight="1" s="196">
+    <row r="1002" ht="12.65" customHeight="1" s="195">
       <c r="A1002" s="56" t="inlineStr">
         <is>
           <t>Литол-24 ГОСТ</t>
@@ -39406,7 +39388,7 @@
       <c r="T1002" s="21" t="n"/>
       <c r="U1002" s="22" t="n"/>
     </row>
-    <row r="1003" ht="12.65" customHeight="1" s="196">
+    <row r="1003" ht="12.65" customHeight="1" s="195">
       <c r="A1003" s="56" t="inlineStr">
         <is>
           <t>Литол-24 ГОСТ</t>
@@ -39441,7 +39423,7 @@
       <c r="T1003" s="21" t="n"/>
       <c r="U1003" s="22" t="n"/>
     </row>
-    <row r="1004" ht="12.65" customHeight="1" s="196">
+    <row r="1004" ht="12.65" customHeight="1" s="195">
       <c r="A1004" s="56" t="inlineStr">
         <is>
           <t>Литол-24 ГОСТ</t>
@@ -39480,7 +39462,7 @@
       <c r="T1004" s="21" t="n"/>
       <c r="U1004" s="22" t="n"/>
     </row>
-    <row r="1005" ht="12.65" customHeight="1" s="196">
+    <row r="1005" ht="12.65" customHeight="1" s="195">
       <c r="A1005" s="56" t="inlineStr">
         <is>
           <t>Литол-24 ГОСТ</t>
@@ -39515,7 +39497,7 @@
       <c r="T1005" s="21" t="n"/>
       <c r="U1005" s="22" t="n"/>
     </row>
-    <row r="1006" ht="12.65" customHeight="1" s="196">
+    <row r="1006" ht="12.65" customHeight="1" s="195">
       <c r="A1006" s="56" t="inlineStr">
         <is>
           <t>Литол-24 ГОСТ</t>
@@ -39550,7 +39532,7 @@
       <c r="T1006" s="21" t="n"/>
       <c r="U1006" s="22" t="n"/>
     </row>
-    <row r="1007" ht="12.65" customHeight="1" s="196">
+    <row r="1007" ht="12.65" customHeight="1" s="195">
       <c r="A1007" s="56" t="inlineStr">
         <is>
           <t>Литол-24 ГОСТ</t>
@@ -39585,7 +39567,7 @@
       <c r="T1007" s="21" t="n"/>
       <c r="U1007" s="22" t="n"/>
     </row>
-    <row r="1008" ht="12.65" customHeight="1" s="196">
+    <row r="1008" ht="12.65" customHeight="1" s="195">
       <c r="A1008" s="56" t="inlineStr">
         <is>
           <t>Литол-24 ГОСТ</t>
@@ -39620,7 +39602,7 @@
       <c r="T1008" s="21" t="n"/>
       <c r="U1008" s="22" t="n"/>
     </row>
-    <row r="1009" ht="12.65" customHeight="1" s="196">
+    <row r="1009" ht="12.65" customHeight="1" s="195">
       <c r="A1009" s="56" t="inlineStr">
         <is>
           <t>Литол-24 ГОСТ</t>
@@ -39651,7 +39633,7 @@
       <c r="T1009" s="21" t="n"/>
       <c r="U1009" s="22" t="n"/>
     </row>
-    <row r="1010" ht="12.65" customHeight="1" s="196">
+    <row r="1010" ht="12.65" customHeight="1" s="195">
       <c r="A1010" s="56" t="inlineStr">
         <is>
           <t>Литол-24 ГОСТ</t>
@@ -39682,7 +39664,7 @@
       <c r="T1010" s="21" t="n"/>
       <c r="U1010" s="22" t="n"/>
     </row>
-    <row r="1011" ht="12.65" customHeight="1" s="196">
+    <row r="1011" ht="12.65" customHeight="1" s="195">
       <c r="A1011" s="69" t="inlineStr">
         <is>
           <t>Газпромнефть ЕР-2</t>
@@ -39713,7 +39695,7 @@
       <c r="T1011" s="21" t="n"/>
       <c r="U1011" s="22" t="n"/>
     </row>
-    <row r="1012" ht="12.65" customHeight="1" s="196">
+    <row r="1012" ht="12.65" customHeight="1" s="195">
       <c r="A1012" s="69" t="inlineStr">
         <is>
           <t>Газпромнефть ЕР-2</t>
@@ -39746,7 +39728,7 @@
       <c r="T1012" s="21" t="n"/>
       <c r="U1012" s="22" t="n"/>
     </row>
-    <row r="1013" ht="12.65" customHeight="1" s="196">
+    <row r="1013" ht="12.65" customHeight="1" s="195">
       <c r="A1013" s="69" t="inlineStr">
         <is>
           <t>Газпромнефть ЕР-2</t>
@@ -39777,7 +39759,7 @@
       <c r="T1013" s="21" t="n"/>
       <c r="U1013" s="22" t="n"/>
     </row>
-    <row r="1014" ht="12.65" customHeight="1" s="196">
+    <row r="1014" ht="12.65" customHeight="1" s="195">
       <c r="A1014" s="69" t="inlineStr">
         <is>
           <t>Газпромнефть ЕР-2</t>
@@ -39808,7 +39790,7 @@
       <c r="T1014" s="21" t="n"/>
       <c r="U1014" s="22" t="n"/>
     </row>
-    <row r="1015" ht="12.65" customHeight="1" s="196">
+    <row r="1015" ht="12.65" customHeight="1" s="195">
       <c r="A1015" s="69" t="inlineStr">
         <is>
           <t>Газпромнефть ЕР-3</t>
@@ -39839,7 +39821,7 @@
       <c r="T1015" s="21" t="n"/>
       <c r="U1015" s="22" t="n"/>
     </row>
-    <row r="1016" ht="12.65" customHeight="1" s="196">
+    <row r="1016" ht="12.65" customHeight="1" s="195">
       <c r="A1016" s="69" t="inlineStr">
         <is>
           <t>Газпромнефть ЕР-3</t>
@@ -39870,7 +39852,7 @@
       <c r="T1016" s="21" t="n"/>
       <c r="U1016" s="22" t="n"/>
     </row>
-    <row r="1017" ht="12.65" customHeight="1" s="196">
+    <row r="1017" ht="12.65" customHeight="1" s="195">
       <c r="A1017" s="69" t="inlineStr">
         <is>
           <t>Газпромнефть ЕР-3</t>
@@ -39901,7 +39883,7 @@
       <c r="T1017" s="21" t="n"/>
       <c r="U1017" s="22" t="n"/>
     </row>
-    <row r="1018" ht="12.65" customHeight="1" s="196">
+    <row r="1018" ht="12.65" customHeight="1" s="195">
       <c r="A1018" s="56" t="inlineStr">
         <is>
           <t>ШРУС</t>
@@ -39932,7 +39914,7 @@
       <c r="T1018" s="21" t="n"/>
       <c r="U1018" s="22" t="n"/>
     </row>
-    <row r="1019" ht="12.65" customHeight="1" s="196">
+    <row r="1019" ht="12.65" customHeight="1" s="195">
       <c r="A1019" s="56" t="inlineStr">
         <is>
           <t>ШРУС</t>
@@ -39963,7 +39945,7 @@
       <c r="T1019" s="21" t="n"/>
       <c r="U1019" s="22" t="n"/>
     </row>
-    <row r="1020" ht="12.65" customHeight="1" s="196">
+    <row r="1020" ht="12.65" customHeight="1" s="195">
       <c r="A1020" s="56" t="inlineStr">
         <is>
           <t>ШРУС</t>
@@ -39994,7 +39976,7 @@
       <c r="T1020" s="21" t="n"/>
       <c r="U1020" s="22" t="n"/>
     </row>
-    <row r="1021" ht="12.65" customHeight="1" s="196">
+    <row r="1021" ht="12.65" customHeight="1" s="195">
       <c r="A1021" s="56" t="inlineStr">
         <is>
           <t>ШРУС</t>
@@ -40033,7 +40015,7 @@
       <c r="T1021" s="21" t="n"/>
       <c r="U1021" s="22" t="n"/>
     </row>
-    <row r="1022" ht="12.65" customHeight="1" s="196">
+    <row r="1022" ht="12.65" customHeight="1" s="195">
       <c r="A1022" s="56" t="inlineStr">
         <is>
           <t>ШРУС</t>
@@ -40068,7 +40050,7 @@
       <c r="T1022" s="21" t="n"/>
       <c r="U1022" s="22" t="n"/>
     </row>
-    <row r="1023" ht="16.5" customHeight="1" s="196">
+    <row r="1023" ht="16.5" customHeight="1" s="195">
       <c r="A1023" s="81" t="inlineStr">
         <is>
           <t>Охлаждающие и технические жидкости</t>
@@ -40095,7 +40077,7 @@
       <c r="T1023" s="41" t="n"/>
       <c r="U1023" s="41" t="n"/>
     </row>
-    <row r="1024" ht="12" customHeight="1" s="196">
+    <row r="1024" ht="12" customHeight="1" s="195">
       <c r="A1024" s="52" t="inlineStr">
         <is>
           <t>ОЖ G-Energy Antifreeze SNF</t>
@@ -40128,7 +40110,7 @@
       <c r="T1024" s="23" t="n"/>
       <c r="U1024" s="22" t="n"/>
     </row>
-    <row r="1025" ht="12.75" customHeight="1" s="196">
+    <row r="1025" ht="12.75" customHeight="1" s="195">
       <c r="A1025" s="52" t="inlineStr">
         <is>
           <t>ОЖ G-Energy Antifreeze SNF</t>
@@ -40165,7 +40147,7 @@
       <c r="T1025" s="23" t="n"/>
       <c r="U1025" s="22" t="n"/>
     </row>
-    <row r="1026" ht="12.75" customHeight="1" s="196">
+    <row r="1026" ht="12.75" customHeight="1" s="195">
       <c r="A1026" s="52" t="inlineStr">
         <is>
           <t>ОЖ G-Energy Antifreeze SNF</t>
@@ -40202,7 +40184,7 @@
       <c r="T1026" s="23" t="n"/>
       <c r="U1026" s="22" t="n"/>
     </row>
-    <row r="1027" ht="12.75" customHeight="1" s="196">
+    <row r="1027" ht="12.75" customHeight="1" s="195">
       <c r="A1027" s="52" t="inlineStr">
         <is>
           <t>ОЖ G-Energy Antifreeze SNF</t>
@@ -40233,7 +40215,7 @@
       <c r="T1027" s="23" t="n"/>
       <c r="U1027" s="22" t="n"/>
     </row>
-    <row r="1028" ht="12.75" customHeight="1" s="196">
+    <row r="1028" ht="12.75" customHeight="1" s="195">
       <c r="A1028" s="52" t="inlineStr">
         <is>
           <t xml:space="preserve">ОЖ G-Energy Antifreeze SNF 50/50 </t>
@@ -40264,7 +40246,7 @@
       <c r="T1028" s="23" t="n"/>
       <c r="U1028" s="22" t="n"/>
     </row>
-    <row r="1029" ht="12.75" customHeight="1" s="196">
+    <row r="1029" ht="12.75" customHeight="1" s="195">
       <c r="A1029" s="52" t="inlineStr">
         <is>
           <t xml:space="preserve">ОЖ G-Energy Antifreeze SNF 50/50 </t>
@@ -40295,7 +40277,7 @@
       <c r="T1029" s="23" t="n"/>
       <c r="U1029" s="22" t="n"/>
     </row>
-    <row r="1030" ht="12.75" customHeight="1" s="196">
+    <row r="1030" ht="12.75" customHeight="1" s="195">
       <c r="A1030" s="83" t="inlineStr">
         <is>
           <t>ОЖ G-Energy Antifreeze SNF 40</t>
@@ -40330,7 +40312,7 @@
       <c r="T1030" s="23" t="n"/>
       <c r="U1030" s="22" t="n"/>
     </row>
-    <row r="1031" ht="12.75" customHeight="1" s="196">
+    <row r="1031" ht="12.75" customHeight="1" s="195">
       <c r="A1031" s="83" t="inlineStr">
         <is>
           <t>ОЖ G-Energy Antifreeze SNF 40</t>
@@ -40373,7 +40355,7 @@
       <c r="T1031" s="23" t="n"/>
       <c r="U1031" s="22" t="n"/>
     </row>
-    <row r="1032" ht="12.75" customHeight="1" s="196">
+    <row r="1032" ht="12.75" customHeight="1" s="195">
       <c r="A1032" s="83" t="inlineStr">
         <is>
           <t>ОЖ G-Energy Antifreeze SNF 40</t>
@@ -40406,7 +40388,7 @@
       <c r="T1032" s="23" t="n"/>
       <c r="U1032" s="22" t="n"/>
     </row>
-    <row r="1033" ht="12.75" customHeight="1" s="196">
+    <row r="1033" ht="12.75" customHeight="1" s="195">
       <c r="A1033" s="83" t="inlineStr">
         <is>
           <t>ОЖ G-Energy Antifreeze SNF 40</t>
@@ -40445,7 +40427,7 @@
       <c r="T1033" s="23" t="n"/>
       <c r="U1033" s="22" t="n"/>
     </row>
-    <row r="1034" ht="12.75" customHeight="1" s="196">
+    <row r="1034" ht="12.75" customHeight="1" s="195">
       <c r="A1034" s="83" t="inlineStr">
         <is>
           <t>ОЖ G-Energy Antifreeze SNF 40</t>
@@ -40476,7 +40458,7 @@
       <c r="T1034" s="23" t="n"/>
       <c r="U1034" s="22" t="n"/>
     </row>
-    <row r="1035" ht="12.75" customHeight="1" s="196">
+    <row r="1035" ht="12.75" customHeight="1" s="195">
       <c r="A1035" s="85" t="inlineStr">
         <is>
           <t>ОЖ G-Energy Antifreeze NF 40</t>
@@ -40511,7 +40493,7 @@
       <c r="T1035" s="23" t="n"/>
       <c r="U1035" s="22" t="n"/>
     </row>
-    <row r="1036" ht="12.75" customHeight="1" s="196">
+    <row r="1036" ht="12.75" customHeight="1" s="195">
       <c r="A1036" s="85" t="inlineStr">
         <is>
           <t>ОЖ G-Energy Antifreeze NF 40</t>
@@ -40554,7 +40536,7 @@
       <c r="T1036" s="23" t="n"/>
       <c r="U1036" s="22" t="n"/>
     </row>
-    <row r="1037" ht="12.75" customHeight="1" s="196">
+    <row r="1037" ht="12.75" customHeight="1" s="195">
       <c r="A1037" s="85" t="inlineStr">
         <is>
           <t>ОЖ G-Energy Antifreeze NF 40</t>
@@ -40587,7 +40569,7 @@
       <c r="T1037" s="23" t="n"/>
       <c r="U1037" s="22" t="n"/>
     </row>
-    <row r="1038" ht="12.75" customHeight="1" s="196">
+    <row r="1038" ht="12.75" customHeight="1" s="195">
       <c r="A1038" s="85" t="inlineStr">
         <is>
           <t>ОЖ G-Energy Antifreeze NF 40</t>
@@ -40626,7 +40608,7 @@
       <c r="T1038" s="23" t="n"/>
       <c r="U1038" s="22" t="n"/>
     </row>
-    <row r="1039" ht="12.75" customHeight="1" s="196">
+    <row r="1039" ht="12.75" customHeight="1" s="195">
       <c r="A1039" s="85" t="inlineStr">
         <is>
           <t>ОЖ G-Energy Antifreeze NF 40</t>
@@ -40657,7 +40639,7 @@
       <c r="T1039" s="23" t="n"/>
       <c r="U1039" s="22" t="n"/>
     </row>
-    <row r="1040" ht="12.75" customHeight="1" s="196">
+    <row r="1040" ht="12.75" customHeight="1" s="195">
       <c r="A1040" s="85" t="inlineStr">
         <is>
           <t>ОЖ G-Energy Antifreeze NF</t>
@@ -40690,7 +40672,7 @@
       <c r="T1040" s="23" t="n"/>
       <c r="U1040" s="22" t="n"/>
     </row>
-    <row r="1041" ht="12.75" customHeight="1" s="196">
+    <row r="1041" ht="12.75" customHeight="1" s="195">
       <c r="A1041" s="85" t="inlineStr">
         <is>
           <t>ОЖ G-Energy Antifreeze NF</t>
@@ -40723,7 +40705,7 @@
       <c r="T1041" s="23" t="n"/>
       <c r="U1041" s="22" t="n"/>
     </row>
-    <row r="1042" ht="12.75" customHeight="1" s="196">
+    <row r="1042" ht="12.75" customHeight="1" s="195">
       <c r="A1042" s="85" t="inlineStr">
         <is>
           <t>ОЖ G-Energy Antifreeze NF</t>
@@ -40756,7 +40738,7 @@
       <c r="T1042" s="23" t="n"/>
       <c r="U1042" s="22" t="n"/>
     </row>
-    <row r="1043" ht="12.75" customHeight="1" s="196">
+    <row r="1043" ht="12.75" customHeight="1" s="195">
       <c r="A1043" s="85" t="inlineStr">
         <is>
           <t>ОЖ G-Energy Antifreeze NF</t>
@@ -40787,7 +40769,7 @@
       <c r="T1043" s="23" t="n"/>
       <c r="U1043" s="22" t="n"/>
     </row>
-    <row r="1044" ht="12.75" customHeight="1" s="196">
+    <row r="1044" ht="12.75" customHeight="1" s="195">
       <c r="A1044" s="85" t="inlineStr">
         <is>
           <t>ОЖ G-Energy Antifreeze 40</t>
@@ -40824,7 +40806,7 @@
       <c r="T1044" s="23" t="n"/>
       <c r="U1044" s="22" t="n"/>
     </row>
-    <row r="1045" ht="12.75" customHeight="1" s="196">
+    <row r="1045" ht="12.75" customHeight="1" s="195">
       <c r="A1045" s="85" t="inlineStr">
         <is>
           <t>ОЖ G-Energy Antifreeze 40</t>
@@ -40857,7 +40839,7 @@
       <c r="T1045" s="23" t="n"/>
       <c r="U1045" s="22" t="n"/>
     </row>
-    <row r="1046" ht="12.75" customHeight="1" s="196">
+    <row r="1046" ht="12.75" customHeight="1" s="195">
       <c r="A1046" s="85" t="inlineStr">
         <is>
           <t>ОЖ G-Energy Antifreeze 40</t>
@@ -40890,7 +40872,7 @@
       <c r="T1046" s="23" t="n"/>
       <c r="U1046" s="22" t="n"/>
     </row>
-    <row r="1047" ht="12.75" customHeight="1" s="196">
+    <row r="1047" ht="12.75" customHeight="1" s="195">
       <c r="A1047" s="85" t="inlineStr">
         <is>
           <t>ОЖ G-Energy Antifreeze 40</t>
@@ -40923,7 +40905,7 @@
       <c r="T1047" s="23" t="n"/>
       <c r="U1047" s="22" t="n"/>
     </row>
-    <row r="1048" ht="13.5" customHeight="1" s="196">
+    <row r="1048" ht="13.5" customHeight="1" s="195">
       <c r="A1048" s="85" t="inlineStr">
         <is>
           <t>ОЖ G-Energy Antifreeze 40</t>
@@ -40954,7 +40936,7 @@
       <c r="T1048" s="23" t="n"/>
       <c r="U1048" s="22" t="n"/>
     </row>
-    <row r="1049" ht="12.75" customHeight="1" s="196">
+    <row r="1049" ht="12.75" customHeight="1" s="195">
       <c r="A1049" s="85" t="inlineStr">
         <is>
           <t>ОЖ G-Energy Antifreeze 65</t>
@@ -40987,7 +40969,7 @@
       <c r="T1049" s="23" t="n"/>
       <c r="U1049" s="22" t="n"/>
     </row>
-    <row r="1050" ht="12.75" customHeight="1" s="196">
+    <row r="1050" ht="12.75" customHeight="1" s="195">
       <c r="A1050" s="85" t="inlineStr">
         <is>
           <t>ОЖ G-Energy Antifreeze 65</t>
@@ -41020,7 +41002,7 @@
       <c r="T1050" s="23" t="n"/>
       <c r="U1050" s="22" t="n"/>
     </row>
-    <row r="1051" ht="12.75" customHeight="1" s="196">
+    <row r="1051" ht="12.75" customHeight="1" s="195">
       <c r="A1051" s="85" t="inlineStr">
         <is>
           <t>ОЖ G-Energy Antifreeze</t>
@@ -41053,7 +41035,7 @@
       <c r="T1051" s="23" t="n"/>
       <c r="U1051" s="22" t="n"/>
     </row>
-    <row r="1052" ht="12.75" customHeight="1" s="196">
+    <row r="1052" ht="12.75" customHeight="1" s="195">
       <c r="A1052" s="85" t="inlineStr">
         <is>
           <t>ОЖ G-Energy Antifreeze</t>
@@ -41086,7 +41068,7 @@
       <c r="T1052" s="23" t="n"/>
       <c r="U1052" s="22" t="n"/>
     </row>
-    <row r="1053" ht="12.75" customHeight="1" s="196">
+    <row r="1053" ht="12.75" customHeight="1" s="195">
       <c r="A1053" s="85" t="inlineStr">
         <is>
           <t>ОЖ G-Energy Antifreeze</t>
@@ -41119,7 +41101,7 @@
       <c r="T1053" s="23" t="n"/>
       <c r="U1053" s="22" t="n"/>
     </row>
-    <row r="1054" ht="12.75" customHeight="1" s="196">
+    <row r="1054" ht="12.75" customHeight="1" s="195">
       <c r="A1054" s="85" t="inlineStr">
         <is>
           <t>ОЖ G-Energy Antifreeze</t>
@@ -41150,7 +41132,7 @@
       <c r="T1054" s="23" t="n"/>
       <c r="U1054" s="22" t="n"/>
     </row>
-    <row r="1055" ht="12.75" customHeight="1" s="196">
+    <row r="1055" ht="12.75" customHeight="1" s="195">
       <c r="A1055" s="85" t="inlineStr">
         <is>
           <t>ОЖ G-Energy Antifreeze HD 40</t>
@@ -41183,7 +41165,7 @@
       <c r="T1055" s="23" t="n"/>
       <c r="U1055" s="22" t="n"/>
     </row>
-    <row r="1056" ht="12.75" customHeight="1" s="196">
+    <row r="1056" ht="12.75" customHeight="1" s="195">
       <c r="A1056" s="85" t="inlineStr">
         <is>
           <t>ОЖ G-Energy Antifreeze HD 40</t>
@@ -41220,7 +41202,7 @@
       <c r="T1056" s="23" t="n"/>
       <c r="U1056" s="22" t="n"/>
     </row>
-    <row r="1057" ht="12.75" customHeight="1" s="196">
+    <row r="1057" ht="12.75" customHeight="1" s="195">
       <c r="A1057" s="85" t="inlineStr">
         <is>
           <t>ОЖ G-Energy Antifreeze HD 40</t>
@@ -41251,7 +41233,7 @@
       <c r="T1057" s="23" t="n"/>
       <c r="U1057" s="22" t="n"/>
     </row>
-    <row r="1058" ht="12.75" customHeight="1" s="196">
+    <row r="1058" ht="12.75" customHeight="1" s="195">
       <c r="A1058" s="85" t="inlineStr">
         <is>
           <t>ОЖ G-Energy Antifreeze HD</t>
@@ -41284,7 +41266,7 @@
       <c r="T1058" s="23" t="n"/>
       <c r="U1058" s="22" t="n"/>
     </row>
-    <row r="1059" ht="12.75" customHeight="1" s="196">
+    <row r="1059" ht="12.75" customHeight="1" s="195">
       <c r="A1059" s="85" t="inlineStr">
         <is>
           <t>ОЖ G-Energy Antifreeze HD</t>
@@ -41317,7 +41299,7 @@
       <c r="T1059" s="23" t="n"/>
       <c r="U1059" s="22" t="n"/>
     </row>
-    <row r="1060" ht="12.75" customHeight="1" s="196">
+    <row r="1060" ht="12.75" customHeight="1" s="195">
       <c r="A1060" s="86" t="inlineStr">
         <is>
           <t xml:space="preserve">ОЖ G-Energy Antifreeze Si-OAT 40 </t>
@@ -41350,7 +41332,7 @@
       <c r="T1060" s="23" t="n"/>
       <c r="U1060" s="22" t="n"/>
     </row>
-    <row r="1061" ht="12.75" customHeight="1" s="196">
+    <row r="1061" ht="12.75" customHeight="1" s="195">
       <c r="A1061" s="86" t="inlineStr">
         <is>
           <t xml:space="preserve">ОЖ G-Energy Antifreeze Si-OAT 40 </t>
@@ -41383,7 +41365,7 @@
       <c r="T1061" s="23" t="n"/>
       <c r="U1061" s="22" t="n"/>
     </row>
-    <row r="1062" ht="12.75" customHeight="1" s="196">
+    <row r="1062" ht="12.75" customHeight="1" s="195">
       <c r="A1062" s="86" t="inlineStr">
         <is>
           <t xml:space="preserve">ОЖ G-Energy Antifreeze Si-OAT 40 </t>
@@ -41420,7 +41402,7 @@
       <c r="T1062" s="23" t="n"/>
       <c r="U1062" s="22" t="n"/>
     </row>
-    <row r="1063" ht="12.75" customHeight="1" s="196">
+    <row r="1063" ht="12.75" customHeight="1" s="195">
       <c r="A1063" s="86" t="inlineStr">
         <is>
           <t xml:space="preserve">ОЖ G-Energy Antifreeze Si-OAT 40 </t>
@@ -41457,7 +41439,7 @@
       <c r="T1063" s="23" t="n"/>
       <c r="U1063" s="22" t="n"/>
     </row>
-    <row r="1064" ht="12.75" customHeight="1" s="196">
+    <row r="1064" ht="12.75" customHeight="1" s="195">
       <c r="A1064" s="86" t="inlineStr">
         <is>
           <t xml:space="preserve">ОЖ G-Energy Antifreeze Si-OAT 40 </t>
@@ -41488,7 +41470,7 @@
       <c r="T1064" s="23" t="n"/>
       <c r="U1064" s="22" t="n"/>
     </row>
-    <row r="1065" ht="12.75" customHeight="1" s="196">
+    <row r="1065" ht="12.75" customHeight="1" s="195">
       <c r="A1065" s="86" t="inlineStr">
         <is>
           <t>ОЖ G-Energy Antifreeze Si-OAT</t>
@@ -41521,7 +41503,7 @@
       <c r="T1065" s="23" t="n"/>
       <c r="U1065" s="22" t="n"/>
     </row>
-    <row r="1066" ht="12.75" customHeight="1" s="196">
+    <row r="1066" ht="12.75" customHeight="1" s="195">
       <c r="A1066" s="86" t="inlineStr">
         <is>
           <t>ОЖ G-Energy Antifreeze Si-OAT</t>
@@ -41554,7 +41536,7 @@
       <c r="T1066" s="23" t="n"/>
       <c r="U1066" s="22" t="n"/>
     </row>
-    <row r="1067" ht="12.75" customHeight="1" s="196">
+    <row r="1067" ht="12.75" customHeight="1" s="195">
       <c r="A1067" s="88" t="inlineStr">
         <is>
           <t>ОЖ G-Energy Antifreeze Psi-OAT</t>
@@ -41585,7 +41567,7 @@
       <c r="T1067" s="21" t="n"/>
       <c r="U1067" s="22" t="n"/>
     </row>
-    <row r="1068" ht="12.75" customHeight="1" s="196">
+    <row r="1068" ht="12.75" customHeight="1" s="195">
       <c r="A1068" s="88" t="inlineStr">
         <is>
           <t>ОЖ G-Energy Antifreeze Psi-OAT</t>
@@ -41616,7 +41598,7 @@
       <c r="T1068" s="21" t="n"/>
       <c r="U1068" s="22" t="n"/>
     </row>
-    <row r="1069" ht="12.75" customHeight="1" s="196">
+    <row r="1069" ht="12.75" customHeight="1" s="195">
       <c r="A1069" s="88" t="inlineStr">
         <is>
           <t>ОЖ G-Energy Antifreeze Psi-OAT 40</t>
@@ -41647,7 +41629,7 @@
       <c r="T1069" s="21" t="n"/>
       <c r="U1069" s="22" t="n"/>
     </row>
-    <row r="1070" ht="12.75" customHeight="1" s="196">
+    <row r="1070" ht="12.75" customHeight="1" s="195">
       <c r="A1070" s="88" t="inlineStr">
         <is>
           <t>ОЖ G-Energy Antifreeze Psi-OAT 40</t>
@@ -41678,7 +41660,7 @@
       <c r="T1070" s="21" t="n"/>
       <c r="U1070" s="22" t="n"/>
     </row>
-    <row r="1071" ht="12.75" customHeight="1" s="196">
+    <row r="1071" ht="12.75" customHeight="1" s="195">
       <c r="A1071" s="88" t="inlineStr">
         <is>
           <t>ОЖ G-Energy Antifreeze Psi-OAT 40</t>
@@ -41709,7 +41691,7 @@
       <c r="T1071" s="21" t="n"/>
       <c r="U1071" s="22" t="n"/>
     </row>
-    <row r="1072" ht="12.75" customHeight="1" s="196">
+    <row r="1072" ht="12.75" customHeight="1" s="195">
       <c r="A1072" s="88" t="inlineStr">
         <is>
           <t>ОЖ G-Energy Antifreeze Psi-OAT 40</t>
@@ -41740,7 +41722,7 @@
       <c r="T1072" s="21" t="n"/>
       <c r="U1072" s="22" t="n"/>
     </row>
-    <row r="1073" ht="12.75" customHeight="1" s="196">
+    <row r="1073" ht="12.75" customHeight="1" s="195">
       <c r="A1073" s="70" t="inlineStr">
         <is>
           <t>Жидкость торм.G-EnergyExpert DOT4</t>
@@ -41771,7 +41753,7 @@
       <c r="T1073" s="23" t="n"/>
       <c r="U1073" s="22" t="n"/>
     </row>
-    <row r="1074" ht="12.75" customHeight="1" s="196">
+    <row r="1074" ht="12.75" customHeight="1" s="195">
       <c r="A1074" s="70" t="inlineStr">
         <is>
           <t>Жидкость торм.G-EnergyExpert DOT4</t>
@@ -41806,7 +41788,7 @@
       <c r="T1074" s="23" t="n"/>
       <c r="U1074" s="22" t="n"/>
     </row>
-    <row r="1075" ht="12.75" customHeight="1" s="196">
+    <row r="1075" ht="12.75" customHeight="1" s="195">
       <c r="A1075" s="70" t="inlineStr">
         <is>
           <t>Жидкость торм.G-EnergyExpert DOT4</t>
@@ -41874,7 +41856,7 @@
       <c r="T1076" s="21" t="n"/>
       <c r="U1076" s="22" t="n"/>
     </row>
-    <row r="1077" ht="12.75" customHeight="1" s="196">
+    <row r="1077" ht="12.75" customHeight="1" s="195">
       <c r="A1077" s="86" t="inlineStr">
         <is>
           <t>ОЖ ГАЗПРОМНЕФТЬ АНТИФРИЗ SF12+ 40</t>
@@ -41907,7 +41889,7 @@
       <c r="T1077" s="23" t="n"/>
       <c r="U1077" s="22" t="n"/>
     </row>
-    <row r="1078" ht="12.75" customHeight="1" s="196">
+    <row r="1078" ht="12.75" customHeight="1" s="195">
       <c r="A1078" s="86" t="inlineStr">
         <is>
           <t>ОЖ ГАЗПРОМНЕФТЬ АНТИФРИЗ SF12+ 40</t>
@@ -41940,7 +41922,7 @@
       <c r="T1078" s="23" t="n"/>
       <c r="U1078" s="22" t="n"/>
     </row>
-    <row r="1079" ht="12.75" customHeight="1" s="196">
+    <row r="1079" ht="12.75" customHeight="1" s="195">
       <c r="A1079" s="86" t="inlineStr">
         <is>
           <t>ОЖ ГАЗПРОМНЕФТЬ АНТИФРИЗ SF12+ 40</t>
@@ -41973,7 +41955,7 @@
       <c r="T1079" s="23" t="n"/>
       <c r="U1079" s="22" t="n"/>
     </row>
-    <row r="1080" ht="12.75" customHeight="1" s="196">
+    <row r="1080" ht="12.75" customHeight="1" s="195">
       <c r="A1080" s="86" t="inlineStr">
         <is>
           <t>ОЖ ГАЗПРОМНЕФТЬ АНТИФРИЗ SF12+ 40</t>
@@ -42006,7 +41988,7 @@
       <c r="T1080" s="23" t="n"/>
       <c r="U1080" s="22" t="n"/>
     </row>
-    <row r="1081" ht="12.75" customHeight="1" s="196">
+    <row r="1081" ht="12.75" customHeight="1" s="195">
       <c r="A1081" s="86" t="inlineStr">
         <is>
           <t>ОЖ ГАЗПРОМНЕФТЬ АНТИФРИЗ SF12+ 40</t>
@@ -42037,7 +42019,7 @@
       <c r="T1081" s="23" t="n"/>
       <c r="U1081" s="22" t="n"/>
     </row>
-    <row r="1082" ht="12.75" customHeight="1" s="196">
+    <row r="1082" ht="12.75" customHeight="1" s="195">
       <c r="A1082" s="86" t="inlineStr">
         <is>
           <t>ОЖ ГАЗПРОМНЕФТЬ АНТИФРИЗ SF12+</t>
@@ -42070,7 +42052,7 @@
       <c r="T1082" s="23" t="n"/>
       <c r="U1082" s="22" t="n"/>
     </row>
-    <row r="1083" ht="12.75" customHeight="1" s="196">
+    <row r="1083" ht="12.75" customHeight="1" s="195">
       <c r="A1083" s="86" t="inlineStr">
         <is>
           <t>ОЖ ГАЗПРОМНЕФТЬ АНТИФРИЗ SF12+</t>
@@ -42103,7 +42085,7 @@
       <c r="T1083" s="23" t="n"/>
       <c r="U1083" s="22" t="n"/>
     </row>
-    <row r="1084" ht="12.75" customHeight="1" s="196">
+    <row r="1084" ht="12.75" customHeight="1" s="195">
       <c r="A1084" s="86" t="inlineStr">
         <is>
           <t>ОЖ ГАЗПРОМНЕФТЬ АНТИФРИЗ SF12+</t>
@@ -42134,7 +42116,7 @@
       <c r="T1084" s="23" t="n"/>
       <c r="U1084" s="22" t="n"/>
     </row>
-    <row r="1085" ht="12.75" customHeight="1" s="196">
+    <row r="1085" ht="12.75" customHeight="1" s="195">
       <c r="A1085" s="85" t="inlineStr">
         <is>
           <t>ОЖ ГАЗПРОМНЕФТЬ АНТИФРИЗ 40</t>
@@ -42169,7 +42151,7 @@
       <c r="T1085" s="23" t="n"/>
       <c r="U1085" s="22" t="n"/>
     </row>
-    <row r="1086" ht="12.75" customHeight="1" s="196">
+    <row r="1086" ht="12.75" customHeight="1" s="195">
       <c r="A1086" s="85" t="inlineStr">
         <is>
           <t>ОЖ ГАЗПРОМНЕФТЬ АНТИФРИЗ 40</t>
@@ -42204,7 +42186,7 @@
       <c r="T1086" s="23" t="n"/>
       <c r="U1086" s="22" t="n"/>
     </row>
-    <row r="1087" ht="12.75" customHeight="1" s="196">
+    <row r="1087" ht="12.75" customHeight="1" s="195">
       <c r="A1087" s="85" t="inlineStr">
         <is>
           <t>ОЖ ГАЗПРОМНЕФТЬ АНТИФРИЗ 40</t>
@@ -42237,7 +42219,7 @@
       <c r="T1087" s="23" t="n"/>
       <c r="U1087" s="22" t="n"/>
     </row>
-    <row r="1088" ht="12.75" customHeight="1" s="196">
+    <row r="1088" ht="12.75" customHeight="1" s="195">
       <c r="A1088" s="85" t="inlineStr">
         <is>
           <t>ОЖ ГАЗПРОМНЕФТЬ АНТИФРИЗ 40</t>
@@ -42270,7 +42252,7 @@
       <c r="T1088" s="23" t="n"/>
       <c r="U1088" s="22" t="n"/>
     </row>
-    <row r="1089" ht="12.75" customHeight="1" s="196">
+    <row r="1089" ht="12.75" customHeight="1" s="195">
       <c r="A1089" s="85" t="inlineStr">
         <is>
           <t>ОЖ ГАЗПРОМНЕФТЬ АНТИФРИЗ 40</t>
@@ -42301,7 +42283,7 @@
       <c r="T1089" s="23" t="n"/>
       <c r="U1089" s="22" t="n"/>
     </row>
-    <row r="1090" ht="12.75" customHeight="1" s="196">
+    <row r="1090" ht="12.75" customHeight="1" s="195">
       <c r="A1090" s="85" t="inlineStr">
         <is>
           <t>ОЖ ГАЗПРОМНЕФТЬ АНТИФРИЗ 40 (BS)</t>
@@ -42334,7 +42316,7 @@
       <c r="T1090" s="23" t="n"/>
       <c r="U1090" s="22" t="n"/>
     </row>
-    <row r="1091" ht="12.75" customHeight="1" s="196">
+    <row r="1091" ht="12.75" customHeight="1" s="195">
       <c r="A1091" s="85" t="inlineStr">
         <is>
           <t>ОЖ ГАЗПРОМНЕФТЬ АНТИФРИЗ 40 (BS)</t>
@@ -42367,7 +42349,7 @@
       <c r="T1091" s="23" t="n"/>
       <c r="U1091" s="22" t="n"/>
     </row>
-    <row r="1092" ht="12.75" customHeight="1" s="196">
+    <row r="1092" ht="12.75" customHeight="1" s="195">
       <c r="A1092" s="85" t="inlineStr">
         <is>
           <t>ОЖ ГАЗПРОМНЕФТЬ АНТИФРИЗ 40 (BS)</t>
@@ -42400,7 +42382,7 @@
       <c r="T1092" s="23" t="n"/>
       <c r="U1092" s="22" t="n"/>
     </row>
-    <row r="1093" ht="12.75" customHeight="1" s="196">
+    <row r="1093" ht="12.75" customHeight="1" s="195">
       <c r="A1093" s="85" t="inlineStr">
         <is>
           <t>ОЖ ГАЗПРОМНЕФТЬ АНТИФРИЗ 40 (BS)</t>
@@ -42433,7 +42415,7 @@
       <c r="T1093" s="23" t="n"/>
       <c r="U1093" s="22" t="n"/>
     </row>
-    <row r="1094" ht="12.75" customHeight="1" s="196">
+    <row r="1094" ht="12.75" customHeight="1" s="195">
       <c r="A1094" s="85" t="inlineStr">
         <is>
           <t>ОЖ ГАЗПРОМНЕФТЬ АНТИФРИЗ 40 (BS)</t>
@@ -42464,7 +42446,7 @@
       <c r="T1094" s="23" t="n"/>
       <c r="U1094" s="22" t="n"/>
     </row>
-    <row r="1095" ht="12.75" customHeight="1" s="196">
+    <row r="1095" ht="12.75" customHeight="1" s="195">
       <c r="A1095" s="52" t="inlineStr">
         <is>
           <t>ОЖ ГАЗПРОМНЕФТЬ АНТИФРИЗ</t>
@@ -42497,7 +42479,7 @@
       <c r="T1095" s="23" t="n"/>
       <c r="U1095" s="22" t="n"/>
     </row>
-    <row r="1096" ht="12.75" customHeight="1" s="196">
+    <row r="1096" ht="12.75" customHeight="1" s="195">
       <c r="A1096" s="52" t="inlineStr">
         <is>
           <t>ОЖ ГАЗПРОМНЕФТЬ АНТИФРИЗ</t>
@@ -42530,7 +42512,7 @@
       <c r="T1096" s="23" t="n"/>
       <c r="U1096" s="22" t="n"/>
     </row>
-    <row r="1097" ht="12.75" customHeight="1" s="196">
+    <row r="1097" ht="12.75" customHeight="1" s="195">
       <c r="A1097" s="52" t="inlineStr">
         <is>
           <t>ОЖ ГАЗПРОМНЕФТЬ АНТИФРИЗ</t>
@@ -42561,7 +42543,7 @@
       <c r="T1097" s="23" t="n"/>
       <c r="U1097" s="22" t="n"/>
     </row>
-    <row r="1098" ht="12.75" customHeight="1" s="196">
+    <row r="1098" ht="12.75" customHeight="1" s="195">
       <c r="A1098" s="52" t="inlineStr">
         <is>
           <t>ОЖ ГАЗПРОМНЕФТЬ АНТИФРИЗ (BS)</t>
@@ -42594,7 +42576,7 @@
       <c r="T1098" s="23" t="n"/>
       <c r="U1098" s="22" t="n"/>
     </row>
-    <row r="1099" ht="12.75" customHeight="1" s="196">
+    <row r="1099" ht="12.75" customHeight="1" s="195">
       <c r="A1099" s="52" t="inlineStr">
         <is>
           <t>ОЖ ГАЗПРОМНЕФТЬ АНТИФРИЗ (BS)</t>
@@ -42627,7 +42609,7 @@
       <c r="T1099" s="23" t="n"/>
       <c r="U1099" s="22" t="n"/>
     </row>
-    <row r="1100" ht="12.75" customHeight="1" s="196">
+    <row r="1100" ht="12.75" customHeight="1" s="195">
       <c r="A1100" s="52" t="inlineStr">
         <is>
           <t>ОЖ ГАЗПРОМНЕФТЬ АНТИФРИЗ (BS)</t>
@@ -42658,7 +42640,7 @@
       <c r="T1100" s="23" t="n"/>
       <c r="U1100" s="22" t="n"/>
     </row>
-    <row r="1101" ht="12.75" customHeight="1" s="196">
+    <row r="1101" ht="12.75" customHeight="1" s="195">
       <c r="A1101" s="52" t="inlineStr">
         <is>
           <t>ОЖ ГАЗПРОМНЕФТЬ ТОСОЛ 40</t>
@@ -42689,7 +42671,7 @@
       <c r="T1101" s="23" t="n"/>
       <c r="U1101" s="22" t="n"/>
     </row>
-    <row r="1102" ht="12.75" customHeight="1" s="196">
+    <row r="1102" ht="12.75" customHeight="1" s="195">
       <c r="A1102" s="52" t="inlineStr">
         <is>
           <t>ОЖ ГАЗПРОМНЕФТЬ ТОСОЛ 40</t>
@@ -42720,7 +42702,7 @@
       <c r="T1102" s="23" t="n"/>
       <c r="U1102" s="22" t="n"/>
     </row>
-    <row r="1103" ht="12.75" customHeight="1" s="196">
+    <row r="1103" ht="12.75" customHeight="1" s="195">
       <c r="A1103" s="52" t="inlineStr">
         <is>
           <t>ОЖ ГАЗПРОМНЕФТЬ ТОСОЛ 40</t>
@@ -42751,7 +42733,7 @@
       <c r="T1103" s="23" t="n"/>
       <c r="U1103" s="22" t="n"/>
     </row>
-    <row r="1104" ht="12.75" customHeight="1" s="196">
+    <row r="1104" ht="12.75" customHeight="1" s="195">
       <c r="A1104" s="52" t="inlineStr">
         <is>
           <t>ОЖ ГАЗПРОМНЕФТЬ ТОСОЛ 40</t>
@@ -42782,7 +42764,7 @@
       <c r="T1104" s="23" t="n"/>
       <c r="U1104" s="22" t="n"/>
     </row>
-    <row r="1105" ht="12.75" customHeight="1" s="196">
+    <row r="1105" ht="12.75" customHeight="1" s="195">
       <c r="A1105" s="52" t="inlineStr">
         <is>
           <t>ОЖ ГАЗПРОМНЕФТЬ ТОСОЛ 40</t>
@@ -42813,7 +42795,7 @@
       <c r="T1105" s="23" t="n"/>
       <c r="U1105" s="22" t="n"/>
     </row>
-    <row r="1106" ht="12.75" customHeight="1" s="196">
+    <row r="1106" ht="12.75" customHeight="1" s="195">
       <c r="A1106" s="52" t="inlineStr">
         <is>
           <t>ОЖ ГАЗПРОМНЕФТЬ ТОСОЛ 65</t>
@@ -42844,7 +42826,7 @@
       <c r="T1106" s="23" t="n"/>
       <c r="U1106" s="22" t="n"/>
     </row>
-    <row r="1107" ht="12.75" customHeight="1" s="196">
+    <row r="1107" ht="12.75" customHeight="1" s="195">
       <c r="A1107" s="52" t="inlineStr">
         <is>
           <t>ОЖ ГАЗПРОМНЕФТЬ ТОСОЛ 65</t>
@@ -42875,7 +42857,7 @@
       <c r="T1107" s="23" t="n"/>
       <c r="U1107" s="22" t="n"/>
     </row>
-    <row r="1108" ht="12.75" customHeight="1" s="196">
+    <row r="1108" ht="12.75" customHeight="1" s="195">
       <c r="A1108" s="52" t="inlineStr">
         <is>
           <t>ОЖ ГАЗПРОМНЕФТЬ ТОСОЛ 65</t>
@@ -42906,7 +42888,7 @@
       <c r="T1108" s="23" t="n"/>
       <c r="U1108" s="22" t="n"/>
     </row>
-    <row r="1109" ht="12.75" customHeight="1" s="196">
+    <row r="1109" ht="12.75" customHeight="1" s="195">
       <c r="A1109" s="52" t="inlineStr">
         <is>
           <t>ОЖ ГАЗПРОМНЕФТЬ ТОСОЛ 65</t>
@@ -42937,7 +42919,7 @@
       <c r="T1109" s="23" t="n"/>
       <c r="U1109" s="22" t="n"/>
     </row>
-    <row r="1110" ht="12.75" customHeight="1" s="196">
+    <row r="1110" ht="12.75" customHeight="1" s="195">
       <c r="A1110" s="52" t="inlineStr">
         <is>
           <t>ОЖ ГАЗПРОМНЕФТЬ АНТИФРИЗ Арктик</t>
@@ -42968,7 +42950,7 @@
       <c r="T1110" s="23" t="n"/>
       <c r="U1110" s="22" t="n"/>
     </row>
-    <row r="1111" ht="12.75" customHeight="1" s="196">
+    <row r="1111" ht="12.75" customHeight="1" s="195">
       <c r="A1111" s="52" t="inlineStr">
         <is>
           <t>ОЖ ГАЗПРОМНЕФТЬ АНТИФРИЗ Арктик</t>
@@ -42999,7 +42981,7 @@
       <c r="T1111" s="23" t="n"/>
       <c r="U1111" s="22" t="n"/>
     </row>
-    <row r="1112" ht="12.75" customHeight="1" s="196">
+    <row r="1112" ht="12.75" customHeight="1" s="195">
       <c r="A1112" s="52" t="inlineStr">
         <is>
           <t>ОЖ ГАЗПРОМНЕФТЬ ТОСОЛ</t>
@@ -43030,7 +43012,7 @@
       <c r="T1112" s="23" t="n"/>
       <c r="U1112" s="22" t="n"/>
     </row>
-    <row r="1113" ht="12.75" customHeight="1" s="196">
+    <row r="1113" ht="12.75" customHeight="1" s="195">
       <c r="A1113" s="52" t="inlineStr">
         <is>
           <t>ОЖ ГАЗПРОМНЕФТЬ ТОСОЛ</t>
@@ -43061,7 +43043,7 @@
       <c r="T1113" s="23" t="n"/>
       <c r="U1113" s="22" t="n"/>
     </row>
-    <row r="1114" ht="12.75" customHeight="1" s="196">
+    <row r="1114" ht="12.75" customHeight="1" s="195">
       <c r="A1114" s="90" t="inlineStr">
         <is>
           <t>Жидкость торм. Gazpromneft DOT4</t>
@@ -43092,7 +43074,7 @@
       <c r="T1114" s="21" t="n"/>
       <c r="U1114" s="22" t="n"/>
     </row>
-    <row r="1115" ht="12.75" customHeight="1" s="196">
+    <row r="1115" ht="12.75" customHeight="1" s="195">
       <c r="A1115" s="90" t="inlineStr">
         <is>
           <t>Жидкость торм. Gazpromneft DOT4</t>
@@ -43123,7 +43105,7 @@
       <c r="T1115" s="21" t="n"/>
       <c r="U1115" s="22" t="n"/>
     </row>
-    <row r="1116" ht="12.75" customHeight="1" s="196">
+    <row r="1116" ht="12.75" customHeight="1" s="195">
       <c r="A1116" s="52" t="inlineStr">
         <is>
           <t>Газпромнефть Теплоноситель 30</t>
@@ -43154,7 +43136,7 @@
       <c r="T1116" s="23" t="n"/>
       <c r="U1116" s="22" t="n"/>
     </row>
-    <row r="1117" ht="12.75" customHeight="1" s="196">
+    <row r="1117" ht="12.75" customHeight="1" s="195">
       <c r="A1117" s="52" t="inlineStr">
         <is>
           <t>Газпромнефть Теплоноситель 30</t>
@@ -43185,7 +43167,7 @@
       <c r="T1117" s="23" t="n"/>
       <c r="U1117" s="22" t="n"/>
     </row>
-    <row r="1118" ht="12.75" customHeight="1" s="196">
+    <row r="1118" ht="12.75" customHeight="1" s="195">
       <c r="A1118" s="52" t="inlineStr">
         <is>
           <t>Газпромнефть Теплоноситель 30</t>
@@ -43216,7 +43198,7 @@
       <c r="T1118" s="23" t="n"/>
       <c r="U1118" s="22" t="n"/>
     </row>
-    <row r="1119" ht="12.75" customHeight="1" s="196">
+    <row r="1119" ht="12.75" customHeight="1" s="195">
       <c r="A1119" s="52" t="inlineStr">
         <is>
           <t>Газпромнефть Теплоноситель 65</t>
@@ -43247,7 +43229,7 @@
       <c r="T1119" s="23" t="n"/>
       <c r="U1119" s="22" t="n"/>
     </row>
-    <row r="1120" ht="12.75" customHeight="1" s="196">
+    <row r="1120" ht="12.75" customHeight="1" s="195">
       <c r="A1120" s="52" t="inlineStr">
         <is>
           <t>Газпромнефть Теплоноситель 65</t>
@@ -43278,7 +43260,7 @@
       <c r="T1120" s="23" t="n"/>
       <c r="U1120" s="22" t="n"/>
     </row>
-    <row r="1121" ht="12.75" customHeight="1" s="196">
+    <row r="1121" ht="12.75" customHeight="1" s="195">
       <c r="A1121" s="52" t="inlineStr">
         <is>
           <t>Газпромнефть Теплоноситель 65</t>
@@ -43309,7 +43291,7 @@
       <c r="T1121" s="23" t="n"/>
       <c r="U1121" s="22" t="n"/>
     </row>
-    <row r="1122" ht="12.75" customHeight="1" s="196">
+    <row r="1122" ht="12.75" customHeight="1" s="195">
       <c r="A1122" s="52" t="inlineStr">
         <is>
           <t>ГАЗПРОМНЕФТЬ AdBlue</t>
@@ -43340,7 +43322,7 @@
       <c r="T1122" s="23" t="n"/>
       <c r="U1122" s="22" t="n"/>
     </row>
-    <row r="1123" ht="12.75" customHeight="1" s="196">
+    <row r="1123" ht="12.75" customHeight="1" s="195">
       <c r="A1123" s="52" t="inlineStr">
         <is>
           <t>ГАЗПРОМНЕФТЬ AdBlue</t>
@@ -45275,11 +45257,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.5"/>
   <cols>
-    <col width="11.54296875" customWidth="1" style="196" min="1" max="1"/>
-    <col width="22.1796875" customWidth="1" style="196" min="2" max="2"/>
+    <col width="11.54296875" customWidth="1" style="195" min="1" max="1"/>
+    <col width="22.1796875" customWidth="1" style="195" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" customHeight="1" s="196">
+    <row r="1" ht="13" customHeight="1" s="195">
       <c r="A1" s="119" t="n">
         <v>44075</v>
       </c>
@@ -45288,7 +45270,7 @@
       </c>
       <c r="C1" s="178" t="n"/>
     </row>
-    <row r="2" ht="13" customHeight="1" s="196">
+    <row r="2" ht="13" customHeight="1" s="195">
       <c r="A2" s="120" t="inlineStr">
         <is>
           <t>10.40</t>
@@ -45305,7 +45287,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="13" customHeight="1" s="196">
+    <row r="3" ht="13" customHeight="1" s="195">
       <c r="A3" s="120" t="inlineStr">
         <is>
           <t>12.00</t>
@@ -45322,7 +45304,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="13" customHeight="1" s="196">
+    <row r="4" ht="13" customHeight="1" s="195">
       <c r="A4" s="115" t="inlineStr">
         <is>
           <t>73.13</t>
@@ -45345,7 +45327,7 @@
           <t>Нет товара</t>
         </is>
       </c>
-      <c r="B5" s="195" t="inlineStr">
+      <c r="B5" s="194" t="inlineStr">
         <is>
           <t>Товар снят с позиции</t>
         </is>
@@ -45378,12 +45360,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.5"/>
   <cols>
-    <col width="13.7265625" bestFit="1" customWidth="1" style="196" min="1" max="1"/>
-    <col width="7.54296875" bestFit="1" customWidth="1" style="196" min="2" max="2"/>
-    <col width="44.7265625" bestFit="1" customWidth="1" style="196" min="3" max="3"/>
+    <col width="13.7265625" bestFit="1" customWidth="1" style="195" min="1" max="1"/>
+    <col width="7.54296875" bestFit="1" customWidth="1" style="195" min="2" max="2"/>
+    <col width="44.7265625" bestFit="1" customWidth="1" style="195" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" customHeight="1" s="196">
+    <row r="1" ht="13" customHeight="1" s="195">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Код продукта</t>
@@ -59748,7 +59730,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.5"/>
   <cols>
-    <col width="25.1796875" customWidth="1" style="196" min="1" max="1"/>
+    <col width="25.1796875" customWidth="1" style="195" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/Main Program (парсер масел)/Анализ.xlsx
+++ b/Main Program (парсер масел)/Анализ.xlsx
@@ -191,7 +191,7 @@
       <sz val="9"/>
     </font>
   </fonts>
-  <fills count="32">
+  <fills count="34">
     <fill>
       <patternFill/>
     </fill>
@@ -376,6 +376,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FFFFFF"/>
         <bgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0098FB98"/>
+        <bgColor rgb="0098FB98"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF6347"/>
+        <bgColor rgb="00FF6347"/>
       </patternFill>
     </fill>
   </fills>
@@ -825,7 +837,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -1378,6 +1390,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -4955,9 +4976,9 @@
       </c>
       <c r="D6" s="104" t="n"/>
       <c r="E6" s="164" t="n"/>
-      <c r="F6" s="158" t="inlineStr">
-        <is>
-          <t>20.34</t>
+      <c r="F6" s="198" t="inlineStr">
+        <is>
+          <t>21.00</t>
         </is>
       </c>
       <c r="G6" s="99" t="n"/>
@@ -4990,9 +5011,9 @@
       <c r="C7" s="167" t="n"/>
       <c r="D7" s="104" t="n"/>
       <c r="E7" s="164" t="n"/>
-      <c r="F7" s="158" t="inlineStr">
-        <is>
-          <t>76.77</t>
+      <c r="F7" s="198" t="inlineStr">
+        <is>
+          <t>79.20</t>
         </is>
       </c>
       <c r="G7" s="99" t="n"/>
@@ -5033,9 +5054,9 @@
         </is>
       </c>
       <c r="E8" s="164" t="n"/>
-      <c r="F8" s="158" t="inlineStr">
-        <is>
-          <t>93.96</t>
+      <c r="F8" s="198" t="inlineStr">
+        <is>
+          <t>97.00</t>
         </is>
       </c>
       <c r="G8" s="99" t="n"/>
@@ -5068,8 +5089,10 @@
       <c r="C9" s="167" t="n"/>
       <c r="D9" s="104" t="n"/>
       <c r="E9" s="164" t="n"/>
-      <c r="F9" s="158" t="n">
-        <v>0</v>
+      <c r="F9" s="198" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G9" s="99" t="n"/>
       <c r="H9" s="19" t="n"/>
@@ -5109,9 +5132,9 @@
           <t>12.65</t>
         </is>
       </c>
-      <c r="F10" s="158" t="inlineStr">
-        <is>
-          <t>558.68</t>
+      <c r="F10" s="197" t="inlineStr">
+        <is>
+          <t>559.18</t>
         </is>
       </c>
       <c r="G10" s="99" t="n"/>
@@ -5144,9 +5167,9 @@
       <c r="C11" s="167" t="n"/>
       <c r="D11" s="104" t="n"/>
       <c r="E11" s="164" t="n"/>
-      <c r="F11" s="158" t="inlineStr">
-        <is>
-          <t>2 357.37</t>
+      <c r="F11" s="197" t="inlineStr">
+        <is>
+          <t>2 432.30</t>
         </is>
       </c>
       <c r="G11" s="99" t="n"/>
@@ -5187,9 +5210,9 @@
           <t>12.65</t>
         </is>
       </c>
-      <c r="F12" s="158" t="inlineStr">
-        <is>
-          <t>16.83</t>
+      <c r="F12" s="197" t="inlineStr">
+        <is>
+          <t>17.30</t>
         </is>
       </c>
       <c r="G12" s="99" t="n"/>
@@ -5226,9 +5249,9 @@
           <t>1 624.70</t>
         </is>
       </c>
-      <c r="F13" s="158" t="inlineStr">
-        <is>
-          <t>63.18</t>
+      <c r="F13" s="197" t="inlineStr">
+        <is>
+          <t>65.20</t>
         </is>
       </c>
       <c r="G13" s="99" t="n"/>
@@ -5269,9 +5292,9 @@
         </is>
       </c>
       <c r="E14" s="164" t="n"/>
-      <c r="F14" s="158" t="inlineStr">
-        <is>
-          <t>77.40</t>
+      <c r="F14" s="197" t="inlineStr">
+        <is>
+          <t>79.80</t>
         </is>
       </c>
       <c r="G14" s="99" t="n"/>
@@ -5304,9 +5327,9 @@
       <c r="C15" s="167" t="n"/>
       <c r="D15" s="104" t="n"/>
       <c r="E15" s="164" t="n"/>
-      <c r="F15" s="158" t="inlineStr">
-        <is>
-          <t>280.44</t>
+      <c r="F15" s="197" t="inlineStr">
+        <is>
+          <t>289.40</t>
         </is>
       </c>
       <c r="G15" s="99" t="n"/>
@@ -5374,9 +5397,9 @@
       <c r="C17" s="167" t="n"/>
       <c r="D17" s="104" t="n"/>
       <c r="E17" s="164" t="n"/>
-      <c r="F17" s="158" t="inlineStr">
-        <is>
-          <t>2 357.37</t>
+      <c r="F17" s="197" t="inlineStr">
+        <is>
+          <t>2 432.30</t>
         </is>
       </c>
       <c r="G17" s="99" t="n"/>
@@ -5413,9 +5436,9 @@
       </c>
       <c r="D18" s="104" t="n"/>
       <c r="E18" s="164" t="n"/>
-      <c r="F18" s="158" t="inlineStr">
-        <is>
-          <t>14.76</t>
+      <c r="F18" s="197" t="inlineStr">
+        <is>
+          <t>15.20</t>
         </is>
       </c>
       <c r="G18" s="99" t="n"/>
@@ -5448,9 +5471,9 @@
       <c r="C19" s="167" t="n"/>
       <c r="D19" s="104" t="n"/>
       <c r="E19" s="164" t="n"/>
-      <c r="F19" s="158" t="inlineStr">
-        <is>
-          <t>55.53</t>
+      <c r="F19" s="197" t="inlineStr">
+        <is>
+          <t>57.30</t>
         </is>
       </c>
       <c r="G19" s="99" t="n"/>
@@ -5491,9 +5514,9 @@
         </is>
       </c>
       <c r="E20" s="164" t="n"/>
-      <c r="F20" s="158" t="inlineStr">
-        <is>
-          <t>68.04</t>
+      <c r="F20" s="197" t="inlineStr">
+        <is>
+          <t>70.20</t>
         </is>
       </c>
       <c r="G20" s="99" t="n"/>
@@ -5530,9 +5553,9 @@
       </c>
       <c r="D21" s="104" t="n"/>
       <c r="E21" s="164" t="n"/>
-      <c r="F21" s="158" t="inlineStr">
-        <is>
-          <t>246.51</t>
+      <c r="F21" s="197" t="inlineStr">
+        <is>
+          <t>254.30</t>
         </is>
       </c>
       <c r="G21" s="99" t="n"/>
@@ -5600,9 +5623,9 @@
       </c>
       <c r="D23" s="104" t="n"/>
       <c r="E23" s="164" t="n"/>
-      <c r="F23" s="158" t="inlineStr">
-        <is>
-          <t>2 060.55</t>
+      <c r="F23" s="197" t="inlineStr">
+        <is>
+          <t>2 126.00</t>
         </is>
       </c>
       <c r="G23" s="99" t="n"/>
@@ -5798,9 +5821,9 @@
       <c r="C29" s="167" t="n"/>
       <c r="D29" s="104" t="n"/>
       <c r="E29" s="164" t="n"/>
-      <c r="F29" s="158" t="inlineStr">
-        <is>
-          <t>225.03</t>
+      <c r="F29" s="197" t="inlineStr">
+        <is>
+          <t>225.25</t>
         </is>
       </c>
       <c r="G29" s="99" t="n"/>
@@ -5868,9 +5891,9 @@
       <c r="C31" s="167" t="n"/>
       <c r="D31" s="104" t="n"/>
       <c r="E31" s="164" t="n"/>
-      <c r="F31" s="158" t="inlineStr">
-        <is>
-          <t>1 665.69</t>
+      <c r="F31" s="197" t="inlineStr">
+        <is>
+          <t>1 667.21</t>
         </is>
       </c>
       <c r="G31" s="99" t="n"/>
@@ -11092,9 +11115,9 @@
         </is>
       </c>
       <c r="E183" s="165" t="n"/>
-      <c r="F183" s="157" t="inlineStr">
-        <is>
-          <t>15.61</t>
+      <c r="F183" s="199" t="inlineStr">
+        <is>
+          <t>14.17</t>
         </is>
       </c>
       <c r="G183" s="99" t="n"/>
@@ -11135,9 +11158,9 @@
         </is>
       </c>
       <c r="E184" s="165" t="n"/>
-      <c r="F184" s="156" t="inlineStr">
-        <is>
-          <t>59.50</t>
+      <c r="F184" s="199" t="inlineStr">
+        <is>
+          <t>55.20</t>
         </is>
       </c>
       <c r="G184" s="99" t="n"/>
@@ -11174,9 +11197,9 @@
       </c>
       <c r="D185" s="104" t="n"/>
       <c r="E185" s="165" t="n"/>
-      <c r="F185" s="157" t="inlineStr">
-        <is>
-          <t>18.60</t>
+      <c r="F185" s="197" t="inlineStr">
+        <is>
+          <t>19.70</t>
         </is>
       </c>
       <c r="G185" s="99" t="n"/>
